--- a/我的创作/财务/证券投资/股票/SEAP交易系统/交易分析/技术面2022-10-21.xlsx
+++ b/我的创作/财务/证券投资/股票/SEAP交易系统/交易分析/技术面2022-10-21.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488">
   <si>
     <t>股票代码</t>
   </si>
@@ -868,6 +868,9 @@
     <t>宝馨科技</t>
   </si>
   <si>
+    <t>否</t>
+  </si>
+  <si>
     <t>002580.SZ</t>
   </si>
   <si>
@@ -1735,12 +1738,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1775,6 +1778,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1782,29 +1792,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1825,17 +1813,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1849,9 +1845,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1865,10 +1875,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1879,24 +1890,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1911,8 +1907,15 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1957,12 +1960,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1975,19 +1972,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1999,25 +2056,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2029,13 +2068,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2053,43 +2092,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2101,31 +2116,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2137,7 +2134,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2208,11 +2211,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2232,17 +2256,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2251,32 +2271,15 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2299,152 +2302,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2452,7 +2455,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2478,9 +2487,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2504,9 +2510,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2519,14 +2522,8 @@
     <xf numFmtId="177" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2934,11 +2931,11 @@
   <dimension ref="A1:AO179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="X86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="F88" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B47" sqref="B47"/>
+      <selection pane="bottomRight" activeCell="J96" sqref="J96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8"/>
@@ -2949,67 +2946,72 @@
     <col min="5" max="5" width="12.0073529411765" customWidth="1"/>
     <col min="6" max="7" width="13.1397058823529" customWidth="1"/>
     <col min="8" max="10" width="7.94117647058824" style="2"/>
-    <col min="11" max="11" width="8.64705882352941"/>
-    <col min="13" max="13" width="8.64705882352941"/>
-    <col min="16" max="16" width="7.94117647058824" style="1"/>
-    <col min="31" max="33" width="12.6470588235294" style="3"/>
+    <col min="11" max="11" width="8.64705882352941" style="3"/>
+    <col min="12" max="12" width="8.35294117647059" style="3"/>
+    <col min="13" max="13" width="8.64705882352941" style="3"/>
+    <col min="14" max="15" width="7.94117647058824" style="3"/>
+    <col min="16" max="22" width="7.94117647058824" style="2"/>
+    <col min="23" max="24" width="7.94117647058824" style="3"/>
+    <col min="28" max="30" width="7.94117647058824" style="1"/>
+    <col min="31" max="32" width="12.6470588235294" style="4"/>
+    <col min="33" max="33" width="12.6470588235294" style="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="28" spans="1:41">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="14" t="s">
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="11"/>
-      <c r="AH1" s="15"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="16"/>
       <c r="AI1" s="22" t="s">
         <v>10</v>
       </c>
@@ -3027,380 +3029,380 @@
       </c>
     </row>
     <row r="2" spans="1:41">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="9" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="15" t="s">
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="15"/>
-      <c r="AI2" s="18" t="s">
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="AJ2" s="18" t="s">
+      <c r="AJ2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="AK2" s="18" t="s">
+      <c r="AK2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="AL2" s="18" t="s">
+      <c r="AL2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AM2" s="18" t="s">
+      <c r="AM2" s="19" t="s">
         <v>25</v>
       </c>
       <c r="AN2" s="24"/>
       <c r="AO2" s="25"/>
     </row>
     <row r="3" ht="41" spans="1:41">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="9" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="S3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="T3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="U3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="V3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="W3" s="9" t="s">
+      <c r="W3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="X3" s="9" t="s">
+      <c r="X3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="Y3" s="17" t="s">
+      <c r="Y3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="Z3" s="17" t="s">
+      <c r="Z3" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="AA3" s="18" t="s">
+      <c r="AA3" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AB3" s="11" t="s">
+      <c r="AB3" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AC3" s="11" t="s">
+      <c r="AC3" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="AD3" s="11" t="s">
+      <c r="AD3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="AE3" s="11" t="s">
+      <c r="AE3" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="AF3" s="11" t="s">
+      <c r="AF3" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="AG3" s="11" t="s">
+      <c r="AG3" s="13" t="s">
         <v>43</v>
       </c>
       <c r="AH3" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="AI3" s="18"/>
-      <c r="AJ3" s="18"/>
-      <c r="AK3" s="18"/>
-      <c r="AL3" s="18"/>
-      <c r="AM3" s="18"/>
+      <c r="AI3" s="19"/>
+      <c r="AJ3" s="19"/>
+      <c r="AK3" s="19"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="19"/>
       <c r="AN3" s="24"/>
       <c r="AO3" s="25"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="8">
         <v>5.02</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="8">
         <v>4.912</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="8">
         <v>4.509</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="8">
         <v>4.442</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="8">
         <v>5.9</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="8">
         <v>5.671</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="8">
         <v>5.558</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="8">
         <v>5.512</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="8">
         <v>26.69</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="8">
         <v>24.434</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="8">
         <v>16.438</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="8">
         <v>15.069</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="8">
         <v>10.55</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="8">
         <v>5.573</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="8">
         <v>5.399</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="8">
         <v>5.208</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="8">
         <v>44.07</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="8">
         <v>36.654</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="8">
         <v>21.942</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="8">
         <v>19.52</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="8">
         <v>9.79</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="8">
         <v>8.663</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="8">
         <v>7.36</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="8">
         <v>7.047</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="8">
         <v>2.53</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="8">
         <v>2.289</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="8">
         <v>2.117</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="8">
         <v>2.079</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="8">
         <v>11.55</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="8">
         <v>6.179</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="8">
         <v>5.77</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="8">
         <v>5.634</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="8">
         <v>12.89</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="8">
         <v>9.188</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="8">
         <v>8.711</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="8">
         <v>8.681</v>
       </c>
     </row>
     <row r="13" spans="1:30">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="8">
         <v>82.51</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="8">
         <v>77.761</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="8">
         <v>66.404</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="8">
         <v>62.741</v>
       </c>
       <c r="H13" s="2">
@@ -3412,143 +3414,143 @@
       <c r="J13" s="2">
         <v>55.68</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="14">
         <f>(D13-H13)/H13</f>
         <v>1.12654639175258</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="14">
         <f>(I13-D13)/I13</f>
         <v>0.067683615819209</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="14">
         <f>(I13-J13)/J13</f>
         <v>0.589439655172414</v>
       </c>
-      <c r="O13" s="16" t="s">
+      <c r="O13" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="2">
         <v>68</v>
       </c>
-      <c r="AB13" s="19">
+      <c r="AB13" s="20">
         <f>(I13-P13)/I13</f>
         <v>0.231638418079096</v>
       </c>
-      <c r="AC13" s="20"/>
-      <c r="AD13" s="20"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="8">
         <v>24.79</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="8">
         <v>23.798</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="8">
         <v>20.692</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="8">
         <v>19.614</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="8">
         <v>11.87</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="8">
         <v>11.737</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="8">
         <v>11.213</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="8">
         <v>10.654</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="8">
         <v>9.88</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="8">
         <v>9.831</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="8">
         <v>8.207</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="8">
         <v>8.188</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="8">
         <v>15.95</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="8">
         <v>12.47</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="8">
         <v>10.739</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="8">
         <v>10.421</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:33">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="8">
         <v>20.77</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="8">
         <v>18.072</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="8">
         <v>14.826</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="8">
         <v>14.75</v>
       </c>
       <c r="H18" s="2">
@@ -3560,43 +3562,45 @@
       <c r="J18" s="2">
         <v>11.34</v>
       </c>
-      <c r="K18" s="12">
+      <c r="K18" s="14">
         <f>(D18-H18)/H18</f>
         <v>1.25027085590466</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="14">
         <f>(I18-D18)/I18</f>
         <v>-0.111884368308351</v>
       </c>
-      <c r="M18" s="12">
+      <c r="M18" s="14">
         <f>(I18-J18)/J18</f>
         <v>0.647266313932981</v>
       </c>
-      <c r="P18" s="1">
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2">
         <v>15.22</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18" s="2">
         <v>18.02</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18" s="2">
         <v>15.71</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S18" s="2">
         <v>19.88</v>
       </c>
-      <c r="T18" s="1">
+      <c r="T18" s="2">
         <v>16.82</v>
       </c>
-      <c r="U18" s="1">
+      <c r="U18" s="2">
         <v>20.16</v>
       </c>
-      <c r="V18" s="1">
+      <c r="V18" s="2">
         <v>17.95</v>
       </c>
-      <c r="W18" s="1">
+      <c r="W18" s="2">
         <v>20.32</v>
       </c>
-      <c r="X18" s="1">
+      <c r="X18" s="2">
         <v>18.94</v>
       </c>
       <c r="Y18" s="1">
@@ -3605,281 +3609,281 @@
       <c r="Z18" s="1">
         <v>19.23</v>
       </c>
-      <c r="AB18" s="19">
+      <c r="AB18" s="20">
         <f>(I18-P18)/I18</f>
         <v>0.185224839400428</v>
       </c>
-      <c r="AC18" s="20">
+      <c r="AC18" s="21">
         <f>(Q18-R18)/Q18</f>
         <v>0.12819089900111</v>
       </c>
-      <c r="AD18" s="20">
+      <c r="AD18" s="21">
         <f>(S18-T18)/S18</f>
         <v>0.153923541247485</v>
       </c>
-      <c r="AE18" s="21">
+      <c r="AE18" s="4">
         <f>(U18-V18)/U18</f>
         <v>0.109623015873016</v>
       </c>
-      <c r="AF18" s="21">
+      <c r="AF18" s="4">
         <f>(W18-X18)/W18</f>
         <v>0.0679133858267716</v>
       </c>
-      <c r="AG18" s="21">
+      <c r="AG18" s="4">
         <f>(Y18-Z18)/Y18</f>
         <v>0.0754807692307692</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="8">
         <v>89.08</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="8">
         <v>78.363</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="8">
         <v>69.182</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="8">
         <v>62.819</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="8">
         <v>6.4</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="8">
         <v>5.908</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="8">
         <v>4.445</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="8">
         <v>4.395</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="8">
         <v>16.96</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="8">
         <v>14.997</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="8">
         <v>13.684</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="8">
         <v>13.645</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="8">
         <v>12.01</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="8">
         <v>10.818</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="8">
         <v>7.82</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="8">
         <v>7.676</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="8">
         <v>22.75</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="8">
         <v>18.133</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="8">
         <v>16.394</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="8">
         <v>15.927</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="8">
         <v>6.19</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="8">
         <v>5.79</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="8">
         <v>4.962</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="8">
         <v>4.799</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="8">
         <v>10.8</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="8">
         <v>9.259</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="8">
         <v>7.721</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="8">
         <v>7.261</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="8">
         <v>4.75</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="8">
         <v>4.288</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="8">
         <v>3.644</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="8">
         <v>3.444</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="8">
         <v>6.06</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="8">
         <v>4.382</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="8">
         <v>3.399</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="8">
         <v>3.055</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="8">
         <v>28.62</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="8">
         <v>27.22</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="8">
         <v>26.754</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="8">
         <v>26.239</v>
       </c>
     </row>
     <row r="29" spans="1:29">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="8">
         <v>45.96</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="8">
         <v>41.032</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="8">
         <v>32.34</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="8">
         <v>31.994</v>
       </c>
       <c r="H29" s="2">
@@ -3891,56 +3895,56 @@
       <c r="J29" s="2">
         <v>29.61</v>
       </c>
-      <c r="K29" s="12">
+      <c r="K29" s="14">
         <f t="shared" ref="K29:K33" si="0">(D29-H29)/H29</f>
         <v>1.23106796116505</v>
       </c>
-      <c r="L29" s="13">
+      <c r="L29" s="14">
         <f t="shared" ref="L29:L33" si="1">(I29-D29)/I29</f>
         <v>0.0448877805486284</v>
       </c>
-      <c r="M29" s="12">
+      <c r="M29" s="14">
         <f t="shared" ref="M29:M33" si="2">(I29-J29)/J29</f>
         <v>0.625126646403242</v>
       </c>
-      <c r="P29" s="1">
+      <c r="P29" s="2">
         <v>40.01</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" s="2">
         <v>46.94</v>
       </c>
-      <c r="R29">
+      <c r="R29" s="2">
         <v>42.01</v>
       </c>
-      <c r="AB29" s="19">
+      <c r="AB29" s="20">
         <f t="shared" ref="AB29:AB33" si="3">(I29-P29)/I29</f>
         <v>0.168536990856193</v>
       </c>
-      <c r="AC29" s="20">
+      <c r="AC29" s="21">
         <f>(Q29-R29)/Q29</f>
         <v>0.105027694929697</v>
       </c>
     </row>
     <row r="30" spans="1:28">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="8">
         <v>12.97</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="8">
         <v>12.787</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="8">
         <v>10.36</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="8">
         <v>10.079</v>
       </c>
       <c r="H30" s="2">
@@ -3952,92 +3956,92 @@
       <c r="J30" s="2">
         <v>8.62</v>
       </c>
-      <c r="K30" s="12">
+      <c r="K30" s="14">
         <f t="shared" si="0"/>
         <v>0.974124809741248</v>
       </c>
-      <c r="L30" s="13">
+      <c r="L30" s="14">
         <f t="shared" si="1"/>
         <v>0.286186020913594</v>
       </c>
-      <c r="M30" s="12">
+      <c r="M30" s="14">
         <f t="shared" si="2"/>
         <v>1.10788863109049</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30" s="2">
         <v>9.88</v>
       </c>
-      <c r="AB30" s="19">
+      <c r="AB30" s="20">
         <f t="shared" si="3"/>
         <v>0.456246560264172</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="8">
         <v>31.33</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="8">
         <v>25.983</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="8">
         <v>22.802</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="8">
         <v>22.263</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="8">
         <v>8.43</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="8">
         <v>7.281</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="8">
         <v>3.835</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="8">
         <v>3.387</v>
       </c>
     </row>
     <row r="33" spans="1:28">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="8">
         <v>8.54</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="8">
         <v>8.504</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="8">
         <v>7.357</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="8">
         <v>7.158</v>
       </c>
       <c r="H33" s="2">
@@ -4049,3442 +4053,3663 @@
       <c r="J33" s="2">
         <v>5.27</v>
       </c>
-      <c r="K33" s="12">
+      <c r="K33" s="14">
         <f t="shared" si="0"/>
         <v>0.967741935483871</v>
       </c>
-      <c r="L33" s="13">
+      <c r="L33" s="14">
         <f t="shared" si="1"/>
         <v>0.183556405353729</v>
       </c>
-      <c r="M33" s="12">
+      <c r="M33" s="14">
         <f t="shared" si="2"/>
         <v>0.984819734345351</v>
       </c>
-      <c r="P33" s="1">
+      <c r="P33" s="2">
         <v>7.04</v>
       </c>
-      <c r="AB33" s="19">
+      <c r="AB33" s="20">
         <f t="shared" si="3"/>
         <v>0.326959847036329</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="8">
         <v>10.4</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="8">
         <v>8.694</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="8">
         <v>6.913</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="8">
         <v>6.477</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="8">
         <v>15.24</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="8">
         <v>13.52</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="8">
         <v>13.008</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="8">
         <v>12.94</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="8">
         <v>31.57</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="8">
         <v>29.929</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="8">
         <v>29.134</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="8">
         <v>28.232</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="8">
         <v>10.98</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="8">
         <v>10.146</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="8">
         <v>8.5</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="8">
         <v>7.762</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="8">
         <v>5.7</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="8">
         <v>5.661</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="8">
         <v>5.181</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="8">
         <v>5.06</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="8">
         <v>12.47</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="8">
         <v>12.343</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="8">
         <v>9.218</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="8">
         <v>8.675</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="8">
         <v>10.75</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="8">
         <v>10.226</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="8">
         <v>9.875</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40" s="8">
         <v>9.846</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="8">
         <v>5.11</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="8">
         <v>5.046</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="8">
         <v>4.781</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41" s="8">
         <v>4.582</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="8">
         <v>62.59</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="8">
         <v>60.392</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="8">
         <v>43.697</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="8">
         <v>40.956</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="8">
         <v>15.2</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="8">
         <v>13.648</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="8">
         <v>12.957</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43" s="8">
         <v>12.855</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="8">
         <v>3.49</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="8">
         <v>3.291</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="8">
         <v>3.023</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="8">
         <v>3.007</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="8">
         <v>188.92</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="8">
         <v>185.298</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="8">
         <v>123.921</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G45" s="8">
         <v>109.732</v>
       </c>
     </row>
     <row r="46" spans="1:28">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="8">
         <v>20.27</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="8">
         <v>19.862</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="8">
         <v>15.287</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46" s="8">
         <v>14.28</v>
       </c>
       <c r="I46" s="2">
         <v>23.88</v>
       </c>
-      <c r="P46" s="1">
+      <c r="P46" s="2">
         <v>17.23</v>
       </c>
-      <c r="AB46" s="19">
+      <c r="AB46" s="20">
         <f>(I46-P46)/I46</f>
         <v>0.278475711892797</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="8">
         <v>10.83</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="8">
         <v>10.063</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="8">
         <v>9.87</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47" s="8">
         <v>9.861</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="8">
         <v>23.3</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="8">
         <v>18.922</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="8">
         <v>16.435</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G48" s="8">
         <v>16.36</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="8">
         <v>5.43</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="8">
         <v>5.029</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="8">
         <v>4.839</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G49" s="8">
         <v>4.797</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="6" t="s">
+    <row r="50" spans="1:30">
+      <c r="A50" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="8">
         <v>52.8</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="8">
         <v>43.007</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="8">
         <v>29.901</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G50" s="8">
         <v>28.266</v>
       </c>
+      <c r="H50" s="2">
+        <v>12.59</v>
+      </c>
+      <c r="I50" s="2">
+        <v>50.69</v>
+      </c>
+      <c r="J50" s="2">
+        <v>30.65</v>
+      </c>
+      <c r="K50" s="14">
+        <f>(D50-H50)/H50</f>
+        <v>3.19380460683082</v>
+      </c>
+      <c r="L50" s="14">
+        <f>(I50-D50)/I50</f>
+        <v>-0.0416255671730124</v>
+      </c>
+      <c r="M50" s="14">
+        <f>(I50-J50)/J50</f>
+        <v>0.653833605220228</v>
+      </c>
+      <c r="O50" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="P50" s="2">
+        <v>37.01</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>50.39</v>
+      </c>
+      <c r="R50" s="2">
+        <v>43.23</v>
+      </c>
+      <c r="S50" s="2">
+        <v>55.35</v>
+      </c>
+      <c r="T50" s="2">
+        <v>50.66</v>
+      </c>
+      <c r="AB50" s="20">
+        <f>(I50-P50)/I50</f>
+        <v>0.26987571513119</v>
+      </c>
+      <c r="AC50" s="21">
+        <f>(Q50-R50)/Q50</f>
+        <v>0.142091684858107</v>
+      </c>
+      <c r="AD50" s="21">
+        <f>(S50-T50)/S50</f>
+        <v>0.0847335140018068</v>
+      </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="8">
         <v>6.59</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="8">
         <v>6.465</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="8">
         <v>6.256</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G51" s="8">
         <v>6.063</v>
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="8">
         <v>9.23</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="8">
         <v>8.565</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="8">
         <v>7.005</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G52" s="8">
         <v>6.902</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="8">
         <v>27.3</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="8">
         <v>25.75</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F53" s="8">
         <v>23.158</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G53" s="8">
         <v>22.475</v>
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="8">
         <v>8.4</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="8">
         <v>8.239</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F54" s="8">
         <v>7.551</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G54" s="8">
         <v>7.433</v>
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="8">
         <v>6.58</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55" s="8">
         <v>6.094</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F55" s="8">
         <v>5.362</v>
       </c>
-      <c r="G55" s="6">
+      <c r="G55" s="8">
         <v>5.318</v>
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="8">
         <v>48.86</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="8">
         <v>41.785</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F56" s="8">
         <v>39.583</v>
       </c>
-      <c r="G56" s="6">
+      <c r="G56" s="8">
         <v>37.671</v>
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="8">
         <v>63</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E57" s="8">
         <v>54.972</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F57" s="8">
         <v>46.126</v>
       </c>
-      <c r="G57" s="6">
+      <c r="G57" s="8">
         <v>41.986</v>
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="8">
         <v>22.16</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58" s="8">
         <v>18.345</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F58" s="8">
         <v>15.617</v>
       </c>
-      <c r="G58" s="6">
+      <c r="G58" s="8">
         <v>15.484</v>
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="8">
         <v>18.18</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E59" s="8">
         <v>17.394</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F59" s="8">
         <v>14.905</v>
       </c>
-      <c r="G59" s="6">
+      <c r="G59" s="8">
         <v>14.694</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="6" t="s">
+    <row r="60" spans="1:30">
+      <c r="A60" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="8">
         <v>14.17</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="8">
         <v>12.888</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F60" s="8">
         <v>8.888</v>
       </c>
-      <c r="G60" s="6">
+      <c r="G60" s="8">
         <v>7.854</v>
       </c>
+      <c r="H60" s="2">
+        <v>3.24</v>
+      </c>
+      <c r="I60" s="2">
+        <v>18.49</v>
+      </c>
+      <c r="J60" s="2">
+        <v>4.81</v>
+      </c>
+      <c r="K60" s="14">
+        <f>(D60-H60)/H60</f>
+        <v>3.37345679012346</v>
+      </c>
+      <c r="L60" s="14">
+        <f>(I60-D60)/I60</f>
+        <v>0.233639805300162</v>
+      </c>
+      <c r="M60" s="14">
+        <f>(I60-J60)/J60</f>
+        <v>2.84407484407484</v>
+      </c>
+      <c r="O60" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="P60" s="2">
+        <v>10.09</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>14.52</v>
+      </c>
+      <c r="R60" s="2">
+        <v>12.04</v>
+      </c>
+      <c r="S60" s="2">
+        <v>16.41</v>
+      </c>
+      <c r="T60" s="2">
+        <v>13.3</v>
+      </c>
+      <c r="AB60" s="20">
+        <f>(I60-P60)/I60</f>
+        <v>0.454299621416982</v>
+      </c>
+      <c r="AC60" s="21">
+        <f>(Q60-R60)/Q60</f>
+        <v>0.170798898071625</v>
+      </c>
+      <c r="AD60" s="21">
+        <f>(S60-T60)/S60</f>
+        <v>0.18951858622791</v>
+      </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D61" s="8">
+        <v>11.1</v>
+      </c>
+      <c r="E61" s="8">
+        <v>10.704</v>
+      </c>
+      <c r="F61" s="8">
+        <v>8.763</v>
+      </c>
+      <c r="G61" s="8">
+        <v>8.474</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D62" s="8">
+        <v>15.84</v>
+      </c>
+      <c r="E62" s="8">
+        <v>15.335</v>
+      </c>
+      <c r="F62" s="8">
+        <v>13.825</v>
+      </c>
+      <c r="G62" s="8">
+        <v>13.474</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D63" s="8">
+        <v>24.7</v>
+      </c>
+      <c r="E63" s="8">
+        <v>23.598</v>
+      </c>
+      <c r="F63" s="8">
+        <v>17.487</v>
+      </c>
+      <c r="G63" s="8">
+        <v>17.162</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D64" s="8">
+        <v>39.89</v>
+      </c>
+      <c r="E64" s="8">
+        <v>37.266</v>
+      </c>
+      <c r="F64" s="8">
+        <v>32.743</v>
+      </c>
+      <c r="G64" s="8">
+        <v>31.679</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="D65" s="8">
+        <v>11.48</v>
+      </c>
+      <c r="E65" s="8">
+        <v>11.467</v>
+      </c>
+      <c r="F65" s="8">
+        <v>11.157</v>
+      </c>
+      <c r="G65" s="8">
+        <v>11.15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30">
+      <c r="A66" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D66" s="8">
+        <v>9.46</v>
+      </c>
+      <c r="E66" s="8">
+        <v>9.024</v>
+      </c>
+      <c r="F66" s="8">
+        <v>8.182</v>
+      </c>
+      <c r="G66" s="8">
+        <v>8.14</v>
+      </c>
+      <c r="H66" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="I66" s="2">
+        <v>10.02</v>
+      </c>
+      <c r="J66" s="2">
+        <v>6.82</v>
+      </c>
+      <c r="K66" s="14">
+        <f>(D66-H66)/H66</f>
+        <v>0.525806451612903</v>
+      </c>
+      <c r="L66" s="14">
+        <f>(I66-D66)/I66</f>
+        <v>0.0558882235528941</v>
+      </c>
+      <c r="M66" s="14">
+        <f>(I66-J66)/J66</f>
+        <v>0.469208211143695</v>
+      </c>
+      <c r="O66" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D61" s="6">
-        <v>11.1</v>
-      </c>
-      <c r="E61" s="6">
-        <v>10.704</v>
-      </c>
-      <c r="F61" s="6">
-        <v>8.763</v>
-      </c>
-      <c r="G61" s="6">
-        <v>8.474</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C62" s="6" t="s">
+      <c r="P66" s="2">
+        <v>7.98</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>9.97</v>
+      </c>
+      <c r="R66" s="2">
+        <v>8.8</v>
+      </c>
+      <c r="S66" s="2">
+        <v>9.88</v>
+      </c>
+      <c r="T66" s="2">
+        <v>9.11</v>
+      </c>
+      <c r="AB66" s="20">
+        <f>(I66-P66)/I66</f>
+        <v>0.203592814371257</v>
+      </c>
+      <c r="AC66" s="21">
+        <f>(Q66-R66)/Q66</f>
+        <v>0.117352056168505</v>
+      </c>
+      <c r="AD66" s="21">
+        <f>(S66-T66)/S66</f>
+        <v>0.0779352226720649</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D67" s="8">
+        <v>3.99</v>
+      </c>
+      <c r="E67" s="8">
+        <v>3.692</v>
+      </c>
+      <c r="F67" s="8">
+        <v>3.626</v>
+      </c>
+      <c r="G67" s="8">
+        <v>3.551</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D68" s="8">
+        <v>14.48</v>
+      </c>
+      <c r="E68" s="8">
+        <v>13.054</v>
+      </c>
+      <c r="F68" s="8">
+        <v>12.44</v>
+      </c>
+      <c r="G68" s="8">
+        <v>11.582</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D69" s="8">
+        <v>19.95</v>
+      </c>
+      <c r="E69" s="8">
+        <v>17.29</v>
+      </c>
+      <c r="F69" s="8">
+        <v>16.064</v>
+      </c>
+      <c r="G69" s="8">
+        <v>15.975</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D70" s="8">
+        <v>17.63</v>
+      </c>
+      <c r="E70" s="8">
+        <v>15.331</v>
+      </c>
+      <c r="F70" s="8">
+        <v>14.494</v>
+      </c>
+      <c r="G70" s="8">
+        <v>13.496</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D71" s="8">
+        <v>25.55</v>
+      </c>
+      <c r="E71" s="8">
+        <v>22.117</v>
+      </c>
+      <c r="F71" s="8">
+        <v>19.337</v>
+      </c>
+      <c r="G71" s="8">
+        <v>19.007</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D72" s="8">
+        <v>4.34</v>
+      </c>
+      <c r="E72" s="8">
+        <v>4.167</v>
+      </c>
+      <c r="F72" s="8">
+        <v>3.97</v>
+      </c>
+      <c r="G72" s="8">
+        <v>3.938</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D73" s="8">
+        <v>14.01</v>
+      </c>
+      <c r="E73" s="8">
+        <v>13.643</v>
+      </c>
+      <c r="F73" s="8">
+        <v>12.999</v>
+      </c>
+      <c r="G73" s="8">
+        <v>12.974</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D74" s="8">
+        <v>20.76</v>
+      </c>
+      <c r="E74" s="8">
+        <v>19.562</v>
+      </c>
+      <c r="F74" s="8">
+        <v>16.929</v>
+      </c>
+      <c r="G74" s="8">
+        <v>16.68</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D75" s="8">
+        <v>20.08</v>
+      </c>
+      <c r="E75" s="8">
+        <v>16.319</v>
+      </c>
+      <c r="F75" s="8">
+        <v>11.371</v>
+      </c>
+      <c r="G75" s="8">
+        <v>10.008</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D76" s="8">
+        <v>13.19</v>
+      </c>
+      <c r="E76" s="8">
+        <v>11.889</v>
+      </c>
+      <c r="F76" s="8">
+        <v>10.439</v>
+      </c>
+      <c r="G76" s="8">
+        <v>10.149</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D77" s="8">
+        <v>14.32</v>
+      </c>
+      <c r="E77" s="8">
+        <v>13.909</v>
+      </c>
+      <c r="F77" s="8">
+        <v>11.364</v>
+      </c>
+      <c r="G77" s="8">
+        <v>11.093</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D78" s="8">
+        <v>7.6</v>
+      </c>
+      <c r="E78" s="8">
+        <v>6.587</v>
+      </c>
+      <c r="F78" s="8">
+        <v>5.607</v>
+      </c>
+      <c r="G78" s="8">
+        <v>5.547</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D79" s="8">
+        <v>4.62</v>
+      </c>
+      <c r="E79" s="8">
+        <v>4.502</v>
+      </c>
+      <c r="F79" s="8">
+        <v>4.462</v>
+      </c>
+      <c r="G79" s="8">
+        <v>4.443</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D80" s="8">
+        <v>15.54</v>
+      </c>
+      <c r="E80" s="8">
+        <v>15.016</v>
+      </c>
+      <c r="F80" s="8">
+        <v>14.32</v>
+      </c>
+      <c r="G80" s="8">
+        <v>13.636</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D81" s="8">
+        <v>22.09</v>
+      </c>
+      <c r="E81" s="8">
+        <v>20.41</v>
+      </c>
+      <c r="F81" s="8">
+        <v>15.272</v>
+      </c>
+      <c r="G81" s="8">
+        <v>14.775</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D82" s="8">
+        <v>30.82</v>
+      </c>
+      <c r="E82" s="8">
+        <v>30.815</v>
+      </c>
+      <c r="F82" s="8">
+        <v>29.201</v>
+      </c>
+      <c r="G82" s="8">
+        <v>27.31</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D83" s="8">
+        <v>6.86</v>
+      </c>
+      <c r="E83" s="8">
+        <v>6.76</v>
+      </c>
+      <c r="F83" s="8">
+        <v>6.255</v>
+      </c>
+      <c r="G83" s="8">
+        <v>6.219</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C84" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D62" s="6">
-        <v>15.84</v>
-      </c>
-      <c r="E62" s="6">
-        <v>15.335</v>
-      </c>
-      <c r="F62" s="6">
-        <v>13.825</v>
-      </c>
-      <c r="G62" s="6">
-        <v>13.474</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D63" s="6">
-        <v>24.7</v>
-      </c>
-      <c r="E63" s="6">
-        <v>23.598</v>
-      </c>
-      <c r="F63" s="6">
-        <v>17.487</v>
-      </c>
-      <c r="G63" s="6">
-        <v>17.162</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="6" t="s">
+      <c r="D84" s="8">
+        <v>51.31</v>
+      </c>
+      <c r="E84" s="8">
+        <v>46.924</v>
+      </c>
+      <c r="F84" s="8">
+        <v>45.644</v>
+      </c>
+      <c r="G84" s="8">
+        <v>45.465</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D85" s="8">
+        <v>41.37</v>
+      </c>
+      <c r="E85" s="8">
+        <v>40.281</v>
+      </c>
+      <c r="F85" s="8">
+        <v>38.532</v>
+      </c>
+      <c r="G85" s="8">
+        <v>38.423</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D86" s="8">
+        <v>17.54</v>
+      </c>
+      <c r="E86" s="8">
+        <v>16.566</v>
+      </c>
+      <c r="F86" s="8">
+        <v>14.695</v>
+      </c>
+      <c r="G86" s="8">
+        <v>14.236</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D87" s="8">
+        <v>6.86</v>
+      </c>
+      <c r="E87" s="8">
+        <v>6.549</v>
+      </c>
+      <c r="F87" s="8">
+        <v>6.298</v>
+      </c>
+      <c r="G87" s="8">
+        <v>6.276</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D88" s="8">
+        <v>22</v>
+      </c>
+      <c r="E88" s="8">
+        <v>21.106</v>
+      </c>
+      <c r="F88" s="8">
+        <v>18.731</v>
+      </c>
+      <c r="G88" s="8">
+        <v>18.215</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D89" s="8">
+        <v>15.29</v>
+      </c>
+      <c r="E89" s="8">
+        <v>14.931</v>
+      </c>
+      <c r="F89" s="8">
+        <v>13.73</v>
+      </c>
+      <c r="G89" s="8">
+        <v>13.597</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D90" s="8">
+        <v>4.08</v>
+      </c>
+      <c r="E90" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="F90" s="8">
+        <v>3.683</v>
+      </c>
+      <c r="G90" s="8">
+        <v>3.561</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D91" s="8">
+        <v>5.16</v>
+      </c>
+      <c r="E91" s="8">
+        <v>4.926</v>
+      </c>
+      <c r="F91" s="8">
+        <v>4.872</v>
+      </c>
+      <c r="G91" s="8">
+        <v>4.807</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D92" s="8">
+        <v>11.44</v>
+      </c>
+      <c r="E92" s="8">
+        <v>10.608</v>
+      </c>
+      <c r="F92" s="8">
+        <v>10.267</v>
+      </c>
+      <c r="G92" s="8">
+        <v>10.229</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D93" s="8">
+        <v>8.6</v>
+      </c>
+      <c r="E93" s="8">
+        <v>7.981</v>
+      </c>
+      <c r="F93" s="8">
+        <v>7.948</v>
+      </c>
+      <c r="G93" s="8">
+        <v>7.857</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D94" s="8">
+        <v>14.01</v>
+      </c>
+      <c r="E94" s="8">
+        <v>12.117</v>
+      </c>
+      <c r="F94" s="8">
+        <v>10.677</v>
+      </c>
+      <c r="G94" s="8">
+        <v>10.241</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D95" s="8">
+        <v>10.15</v>
+      </c>
+      <c r="E95" s="8">
+        <v>8.98</v>
+      </c>
+      <c r="F95" s="8">
+        <v>8.589</v>
+      </c>
+      <c r="G95" s="8">
+        <v>8.416</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D96" s="8">
+        <v>5.64</v>
+      </c>
+      <c r="E96" s="8">
+        <v>5.512</v>
+      </c>
+      <c r="F96" s="8">
+        <v>4.487</v>
+      </c>
+      <c r="G96" s="8">
+        <v>4.214</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="D97" s="8">
+        <v>5.75</v>
+      </c>
+      <c r="E97" s="8">
+        <v>5.387</v>
+      </c>
+      <c r="F97" s="8">
+        <v>5.263</v>
+      </c>
+      <c r="G97" s="8">
+        <v>5.197</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="D98" s="8">
+        <v>6</v>
+      </c>
+      <c r="E98" s="8">
+        <v>5.887</v>
+      </c>
+      <c r="F98" s="8">
+        <v>5.874</v>
+      </c>
+      <c r="G98" s="8">
+        <v>5.678</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="D99" s="8">
+        <v>6.45</v>
+      </c>
+      <c r="E99" s="8">
+        <v>5.893</v>
+      </c>
+      <c r="F99" s="8">
+        <v>5.733</v>
+      </c>
+      <c r="G99" s="8">
+        <v>5.657</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="D100" s="8">
+        <v>13.3</v>
+      </c>
+      <c r="E100" s="8">
+        <v>12.838</v>
+      </c>
+      <c r="F100" s="8">
+        <v>11.392</v>
+      </c>
+      <c r="G100" s="8">
+        <v>11.301</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="D101" s="8">
+        <v>49.4</v>
+      </c>
+      <c r="E101" s="8">
+        <v>44.658</v>
+      </c>
+      <c r="F101" s="8">
+        <v>36.679</v>
+      </c>
+      <c r="G101" s="8">
+        <v>34.336</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="D102" s="8">
+        <v>3.07</v>
+      </c>
+      <c r="E102" s="8">
+        <v>3.05</v>
+      </c>
+      <c r="F102" s="8">
+        <v>3.021</v>
+      </c>
+      <c r="G102" s="8">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D103" s="8">
+        <v>6.72</v>
+      </c>
+      <c r="E103" s="8">
+        <v>6.492</v>
+      </c>
+      <c r="F103" s="8">
+        <v>6.228</v>
+      </c>
+      <c r="G103" s="8">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D104" s="8">
+        <v>33.7</v>
+      </c>
+      <c r="E104" s="8">
+        <v>33.452</v>
+      </c>
+      <c r="F104" s="8">
+        <v>26.247</v>
+      </c>
+      <c r="G104" s="8">
+        <v>26.181</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" s="8">
+        <v>67.8</v>
+      </c>
+      <c r="E105" s="8">
+        <v>64.247</v>
+      </c>
+      <c r="F105" s="8">
+        <v>58.919</v>
+      </c>
+      <c r="G105" s="8">
+        <v>58.589</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="D106" s="8">
+        <v>24.31</v>
+      </c>
+      <c r="E106" s="8">
+        <v>23.6</v>
+      </c>
+      <c r="F106" s="8">
+        <v>20.147</v>
+      </c>
+      <c r="G106" s="8">
+        <v>19.845</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D107" s="8">
+        <v>7.41</v>
+      </c>
+      <c r="E107" s="8">
+        <v>7.193</v>
+      </c>
+      <c r="F107" s="8">
+        <v>6.55</v>
+      </c>
+      <c r="G107" s="8">
+        <v>6.408</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D108" s="8">
+        <v>45.13</v>
+      </c>
+      <c r="E108" s="8">
+        <v>41.827</v>
+      </c>
+      <c r="F108" s="8">
+        <v>39.364</v>
+      </c>
+      <c r="G108" s="8">
+        <v>38.995</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D109" s="8">
+        <v>4.36</v>
+      </c>
+      <c r="E109" s="8">
+        <v>4.287</v>
+      </c>
+      <c r="F109" s="8">
+        <v>4.251</v>
+      </c>
+      <c r="G109" s="8">
+        <v>4.178</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="D110" s="8">
+        <v>10.1</v>
+      </c>
+      <c r="E110" s="8">
+        <v>8.138</v>
+      </c>
+      <c r="F110" s="8">
+        <v>7.103</v>
+      </c>
+      <c r="G110" s="8">
+        <v>6.862</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="D111" s="8">
+        <v>2.86</v>
+      </c>
+      <c r="E111" s="8">
+        <v>2.843</v>
+      </c>
+      <c r="F111" s="8">
+        <v>2.828</v>
+      </c>
+      <c r="G111" s="8">
+        <v>2.816</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="D112" s="8">
+        <v>94.24</v>
+      </c>
+      <c r="E112" s="8">
+        <v>90.834</v>
+      </c>
+      <c r="F112" s="8">
+        <v>79.248</v>
+      </c>
+      <c r="G112" s="8">
+        <v>77.459</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="D113" s="8">
+        <v>7.37</v>
+      </c>
+      <c r="E113" s="8">
+        <v>7.24</v>
+      </c>
+      <c r="F113" s="8">
+        <v>6.899</v>
+      </c>
+      <c r="G113" s="8">
+        <v>6.707</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="D114" s="8">
+        <v>24.07</v>
+      </c>
+      <c r="E114" s="8">
+        <v>22.064</v>
+      </c>
+      <c r="F114" s="8">
+        <v>19.924</v>
+      </c>
+      <c r="G114" s="8">
+        <v>19.704</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D115" s="8">
+        <v>22.9</v>
+      </c>
+      <c r="E115" s="8">
+        <v>21.576</v>
+      </c>
+      <c r="F115" s="8">
+        <v>16.979</v>
+      </c>
+      <c r="G115" s="8">
+        <v>16.628</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="D116" s="8">
+        <v>10.35</v>
+      </c>
+      <c r="E116" s="8">
+        <v>8.41</v>
+      </c>
+      <c r="F116" s="8">
+        <v>7.002</v>
+      </c>
+      <c r="G116" s="8">
+        <v>6.926</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D117" s="8">
+        <v>16.16</v>
+      </c>
+      <c r="E117" s="8">
+        <v>15.694</v>
+      </c>
+      <c r="F117" s="8">
+        <v>13.854</v>
+      </c>
+      <c r="G117" s="8">
+        <v>13.634</v>
+      </c>
+    </row>
+    <row r="118" spans="1:32">
+      <c r="A118" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D118" s="8">
+        <v>20.85</v>
+      </c>
+      <c r="E118" s="8">
+        <v>20.125</v>
+      </c>
+      <c r="F118" s="8">
+        <v>18.707</v>
+      </c>
+      <c r="G118" s="8">
+        <v>18.495</v>
+      </c>
+      <c r="H118" s="2">
+        <v>11.07</v>
+      </c>
+      <c r="I118" s="2">
+        <v>26.51</v>
+      </c>
+      <c r="J118" s="2">
+        <v>11.07</v>
+      </c>
+      <c r="K118" s="14">
+        <f>(D118-H118)/H118</f>
+        <v>0.883468834688347</v>
+      </c>
+      <c r="L118" s="14">
+        <f>(I118-D118)/I118</f>
+        <v>0.213504337985666</v>
+      </c>
+      <c r="M118" s="14">
+        <f>(I118-J118)/J118</f>
+        <v>1.39476061427281</v>
+      </c>
+      <c r="P118" s="2">
+        <v>13.38</v>
+      </c>
+      <c r="Q118" s="2">
+        <v>19.9</v>
+      </c>
+      <c r="R118" s="2">
+        <v>15.75</v>
+      </c>
+      <c r="S118" s="2">
+        <v>20.69</v>
+      </c>
+      <c r="T118" s="2">
+        <v>17.2</v>
+      </c>
+      <c r="U118" s="2">
+        <v>21.95</v>
+      </c>
+      <c r="V118" s="2">
+        <v>18.4</v>
+      </c>
+      <c r="W118" s="3">
+        <v>22.39</v>
+      </c>
+      <c r="X118" s="3">
+        <v>20.67</v>
+      </c>
+      <c r="AB118" s="20">
+        <f>(I118-P118)/I118</f>
+        <v>0.495284798189362</v>
+      </c>
+      <c r="AC118" s="21">
+        <f>(Q118-R118)/Q118</f>
+        <v>0.208542713567839</v>
+      </c>
+      <c r="AD118" s="21">
+        <f>(S118-T118)/S118</f>
+        <v>0.1686805219913</v>
+      </c>
+      <c r="AE118" s="4">
+        <f>(U118-V118)/U118</f>
+        <v>0.161731207289294</v>
+      </c>
+      <c r="AF118" s="4">
+        <f>(W118-X118)/W118</f>
+        <v>0.0768200089325591</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="D119" s="8">
+        <v>7.1</v>
+      </c>
+      <c r="E119" s="8">
+        <v>6.62</v>
+      </c>
+      <c r="F119" s="8">
+        <v>6.326</v>
+      </c>
+      <c r="G119" s="8">
+        <v>6.271</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="D120" s="8">
+        <v>8.08</v>
+      </c>
+      <c r="E120" s="8">
+        <v>7.865</v>
+      </c>
+      <c r="F120" s="8">
+        <v>7.097</v>
+      </c>
+      <c r="G120" s="8">
+        <v>7.038</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D121" s="8">
+        <v>3.73</v>
+      </c>
+      <c r="E121" s="8">
+        <v>3.681</v>
+      </c>
+      <c r="F121" s="8">
+        <v>3.621</v>
+      </c>
+      <c r="G121" s="8">
+        <v>3.495</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="D122" s="8">
+        <v>13.94</v>
+      </c>
+      <c r="E122" s="8">
+        <v>13.932</v>
+      </c>
+      <c r="F122" s="8">
+        <v>13.922</v>
+      </c>
+      <c r="G122" s="8">
+        <v>13.871</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="D123" s="8">
+        <v>10.14</v>
+      </c>
+      <c r="E123" s="8">
+        <v>8.832</v>
+      </c>
+      <c r="F123" s="8">
+        <v>8.246</v>
+      </c>
+      <c r="G123" s="8">
+        <v>8.242</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D124" s="8">
+        <v>114.28</v>
+      </c>
+      <c r="E124" s="8">
+        <v>101.532</v>
+      </c>
+      <c r="F124" s="8">
+        <v>78.549</v>
+      </c>
+      <c r="G124" s="8">
+        <v>75.612</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D125" s="8">
+        <v>5.85</v>
+      </c>
+      <c r="E125" s="8">
+        <v>5.824</v>
+      </c>
+      <c r="F125" s="8">
+        <v>5.293</v>
+      </c>
+      <c r="G125" s="8">
+        <v>5.062</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D126" s="8">
+        <v>28.55</v>
+      </c>
+      <c r="E126" s="8">
+        <v>26.932</v>
+      </c>
+      <c r="F126" s="8">
+        <v>21.287</v>
+      </c>
+      <c r="G126" s="8">
+        <v>18.597</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D127" s="8">
+        <v>16.54</v>
+      </c>
+      <c r="E127" s="8">
+        <v>15.973</v>
+      </c>
+      <c r="F127" s="8">
+        <v>15.08</v>
+      </c>
+      <c r="G127" s="8">
+        <v>14.391</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="D128" s="8">
+        <v>6.58</v>
+      </c>
+      <c r="E128" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="F128" s="8">
+        <v>5.97</v>
+      </c>
+      <c r="G128" s="8">
+        <v>5.922</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="D129" s="8">
+        <v>138.4</v>
+      </c>
+      <c r="E129" s="8">
+        <v>133.681</v>
+      </c>
+      <c r="F129" s="8">
+        <v>106.948</v>
+      </c>
+      <c r="G129" s="8">
+        <v>94.608</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D130" s="8">
+        <v>18.88</v>
+      </c>
+      <c r="E130" s="8">
+        <v>18.447</v>
+      </c>
+      <c r="F130" s="8">
+        <v>16.585</v>
+      </c>
+      <c r="G130" s="8">
+        <v>16.094</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="D131" s="8">
+        <v>9.89</v>
+      </c>
+      <c r="E131" s="8">
+        <v>8.775</v>
+      </c>
+      <c r="F131" s="8">
+        <v>8.203</v>
+      </c>
+      <c r="G131" s="8">
+        <v>8.137</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D132" s="8">
+        <v>30.25</v>
+      </c>
+      <c r="E132" s="8">
+        <v>27.413</v>
+      </c>
+      <c r="F132" s="8">
+        <v>26.18</v>
+      </c>
+      <c r="G132" s="8">
+        <v>25.731</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="C133" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="B64" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D64" s="6">
-        <v>39.89</v>
-      </c>
-      <c r="E64" s="6">
-        <v>37.266</v>
-      </c>
-      <c r="F64" s="6">
-        <v>32.743</v>
-      </c>
-      <c r="G64" s="6">
-        <v>31.679</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D65" s="6">
-        <v>11.48</v>
-      </c>
-      <c r="E65" s="6">
-        <v>11.467</v>
-      </c>
-      <c r="F65" s="6">
-        <v>11.157</v>
-      </c>
-      <c r="G65" s="6">
-        <v>11.15</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="6" t="s">
+      <c r="D133" s="8">
+        <v>4.6</v>
+      </c>
+      <c r="E133" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="F133" s="8">
+        <v>3.797</v>
+      </c>
+      <c r="G133" s="8">
+        <v>3.752</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D134" s="8">
+        <v>44.06</v>
+      </c>
+      <c r="E134" s="8">
+        <v>38.363</v>
+      </c>
+      <c r="F134" s="8">
+        <v>29.553</v>
+      </c>
+      <c r="G134" s="8">
+        <v>28.369</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="C135" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="B66" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="D66" s="6">
-        <v>9.46</v>
-      </c>
-      <c r="E66" s="6">
-        <v>9.024</v>
-      </c>
-      <c r="F66" s="6">
-        <v>8.182</v>
-      </c>
-      <c r="G66" s="6">
-        <v>8.14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="D67" s="6">
-        <v>3.99</v>
-      </c>
-      <c r="E67" s="6">
-        <v>3.692</v>
-      </c>
-      <c r="F67" s="6">
-        <v>3.626</v>
-      </c>
-      <c r="G67" s="6">
-        <v>3.551</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="6" t="s">
+      <c r="D135" s="8">
+        <v>5.03</v>
+      </c>
+      <c r="E135" s="8">
+        <v>4.644</v>
+      </c>
+      <c r="F135" s="8">
+        <v>3.896</v>
+      </c>
+      <c r="G135" s="8">
+        <v>3.883</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="C136" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="B68" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="C68" s="6" t="s">
+      <c r="D136" s="8">
+        <v>13.2</v>
+      </c>
+      <c r="E136" s="8">
+        <v>13.039</v>
+      </c>
+      <c r="F136" s="8">
+        <v>11.808</v>
+      </c>
+      <c r="G136" s="8">
+        <v>11.674</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D137" s="8">
+        <v>17.34</v>
+      </c>
+      <c r="E137" s="8">
+        <v>14.34</v>
+      </c>
+      <c r="F137" s="8">
+        <v>11.156</v>
+      </c>
+      <c r="G137" s="8">
+        <v>10.363</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D138" s="8">
+        <v>23.54</v>
+      </c>
+      <c r="E138" s="8">
+        <v>21.591</v>
+      </c>
+      <c r="F138" s="8">
+        <v>21.407</v>
+      </c>
+      <c r="G138" s="8">
+        <v>21.356</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D139" s="8">
+        <v>8.19</v>
+      </c>
+      <c r="E139" s="8">
+        <v>7.93</v>
+      </c>
+      <c r="F139" s="8">
+        <v>7.561</v>
+      </c>
+      <c r="G139" s="8">
+        <v>7.237</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="D140" s="8">
+        <v>9.34</v>
+      </c>
+      <c r="E140" s="8">
+        <v>9.269</v>
+      </c>
+      <c r="F140" s="8">
+        <v>8.565</v>
+      </c>
+      <c r="G140" s="8">
+        <v>8.526</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="D141" s="8">
+        <v>126</v>
+      </c>
+      <c r="E141" s="8">
+        <v>107.874</v>
+      </c>
+      <c r="F141" s="8">
+        <v>89.241</v>
+      </c>
+      <c r="G141" s="8">
+        <v>86.269</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="C142" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D68" s="6">
-        <v>14.48</v>
-      </c>
-      <c r="E68" s="6">
-        <v>13.054</v>
-      </c>
-      <c r="F68" s="6">
-        <v>12.44</v>
-      </c>
-      <c r="G68" s="6">
-        <v>11.582</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="D69" s="6">
-        <v>19.95</v>
-      </c>
-      <c r="E69" s="6">
-        <v>17.29</v>
-      </c>
-      <c r="F69" s="6">
-        <v>16.064</v>
-      </c>
-      <c r="G69" s="6">
-        <v>15.975</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D70" s="6">
-        <v>17.63</v>
-      </c>
-      <c r="E70" s="6">
-        <v>15.331</v>
-      </c>
-      <c r="F70" s="6">
-        <v>14.494</v>
-      </c>
-      <c r="G70" s="6">
-        <v>13.496</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D71" s="6">
-        <v>25.55</v>
-      </c>
-      <c r="E71" s="6">
-        <v>22.117</v>
-      </c>
-      <c r="F71" s="6">
-        <v>19.337</v>
-      </c>
-      <c r="G71" s="6">
-        <v>19.007</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="D72" s="6">
-        <v>4.34</v>
-      </c>
-      <c r="E72" s="6">
-        <v>4.167</v>
-      </c>
-      <c r="F72" s="6">
-        <v>3.97</v>
-      </c>
-      <c r="G72" s="6">
-        <v>3.938</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="D73" s="6">
-        <v>14.01</v>
-      </c>
-      <c r="E73" s="6">
-        <v>13.643</v>
-      </c>
-      <c r="F73" s="6">
-        <v>12.999</v>
-      </c>
-      <c r="G73" s="6">
-        <v>12.974</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="D74" s="6">
-        <v>20.76</v>
-      </c>
-      <c r="E74" s="6">
-        <v>19.562</v>
-      </c>
-      <c r="F74" s="6">
-        <v>16.929</v>
-      </c>
-      <c r="G74" s="6">
-        <v>16.68</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D75" s="6">
-        <v>20.08</v>
-      </c>
-      <c r="E75" s="6">
-        <v>16.319</v>
-      </c>
-      <c r="F75" s="6">
-        <v>11.371</v>
-      </c>
-      <c r="G75" s="6">
-        <v>10.008</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D76" s="6">
-        <v>13.19</v>
-      </c>
-      <c r="E76" s="6">
-        <v>11.889</v>
-      </c>
-      <c r="F76" s="6">
-        <v>10.439</v>
-      </c>
-      <c r="G76" s="6">
-        <v>10.149</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D77" s="6">
-        <v>14.32</v>
-      </c>
-      <c r="E77" s="6">
-        <v>13.909</v>
-      </c>
-      <c r="F77" s="6">
-        <v>11.364</v>
-      </c>
-      <c r="G77" s="6">
-        <v>11.093</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="D78" s="6">
-        <v>7.6</v>
-      </c>
-      <c r="E78" s="6">
-        <v>6.587</v>
-      </c>
-      <c r="F78" s="6">
-        <v>5.607</v>
-      </c>
-      <c r="G78" s="6">
-        <v>5.547</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="D79" s="6">
-        <v>4.62</v>
-      </c>
-      <c r="E79" s="6">
-        <v>4.502</v>
-      </c>
-      <c r="F79" s="6">
-        <v>4.462</v>
-      </c>
-      <c r="G79" s="6">
-        <v>4.443</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="D80" s="6">
-        <v>15.54</v>
-      </c>
-      <c r="E80" s="6">
-        <v>15.016</v>
-      </c>
-      <c r="F80" s="6">
-        <v>14.32</v>
-      </c>
-      <c r="G80" s="6">
-        <v>13.636</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D81" s="6">
-        <v>22.09</v>
-      </c>
-      <c r="E81" s="6">
-        <v>20.41</v>
-      </c>
-      <c r="F81" s="6">
-        <v>15.272</v>
-      </c>
-      <c r="G81" s="6">
-        <v>14.775</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="D82" s="6">
-        <v>30.82</v>
-      </c>
-      <c r="E82" s="6">
-        <v>30.815</v>
-      </c>
-      <c r="F82" s="6">
-        <v>29.201</v>
-      </c>
-      <c r="G82" s="6">
-        <v>27.31</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="D83" s="6">
-        <v>6.86</v>
-      </c>
-      <c r="E83" s="6">
-        <v>6.76</v>
-      </c>
-      <c r="F83" s="6">
-        <v>6.255</v>
-      </c>
-      <c r="G83" s="6">
-        <v>6.219</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D84" s="6">
-        <v>51.31</v>
-      </c>
-      <c r="E84" s="6">
-        <v>46.924</v>
-      </c>
-      <c r="F84" s="6">
-        <v>45.644</v>
-      </c>
-      <c r="G84" s="6">
-        <v>45.465</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="D85" s="6">
-        <v>41.37</v>
-      </c>
-      <c r="E85" s="6">
-        <v>40.281</v>
-      </c>
-      <c r="F85" s="6">
-        <v>38.532</v>
-      </c>
-      <c r="G85" s="6">
-        <v>38.423</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D86" s="6">
-        <v>17.54</v>
-      </c>
-      <c r="E86" s="6">
-        <v>16.566</v>
-      </c>
-      <c r="F86" s="6">
-        <v>14.695</v>
-      </c>
-      <c r="G86" s="6">
-        <v>14.236</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="D87" s="6">
-        <v>6.86</v>
-      </c>
-      <c r="E87" s="6">
-        <v>6.549</v>
-      </c>
-      <c r="F87" s="6">
-        <v>6.298</v>
-      </c>
-      <c r="G87" s="6">
-        <v>6.276</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="D88" s="6">
-        <v>22</v>
-      </c>
-      <c r="E88" s="6">
-        <v>21.106</v>
-      </c>
-      <c r="F88" s="6">
-        <v>18.731</v>
-      </c>
-      <c r="G88" s="6">
-        <v>18.215</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="D89" s="6">
-        <v>15.29</v>
-      </c>
-      <c r="E89" s="6">
-        <v>14.931</v>
-      </c>
-      <c r="F89" s="6">
-        <v>13.73</v>
-      </c>
-      <c r="G89" s="6">
-        <v>13.597</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D90" s="6">
-        <v>4.08</v>
-      </c>
-      <c r="E90" s="6">
-        <v>3.8</v>
-      </c>
-      <c r="F90" s="6">
-        <v>3.683</v>
-      </c>
-      <c r="G90" s="6">
-        <v>3.561</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="D91" s="6">
-        <v>5.16</v>
-      </c>
-      <c r="E91" s="6">
-        <v>4.926</v>
-      </c>
-      <c r="F91" s="6">
-        <v>4.872</v>
-      </c>
-      <c r="G91" s="6">
-        <v>4.807</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D92" s="6">
-        <v>11.44</v>
-      </c>
-      <c r="E92" s="6">
-        <v>10.608</v>
-      </c>
-      <c r="F92" s="6">
-        <v>10.267</v>
-      </c>
-      <c r="G92" s="6">
-        <v>10.229</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="D93" s="6">
-        <v>8.6</v>
-      </c>
-      <c r="E93" s="6">
-        <v>7.981</v>
-      </c>
-      <c r="F93" s="6">
-        <v>7.948</v>
-      </c>
-      <c r="G93" s="6">
-        <v>7.857</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D94" s="6">
-        <v>14.01</v>
-      </c>
-      <c r="E94" s="6">
-        <v>12.117</v>
-      </c>
-      <c r="F94" s="6">
-        <v>10.677</v>
-      </c>
-      <c r="G94" s="6">
-        <v>10.241</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D95" s="6">
-        <v>10.15</v>
-      </c>
-      <c r="E95" s="6">
-        <v>8.98</v>
-      </c>
-      <c r="F95" s="6">
-        <v>8.589</v>
-      </c>
-      <c r="G95" s="6">
-        <v>8.416</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="D96" s="6">
-        <v>5.64</v>
-      </c>
-      <c r="E96" s="6">
-        <v>5.512</v>
-      </c>
-      <c r="F96" s="6">
-        <v>4.487</v>
-      </c>
-      <c r="G96" s="6">
-        <v>4.214</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="D97" s="6">
-        <v>5.75</v>
-      </c>
-      <c r="E97" s="6">
-        <v>5.387</v>
-      </c>
-      <c r="F97" s="6">
-        <v>5.263</v>
-      </c>
-      <c r="G97" s="6">
-        <v>5.197</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="D98" s="6">
-        <v>6</v>
-      </c>
-      <c r="E98" s="6">
-        <v>5.887</v>
-      </c>
-      <c r="F98" s="6">
-        <v>5.874</v>
-      </c>
-      <c r="G98" s="6">
-        <v>5.678</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="D99" s="6">
-        <v>6.45</v>
-      </c>
-      <c r="E99" s="6">
-        <v>5.893</v>
-      </c>
-      <c r="F99" s="6">
-        <v>5.733</v>
-      </c>
-      <c r="G99" s="6">
-        <v>5.657</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="D100" s="6">
-        <v>13.3</v>
-      </c>
-      <c r="E100" s="6">
-        <v>12.838</v>
-      </c>
-      <c r="F100" s="6">
-        <v>11.392</v>
-      </c>
-      <c r="G100" s="6">
-        <v>11.301</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="D101" s="6">
-        <v>49.4</v>
-      </c>
-      <c r="E101" s="6">
-        <v>44.658</v>
-      </c>
-      <c r="F101" s="6">
-        <v>36.679</v>
-      </c>
-      <c r="G101" s="6">
-        <v>34.336</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="D102" s="6">
-        <v>3.07</v>
-      </c>
-      <c r="E102" s="6">
-        <v>3.05</v>
-      </c>
-      <c r="F102" s="6">
-        <v>3.021</v>
-      </c>
-      <c r="G102" s="6">
-        <v>2.99</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="D103" s="6">
-        <v>6.72</v>
-      </c>
-      <c r="E103" s="6">
-        <v>6.492</v>
-      </c>
-      <c r="F103" s="6">
-        <v>6.228</v>
-      </c>
-      <c r="G103" s="6">
-        <v>6.21</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D104" s="6">
-        <v>33.7</v>
-      </c>
-      <c r="E104" s="6">
-        <v>33.452</v>
-      </c>
-      <c r="F104" s="6">
-        <v>26.247</v>
-      </c>
-      <c r="G104" s="6">
-        <v>26.181</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="C105" s="6" t="s">
+      <c r="D142" s="8">
+        <v>20.71</v>
+      </c>
+      <c r="E142" s="8">
+        <v>20.588</v>
+      </c>
+      <c r="F142" s="8">
+        <v>19.197</v>
+      </c>
+      <c r="G142" s="8">
+        <v>18.585</v>
+      </c>
+    </row>
+    <row r="143" spans="1:30">
+      <c r="A143" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="C143" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D105" s="6">
-        <v>67.8</v>
-      </c>
-      <c r="E105" s="6">
-        <v>64.247</v>
-      </c>
-      <c r="F105" s="6">
-        <v>58.919</v>
-      </c>
-      <c r="G105" s="6">
-        <v>58.589</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="A106" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="D106" s="6">
-        <v>24.31</v>
-      </c>
-      <c r="E106" s="6">
-        <v>23.6</v>
-      </c>
-      <c r="F106" s="6">
-        <v>20.147</v>
-      </c>
-      <c r="G106" s="6">
-        <v>19.845</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="A107" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D107" s="6">
-        <v>7.41</v>
-      </c>
-      <c r="E107" s="6">
-        <v>7.193</v>
-      </c>
-      <c r="F107" s="6">
-        <v>6.55</v>
-      </c>
-      <c r="G107" s="6">
-        <v>6.408</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
-      <c r="A108" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D108" s="6">
-        <v>45.13</v>
-      </c>
-      <c r="E108" s="6">
-        <v>41.827</v>
-      </c>
-      <c r="F108" s="6">
-        <v>39.364</v>
-      </c>
-      <c r="G108" s="6">
-        <v>38.995</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
-      <c r="A109" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="D109" s="6">
-        <v>4.36</v>
-      </c>
-      <c r="E109" s="6">
-        <v>4.287</v>
-      </c>
-      <c r="F109" s="6">
-        <v>4.251</v>
-      </c>
-      <c r="G109" s="6">
-        <v>4.178</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="D110" s="6">
-        <v>10.1</v>
-      </c>
-      <c r="E110" s="6">
-        <v>8.138</v>
-      </c>
-      <c r="F110" s="6">
-        <v>7.103</v>
-      </c>
-      <c r="G110" s="6">
-        <v>6.862</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="A111" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="D111" s="6">
-        <v>2.86</v>
-      </c>
-      <c r="E111" s="6">
-        <v>2.843</v>
-      </c>
-      <c r="F111" s="6">
-        <v>2.828</v>
-      </c>
-      <c r="G111" s="6">
-        <v>2.816</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
-      <c r="A112" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="D112" s="6">
-        <v>94.24</v>
-      </c>
-      <c r="E112" s="6">
-        <v>90.834</v>
-      </c>
-      <c r="F112" s="6">
-        <v>79.248</v>
-      </c>
-      <c r="G112" s="6">
-        <v>77.459</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
-      <c r="A113" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="D113" s="6">
-        <v>7.37</v>
-      </c>
-      <c r="E113" s="6">
-        <v>7.24</v>
-      </c>
-      <c r="F113" s="6">
-        <v>6.899</v>
-      </c>
-      <c r="G113" s="6">
-        <v>6.707</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="A114" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="D114" s="6">
-        <v>24.07</v>
-      </c>
-      <c r="E114" s="6">
-        <v>22.064</v>
-      </c>
-      <c r="F114" s="6">
-        <v>19.924</v>
-      </c>
-      <c r="G114" s="6">
-        <v>19.704</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
-      <c r="A115" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="D115" s="6">
-        <v>22.9</v>
-      </c>
-      <c r="E115" s="6">
-        <v>21.576</v>
-      </c>
-      <c r="F115" s="6">
-        <v>16.979</v>
-      </c>
-      <c r="G115" s="6">
-        <v>16.628</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="A116" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="D116" s="6">
-        <v>10.35</v>
-      </c>
-      <c r="E116" s="6">
-        <v>8.41</v>
-      </c>
-      <c r="F116" s="6">
-        <v>7.002</v>
-      </c>
-      <c r="G116" s="6">
-        <v>6.926</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="A117" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="D117" s="6">
-        <v>16.16</v>
-      </c>
-      <c r="E117" s="6">
-        <v>15.694</v>
-      </c>
-      <c r="F117" s="6">
-        <v>13.854</v>
-      </c>
-      <c r="G117" s="6">
-        <v>13.634</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="A118" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D118" s="6">
-        <v>20.85</v>
-      </c>
-      <c r="E118" s="6">
-        <v>20.125</v>
-      </c>
-      <c r="F118" s="6">
-        <v>18.707</v>
-      </c>
-      <c r="G118" s="6">
-        <v>18.495</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
-      <c r="A119" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="D119" s="6">
-        <v>7.1</v>
-      </c>
-      <c r="E119" s="6">
-        <v>6.62</v>
-      </c>
-      <c r="F119" s="6">
-        <v>6.326</v>
-      </c>
-      <c r="G119" s="6">
-        <v>6.271</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="A120" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="D120" s="6">
-        <v>8.08</v>
-      </c>
-      <c r="E120" s="6">
-        <v>7.865</v>
-      </c>
-      <c r="F120" s="6">
-        <v>7.097</v>
-      </c>
-      <c r="G120" s="6">
-        <v>7.038</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
-      <c r="A121" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="D121" s="6">
-        <v>3.73</v>
-      </c>
-      <c r="E121" s="6">
-        <v>3.681</v>
-      </c>
-      <c r="F121" s="6">
-        <v>3.621</v>
-      </c>
-      <c r="G121" s="6">
-        <v>3.495</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
-      <c r="A122" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="D122" s="6">
-        <v>13.94</v>
-      </c>
-      <c r="E122" s="6">
-        <v>13.932</v>
-      </c>
-      <c r="F122" s="6">
-        <v>13.922</v>
-      </c>
-      <c r="G122" s="6">
-        <v>13.871</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
-      <c r="A123" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="D123" s="6">
-        <v>10.14</v>
-      </c>
-      <c r="E123" s="6">
-        <v>8.832</v>
-      </c>
-      <c r="F123" s="6">
-        <v>8.246</v>
-      </c>
-      <c r="G123" s="6">
-        <v>8.242</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="A124" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="D124" s="6">
-        <v>114.28</v>
-      </c>
-      <c r="E124" s="6">
-        <v>101.532</v>
-      </c>
-      <c r="F124" s="6">
-        <v>78.549</v>
-      </c>
-      <c r="G124" s="6">
-        <v>75.612</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
-      <c r="A125" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D125" s="6">
-        <v>5.85</v>
-      </c>
-      <c r="E125" s="6">
-        <v>5.824</v>
-      </c>
-      <c r="F125" s="6">
-        <v>5.293</v>
-      </c>
-      <c r="G125" s="6">
-        <v>5.062</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
-      <c r="A126" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="D126" s="6">
-        <v>28.55</v>
-      </c>
-      <c r="E126" s="6">
-        <v>26.932</v>
-      </c>
-      <c r="F126" s="6">
-        <v>21.287</v>
-      </c>
-      <c r="G126" s="6">
-        <v>18.597</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
-      <c r="A127" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D127" s="6">
-        <v>16.54</v>
-      </c>
-      <c r="E127" s="6">
-        <v>15.973</v>
-      </c>
-      <c r="F127" s="6">
-        <v>15.08</v>
-      </c>
-      <c r="G127" s="6">
-        <v>14.391</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
-      <c r="A128" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="D128" s="6">
-        <v>6.58</v>
-      </c>
-      <c r="E128" s="6">
-        <v>6.3</v>
-      </c>
-      <c r="F128" s="6">
-        <v>5.97</v>
-      </c>
-      <c r="G128" s="6">
-        <v>5.922</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
-      <c r="A129" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="D129" s="6">
-        <v>138.4</v>
-      </c>
-      <c r="E129" s="6">
-        <v>133.681</v>
-      </c>
-      <c r="F129" s="6">
-        <v>106.948</v>
-      </c>
-      <c r="G129" s="6">
-        <v>94.608</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
-      <c r="A130" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D130" s="6">
-        <v>18.88</v>
-      </c>
-      <c r="E130" s="6">
-        <v>18.447</v>
-      </c>
-      <c r="F130" s="6">
-        <v>16.585</v>
-      </c>
-      <c r="G130" s="6">
-        <v>16.094</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
-      <c r="A131" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="D131" s="6">
-        <v>9.89</v>
-      </c>
-      <c r="E131" s="6">
-        <v>8.775</v>
-      </c>
-      <c r="F131" s="6">
-        <v>8.203</v>
-      </c>
-      <c r="G131" s="6">
-        <v>8.137</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
-      <c r="A132" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D132" s="6">
-        <v>30.25</v>
-      </c>
-      <c r="E132" s="6">
-        <v>27.413</v>
-      </c>
-      <c r="F132" s="6">
-        <v>26.18</v>
-      </c>
-      <c r="G132" s="6">
-        <v>25.731</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
-      <c r="A133" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D133" s="6">
-        <v>4.6</v>
-      </c>
-      <c r="E133" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F133" s="6">
-        <v>3.797</v>
-      </c>
-      <c r="G133" s="6">
-        <v>3.752</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
-      <c r="A134" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="D134" s="6">
-        <v>44.06</v>
-      </c>
-      <c r="E134" s="6">
-        <v>38.363</v>
-      </c>
-      <c r="F134" s="6">
-        <v>29.553</v>
-      </c>
-      <c r="G134" s="6">
-        <v>28.369</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
-      <c r="A135" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D135" s="6">
-        <v>5.03</v>
-      </c>
-      <c r="E135" s="6">
-        <v>4.644</v>
-      </c>
-      <c r="F135" s="6">
-        <v>3.896</v>
-      </c>
-      <c r="G135" s="6">
-        <v>3.883</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
-      <c r="A136" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="D136" s="6">
-        <v>13.2</v>
-      </c>
-      <c r="E136" s="6">
-        <v>13.039</v>
-      </c>
-      <c r="F136" s="6">
-        <v>11.808</v>
-      </c>
-      <c r="G136" s="6">
-        <v>11.674</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
-      <c r="A137" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="C137" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D137" s="6">
-        <v>17.34</v>
-      </c>
-      <c r="E137" s="6">
-        <v>14.34</v>
-      </c>
-      <c r="F137" s="6">
-        <v>11.156</v>
-      </c>
-      <c r="G137" s="6">
-        <v>10.363</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
-      <c r="A138" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D138" s="6">
-        <v>23.54</v>
-      </c>
-      <c r="E138" s="6">
-        <v>21.591</v>
-      </c>
-      <c r="F138" s="6">
-        <v>21.407</v>
-      </c>
-      <c r="G138" s="6">
-        <v>21.356</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
-      <c r="A139" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="D139" s="6">
-        <v>8.19</v>
-      </c>
-      <c r="E139" s="6">
-        <v>7.93</v>
-      </c>
-      <c r="F139" s="6">
-        <v>7.561</v>
-      </c>
-      <c r="G139" s="6">
-        <v>7.237</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
-      <c r="A140" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="D140" s="6">
-        <v>9.34</v>
-      </c>
-      <c r="E140" s="6">
-        <v>9.269</v>
-      </c>
-      <c r="F140" s="6">
-        <v>8.565</v>
-      </c>
-      <c r="G140" s="6">
-        <v>8.526</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
-      <c r="A141" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="C141" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="D141" s="6">
-        <v>126</v>
-      </c>
-      <c r="E141" s="6">
-        <v>107.874</v>
-      </c>
-      <c r="F141" s="6">
-        <v>89.241</v>
-      </c>
-      <c r="G141" s="6">
-        <v>86.269</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
-      <c r="A142" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="C142" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D142" s="6">
-        <v>20.71</v>
-      </c>
-      <c r="E142" s="6">
-        <v>20.588</v>
-      </c>
-      <c r="F142" s="6">
-        <v>19.197</v>
-      </c>
-      <c r="G142" s="6">
-        <v>18.585</v>
-      </c>
-    </row>
-    <row r="143" spans="1:30">
-      <c r="A143" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C143" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D143" s="6">
+      <c r="D143" s="8">
         <v>151.55</v>
       </c>
-      <c r="E143" s="6">
+      <c r="E143" s="8">
         <v>133.879</v>
       </c>
-      <c r="F143" s="6">
+      <c r="F143" s="8">
         <v>125.532</v>
       </c>
-      <c r="G143" s="6">
+      <c r="G143" s="8">
         <v>125.296</v>
       </c>
-      <c r="H143" s="26">
+      <c r="H143" s="2">
         <v>66.71</v>
       </c>
-      <c r="I143" s="26">
+      <c r="I143" s="2">
         <v>158.71</v>
       </c>
-      <c r="J143" s="26">
+      <c r="J143" s="2">
         <v>82.89</v>
       </c>
-      <c r="K143" s="12">
+      <c r="K143" s="14">
         <f>(D143-H143)/H143</f>
         <v>1.27177334732424</v>
       </c>
-      <c r="L143" s="13">
+      <c r="L143" s="14">
         <f>(I143-D143)/I143</f>
         <v>0.0451137294436393</v>
       </c>
-      <c r="M143" s="12">
+      <c r="M143" s="14">
         <f>(I143-J143)/J143</f>
         <v>0.914706237181807</v>
       </c>
-      <c r="O143" s="27" t="s">
+      <c r="O143" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="P143" s="28">
+      <c r="P143" s="2">
         <v>83.17</v>
       </c>
-      <c r="Q143" s="28">
+      <c r="Q143" s="2">
         <v>149.62</v>
       </c>
-      <c r="R143" s="28">
+      <c r="R143" s="2">
         <v>117.21</v>
       </c>
-      <c r="S143" s="26">
+      <c r="S143" s="2">
         <v>151</v>
       </c>
-      <c r="T143" s="26">
+      <c r="T143" s="2">
         <v>124.25</v>
       </c>
-      <c r="AB143" s="29">
+      <c r="AB143" s="27">
         <f>(I143-P143)/I143</f>
         <v>0.475962447230798</v>
       </c>
-      <c r="AC143" s="30">
+      <c r="AC143" s="28">
         <f>(Q143-R143)/Q143</f>
         <v>0.216615425745221</v>
       </c>
-      <c r="AD143" s="30">
+      <c r="AD143" s="28">
         <f>(S143-T143)/S143</f>
         <v>0.177152317880795</v>
       </c>
     </row>
     <row r="144" spans="1:7">
-      <c r="A144" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="B144" s="6" t="s">
+      <c r="A144" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="C144" s="6" t="s">
+      <c r="B144" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="D144" s="6">
+      <c r="C144" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="D144" s="8">
         <v>5.11</v>
       </c>
-      <c r="E144" s="6">
+      <c r="E144" s="8">
         <v>4.928</v>
       </c>
-      <c r="F144" s="6">
+      <c r="F144" s="8">
         <v>4.683</v>
       </c>
-      <c r="G144" s="6">
+      <c r="G144" s="8">
         <v>4.651</v>
       </c>
     </row>
     <row r="145" spans="1:7">
-      <c r="A145" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="B145" s="6" t="s">
+      <c r="A145" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="C145" s="6" t="s">
+      <c r="B145" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="D145" s="6">
+      <c r="C145" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="D145" s="8">
         <v>9.15</v>
       </c>
-      <c r="E145" s="6">
+      <c r="E145" s="8">
         <v>8.445</v>
       </c>
-      <c r="F145" s="6">
+      <c r="F145" s="8">
         <v>8.012</v>
       </c>
-      <c r="G145" s="6">
+      <c r="G145" s="8">
         <v>7.696</v>
       </c>
     </row>
     <row r="146" spans="1:7">
-      <c r="A146" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="B146" s="6" t="s">
+      <c r="A146" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="C146" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="D146" s="6">
+      <c r="B146" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="D146" s="8">
         <v>122.2</v>
       </c>
-      <c r="E146" s="6">
+      <c r="E146" s="8">
         <v>121.873</v>
       </c>
-      <c r="F146" s="6">
+      <c r="F146" s="8">
         <v>119.148</v>
       </c>
-      <c r="G146" s="6">
+      <c r="G146" s="8">
         <v>117.983</v>
       </c>
     </row>
     <row r="147" spans="1:7">
-      <c r="A147" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="B147" s="6" t="s">
+      <c r="A147" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="C147" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="D147" s="6">
+      <c r="B147" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="D147" s="8">
         <v>12.51</v>
       </c>
-      <c r="E147" s="6">
+      <c r="E147" s="8">
         <v>12.275</v>
       </c>
-      <c r="F147" s="6">
+      <c r="F147" s="8">
         <v>11.4</v>
       </c>
-      <c r="G147" s="6">
+      <c r="G147" s="8">
         <v>11.347</v>
       </c>
     </row>
     <row r="148" spans="1:7">
-      <c r="A148" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="B148" s="6" t="s">
+      <c r="A148" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="C148" s="6" t="s">
+      <c r="B148" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="D148" s="6">
+      <c r="C148" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="D148" s="8">
         <v>170.6</v>
       </c>
-      <c r="E148" s="6">
+      <c r="E148" s="8">
         <v>164.385</v>
       </c>
-      <c r="F148" s="6">
+      <c r="F148" s="8">
         <v>152.602</v>
       </c>
-      <c r="G148" s="6">
+      <c r="G148" s="8">
         <v>147.403</v>
       </c>
     </row>
     <row r="149" spans="1:7">
-      <c r="A149" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="B149" s="6" t="s">
+      <c r="A149" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="C149" s="6" t="s">
+      <c r="B149" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="D149" s="6">
+      <c r="C149" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="D149" s="8">
         <v>3.55</v>
       </c>
-      <c r="E149" s="6">
+      <c r="E149" s="8">
         <v>3.511</v>
       </c>
-      <c r="F149" s="6">
+      <c r="F149" s="8">
         <v>3.168</v>
       </c>
-      <c r="G149" s="6">
+      <c r="G149" s="8">
         <v>2.996</v>
       </c>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="B150" s="7" t="s">
+      <c r="A150" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="C150" s="6" t="s">
+      <c r="B150" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="C150" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D150" s="6">
+      <c r="D150" s="8">
         <v>8.07</v>
       </c>
-      <c r="E150" s="6">
+      <c r="E150" s="8">
         <v>7.549</v>
       </c>
-      <c r="F150" s="6">
+      <c r="F150" s="8">
         <v>6.163</v>
       </c>
-      <c r="G150" s="6">
+      <c r="G150" s="8">
         <v>5.65</v>
       </c>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="B151" s="6" t="s">
+      <c r="A151" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="C151" s="6" t="s">
+      <c r="B151" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="D151" s="6">
+      <c r="C151" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="D151" s="8">
         <v>11.05</v>
       </c>
-      <c r="E151" s="6">
+      <c r="E151" s="8">
         <v>10.904</v>
       </c>
-      <c r="F151" s="6">
+      <c r="F151" s="8">
         <v>8.944</v>
       </c>
-      <c r="G151" s="6">
+      <c r="G151" s="8">
         <v>8.501</v>
       </c>
     </row>
     <row r="152" spans="1:7">
-      <c r="A152" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="B152" s="6" t="s">
+      <c r="A152" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="C152" s="6" t="s">
+      <c r="B152" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="C152" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D152" s="6">
+      <c r="D152" s="8">
         <v>7.98</v>
       </c>
-      <c r="E152" s="6">
+      <c r="E152" s="8">
         <v>7.933</v>
       </c>
-      <c r="F152" s="6">
+      <c r="F152" s="8">
         <v>7.721</v>
       </c>
-      <c r="G152" s="6">
+      <c r="G152" s="8">
         <v>7.539</v>
       </c>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="B153" s="6" t="s">
+      <c r="A153" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="C153" s="6" t="s">
+      <c r="B153" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="C153" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D153" s="6">
+      <c r="D153" s="8">
         <v>13.33</v>
       </c>
-      <c r="E153" s="6">
+      <c r="E153" s="8">
         <v>11.578</v>
       </c>
-      <c r="F153" s="6">
+      <c r="F153" s="8">
         <v>10.197</v>
       </c>
-      <c r="G153" s="6">
+      <c r="G153" s="8">
         <v>10.186</v>
       </c>
     </row>
     <row r="154" spans="1:7">
-      <c r="A154" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="B154" s="6" t="s">
+      <c r="A154" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="C154" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="D154" s="6">
+      <c r="B154" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="D154" s="8">
         <v>12.62</v>
       </c>
-      <c r="E154" s="6">
+      <c r="E154" s="8">
         <v>12.313</v>
       </c>
-      <c r="F154" s="6">
+      <c r="F154" s="8">
         <v>10.489</v>
       </c>
-      <c r="G154" s="6">
+      <c r="G154" s="8">
         <v>10.027</v>
       </c>
     </row>
     <row r="155" spans="1:7">
-      <c r="A155" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="B155" s="6" t="s">
+      <c r="A155" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="C155" s="6" t="s">
+      <c r="B155" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="C155" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="D155" s="6">
+      <c r="D155" s="8">
         <v>41.2</v>
       </c>
-      <c r="E155" s="6">
+      <c r="E155" s="8">
         <v>38.125</v>
       </c>
-      <c r="F155" s="6">
+      <c r="F155" s="8">
         <v>29.658</v>
       </c>
-      <c r="G155" s="6">
+      <c r="G155" s="8">
         <v>28.965</v>
       </c>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="B156" s="6" t="s">
+      <c r="A156" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="C156" s="6" t="s">
+      <c r="B156" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="C156" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D156" s="6">
+      <c r="D156" s="8">
         <v>3.53</v>
       </c>
-      <c r="E156" s="6">
+      <c r="E156" s="8">
         <v>3.473</v>
       </c>
-      <c r="F156" s="6">
+      <c r="F156" s="8">
         <v>3.408</v>
       </c>
-      <c r="G156" s="6">
+      <c r="G156" s="8">
         <v>3.34</v>
       </c>
     </row>
     <row r="157" spans="1:7">
-      <c r="A157" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="B157" s="6" t="s">
+      <c r="A157" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="C157" s="6" t="s">
+      <c r="B157" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="C157" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D157" s="6">
+      <c r="D157" s="8">
         <v>23.12</v>
       </c>
-      <c r="E157" s="6">
+      <c r="E157" s="8">
         <v>20.047</v>
       </c>
-      <c r="F157" s="6">
+      <c r="F157" s="8">
         <v>16.862</v>
       </c>
-      <c r="G157" s="6">
+      <c r="G157" s="8">
         <v>16.31</v>
       </c>
     </row>
     <row r="158" spans="1:7">
-      <c r="A158" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="B158" s="6" t="s">
+      <c r="A158" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="C158" s="6" t="s">
+      <c r="B158" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="C158" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D158" s="6">
+      <c r="D158" s="8">
         <v>13.16</v>
       </c>
-      <c r="E158" s="6">
+      <c r="E158" s="8">
         <v>9.716</v>
       </c>
-      <c r="F158" s="6">
+      <c r="F158" s="8">
         <v>9.082</v>
       </c>
-      <c r="G158" s="6">
+      <c r="G158" s="8">
         <v>8.963</v>
       </c>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="B159" s="6" t="s">
+      <c r="A159" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="C159" s="6" t="s">
+      <c r="B159" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="D159" s="6">
+      <c r="C159" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="D159" s="8">
         <v>10.04</v>
       </c>
-      <c r="E159" s="6">
+      <c r="E159" s="8">
         <v>9.714</v>
       </c>
-      <c r="F159" s="6">
+      <c r="F159" s="8">
         <v>9.137</v>
       </c>
-      <c r="G159" s="6">
+      <c r="G159" s="8">
         <v>9.104</v>
       </c>
     </row>
     <row r="160" spans="1:7">
-      <c r="A160" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="B160" s="6" t="s">
+      <c r="A160" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="C160" s="6" t="s">
+      <c r="B160" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="D160" s="6">
+      <c r="C160" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="D160" s="8">
         <v>5.22</v>
       </c>
-      <c r="E160" s="6">
+      <c r="E160" s="8">
         <v>4.981</v>
       </c>
-      <c r="F160" s="6">
+      <c r="F160" s="8">
         <v>4.589</v>
       </c>
-      <c r="G160" s="6">
+      <c r="G160" s="8">
         <v>4.576</v>
       </c>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="6" t="s">
+      <c r="A161" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D161" s="8">
+        <v>5.75</v>
+      </c>
+      <c r="E161" s="8">
+        <v>5.649</v>
+      </c>
+      <c r="F161" s="8">
+        <v>4.67</v>
+      </c>
+      <c r="G161" s="8">
+        <v>4.571</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D162" s="8">
+        <v>8.59</v>
+      </c>
+      <c r="E162" s="8">
+        <v>8.423</v>
+      </c>
+      <c r="F162" s="8">
+        <v>8.186</v>
+      </c>
+      <c r="G162" s="8">
+        <v>8.179</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D163" s="8">
+        <v>30.24</v>
+      </c>
+      <c r="E163" s="8">
+        <v>29.597</v>
+      </c>
+      <c r="F163" s="8">
+        <v>23.164</v>
+      </c>
+      <c r="G163" s="8">
+        <v>22.303</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="D164" s="8">
+        <v>25.79</v>
+      </c>
+      <c r="E164" s="8">
+        <v>23.941</v>
+      </c>
+      <c r="F164" s="8">
+        <v>20.295</v>
+      </c>
+      <c r="G164" s="8">
+        <v>19.989</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="D165" s="8">
+        <v>8.72</v>
+      </c>
+      <c r="E165" s="8">
+        <v>8.399</v>
+      </c>
+      <c r="F165" s="8">
+        <v>8.067</v>
+      </c>
+      <c r="G165" s="8">
+        <v>7.746</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D166" s="8">
+        <v>7.18</v>
+      </c>
+      <c r="E166" s="8">
+        <v>6.875</v>
+      </c>
+      <c r="F166" s="8">
+        <v>6.27</v>
+      </c>
+      <c r="G166" s="8">
+        <v>6.246</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D167" s="8">
+        <v>22.78</v>
+      </c>
+      <c r="E167" s="8">
+        <v>20.026</v>
+      </c>
+      <c r="F167" s="8">
+        <v>17.823</v>
+      </c>
+      <c r="G167" s="8">
+        <v>17.343</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="D168" s="8">
+        <v>4.26</v>
+      </c>
+      <c r="E168" s="8">
+        <v>4.177</v>
+      </c>
+      <c r="F168" s="8">
+        <v>4.168</v>
+      </c>
+      <c r="G168" s="8">
+        <v>4.095</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="D169" s="8">
+        <v>3.94</v>
+      </c>
+      <c r="E169" s="8">
+        <v>3.789</v>
+      </c>
+      <c r="F169" s="8">
+        <v>3.475</v>
+      </c>
+      <c r="G169" s="8">
+        <v>3.429</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="D170" s="8">
+        <v>4.42</v>
+      </c>
+      <c r="E170" s="8">
+        <v>4.335</v>
+      </c>
+      <c r="F170" s="8">
+        <v>3.674</v>
+      </c>
+      <c r="G170" s="8">
+        <v>3.586</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="D171" s="8">
+        <v>26.43</v>
+      </c>
+      <c r="E171" s="8">
+        <v>24.691</v>
+      </c>
+      <c r="F171" s="8">
+        <v>24.135</v>
+      </c>
+      <c r="G171" s="8">
+        <v>22.751</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="C172" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D172" s="8">
+        <v>14.49</v>
+      </c>
+      <c r="E172" s="8">
+        <v>12.746</v>
+      </c>
+      <c r="F172" s="8">
+        <v>9.974</v>
+      </c>
+      <c r="G172" s="8">
+        <v>9.927</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D173" s="8">
+        <v>3.38</v>
+      </c>
+      <c r="E173" s="8">
+        <v>3.157</v>
+      </c>
+      <c r="F173" s="8">
+        <v>2.787</v>
+      </c>
+      <c r="G173" s="8">
+        <v>2.674</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="D174" s="8">
+        <v>3.89</v>
+      </c>
+      <c r="E174" s="8">
+        <v>3.71</v>
+      </c>
+      <c r="F174" s="8">
+        <v>3.706</v>
+      </c>
+      <c r="G174" s="8">
+        <v>3.666</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="C175" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="B161" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="C161" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D161" s="6">
-        <v>5.75</v>
-      </c>
-      <c r="E161" s="6">
-        <v>5.649</v>
-      </c>
-      <c r="F161" s="6">
-        <v>4.67</v>
-      </c>
-      <c r="G161" s="6">
-        <v>4.571</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7">
-      <c r="A162" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="B162" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="C162" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D162" s="6">
-        <v>8.59</v>
-      </c>
-      <c r="E162" s="6">
-        <v>8.423</v>
-      </c>
-      <c r="F162" s="6">
-        <v>8.186</v>
-      </c>
-      <c r="G162" s="6">
-        <v>8.179</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7">
-      <c r="A163" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="B163" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="C163" s="6" t="s">
+      <c r="D175" s="8">
+        <v>13.41</v>
+      </c>
+      <c r="E175" s="8">
+        <v>12.372</v>
+      </c>
+      <c r="F175" s="8">
+        <v>9.126</v>
+      </c>
+      <c r="G175" s="8">
+        <v>8.041</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D176" s="8">
+        <v>4.09</v>
+      </c>
+      <c r="E176" s="8">
+        <v>4.069</v>
+      </c>
+      <c r="F176" s="8">
+        <v>4.025</v>
+      </c>
+      <c r="G176" s="8">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="C177" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D163" s="6">
-        <v>30.24</v>
-      </c>
-      <c r="E163" s="6">
-        <v>29.597</v>
-      </c>
-      <c r="F163" s="6">
-        <v>23.164</v>
-      </c>
-      <c r="G163" s="6">
-        <v>22.303</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7">
-      <c r="A164" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="B164" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="C164" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="D164" s="6">
-        <v>25.79</v>
-      </c>
-      <c r="E164" s="6">
-        <v>23.941</v>
-      </c>
-      <c r="F164" s="6">
-        <v>20.295</v>
-      </c>
-      <c r="G164" s="6">
-        <v>19.989</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7">
-      <c r="A165" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="B165" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="C165" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="D165" s="6">
-        <v>8.72</v>
-      </c>
-      <c r="E165" s="6">
-        <v>8.399</v>
-      </c>
-      <c r="F165" s="6">
-        <v>8.067</v>
-      </c>
-      <c r="G165" s="6">
-        <v>7.746</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7">
-      <c r="A166" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="B166" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="C166" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D166" s="6">
-        <v>7.18</v>
-      </c>
-      <c r="E166" s="6">
-        <v>6.875</v>
-      </c>
-      <c r="F166" s="6">
-        <v>6.27</v>
-      </c>
-      <c r="G166" s="6">
-        <v>6.246</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7">
-      <c r="A167" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="B167" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="C167" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D167" s="6">
-        <v>22.78</v>
-      </c>
-      <c r="E167" s="6">
-        <v>20.026</v>
-      </c>
-      <c r="F167" s="6">
-        <v>17.823</v>
-      </c>
-      <c r="G167" s="6">
-        <v>17.343</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
-      <c r="A168" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="B168" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="C168" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="D168" s="6">
-        <v>4.26</v>
-      </c>
-      <c r="E168" s="6">
-        <v>4.177</v>
-      </c>
-      <c r="F168" s="6">
-        <v>4.168</v>
-      </c>
-      <c r="G168" s="6">
-        <v>4.095</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7">
-      <c r="A169" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="B169" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="C169" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="D169" s="6">
-        <v>3.94</v>
-      </c>
-      <c r="E169" s="6">
-        <v>3.789</v>
-      </c>
-      <c r="F169" s="6">
-        <v>3.475</v>
-      </c>
-      <c r="G169" s="6">
-        <v>3.429</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7">
-      <c r="A170" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="B170" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="C170" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="D170" s="6">
-        <v>4.42</v>
-      </c>
-      <c r="E170" s="6">
-        <v>4.335</v>
-      </c>
-      <c r="F170" s="6">
-        <v>3.674</v>
-      </c>
-      <c r="G170" s="6">
-        <v>3.586</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7">
-      <c r="A171" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="B171" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="C171" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="D171" s="6">
-        <v>26.43</v>
-      </c>
-      <c r="E171" s="6">
-        <v>24.691</v>
-      </c>
-      <c r="F171" s="6">
-        <v>24.135</v>
-      </c>
-      <c r="G171" s="6">
-        <v>22.751</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7">
-      <c r="A172" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="B172" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="C172" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D172" s="6">
-        <v>14.49</v>
-      </c>
-      <c r="E172" s="6">
-        <v>12.746</v>
-      </c>
-      <c r="F172" s="6">
-        <v>9.974</v>
-      </c>
-      <c r="G172" s="6">
-        <v>9.927</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7">
-      <c r="A173" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="B173" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="C173" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D173" s="6">
-        <v>3.38</v>
-      </c>
-      <c r="E173" s="6">
-        <v>3.157</v>
-      </c>
-      <c r="F173" s="6">
-        <v>2.787</v>
-      </c>
-      <c r="G173" s="6">
-        <v>2.674</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7">
-      <c r="A174" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="B174" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="C174" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="D174" s="6">
-        <v>3.89</v>
-      </c>
-      <c r="E174" s="6">
-        <v>3.71</v>
-      </c>
-      <c r="F174" s="6">
-        <v>3.706</v>
-      </c>
-      <c r="G174" s="6">
-        <v>3.666</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
-      <c r="A175" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="B175" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="C175" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="D175" s="6">
-        <v>13.41</v>
-      </c>
-      <c r="E175" s="6">
-        <v>12.372</v>
-      </c>
-      <c r="F175" s="6">
-        <v>9.126</v>
-      </c>
-      <c r="G175" s="6">
-        <v>8.041</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7">
-      <c r="A176" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="B176" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="C176" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D176" s="6">
-        <v>4.09</v>
-      </c>
-      <c r="E176" s="6">
-        <v>4.069</v>
-      </c>
-      <c r="F176" s="6">
-        <v>4.025</v>
-      </c>
-      <c r="G176" s="6">
-        <v>3.97</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7">
-      <c r="A177" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="B177" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="C177" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D177" s="6">
+      <c r="D177" s="8">
         <v>7.68</v>
       </c>
-      <c r="E177" s="6">
+      <c r="E177" s="8">
         <v>7</v>
       </c>
-      <c r="F177" s="6">
+      <c r="F177" s="8">
         <v>5.403</v>
       </c>
-      <c r="G177" s="6">
+      <c r="G177" s="8">
         <v>5.257</v>
       </c>
     </row>
     <row r="178" spans="1:7">
-      <c r="A178" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="B178" s="6" t="s">
+      <c r="A178" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="C178" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="D178" s="6">
+      <c r="B178" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="C178" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="D178" s="8">
         <v>8.5</v>
       </c>
-      <c r="E178" s="6">
+      <c r="E178" s="8">
         <v>7.989</v>
       </c>
-      <c r="F178" s="6">
+      <c r="F178" s="8">
         <v>6.403</v>
       </c>
-      <c r="G178" s="6">
+      <c r="G178" s="8">
         <v>6.35</v>
       </c>
     </row>
     <row r="179" spans="1:7">
-      <c r="A179" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="B179" s="6" t="s">
+      <c r="A179" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="C179" s="6" t="s">
+      <c r="B179" s="8" t="s">
         <v>486</v>
       </c>
-      <c r="D179" s="6">
+      <c r="C179" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="D179" s="8">
         <v>12.77</v>
       </c>
-      <c r="E179" s="6">
+      <c r="E179" s="8">
         <v>11.498</v>
       </c>
-      <c r="F179" s="6">
+      <c r="F179" s="8">
         <v>10.241</v>
       </c>
-      <c r="G179" s="6">
+      <c r="G179" s="8">
         <v>9.943</v>
       </c>
     </row>

--- a/我的创作/财务/证券投资/股票/SEAP交易系统/交易分析/技术面2022-10-21.xlsx
+++ b/我的创作/财务/证券投资/股票/SEAP交易系统/交易分析/技术面2022-10-21.xlsx
@@ -10,7 +10,7 @@
     <sheet name="选股结果" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">选股结果!$A$1:$A$179</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">选股结果!$B$1:$B$179</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1737,13 +1737,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1778,12 +1778,104 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1798,93 +1890,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1898,26 +1906,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1960,7 +1960,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1978,12 +1984,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1996,7 +1996,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2008,7 +2020,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2020,91 +2122,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2116,31 +2140,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2212,6 +2212,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2222,6 +2237,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2241,17 +2265,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2275,185 +2299,158 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2489,7 +2486,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2519,7 +2516,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2931,11 +2928,11 @@
   <dimension ref="A1:AO179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="F88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J96" sqref="J96"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8"/>
@@ -2946,463 +2943,461 @@
     <col min="5" max="5" width="12.0073529411765" customWidth="1"/>
     <col min="6" max="7" width="13.1397058823529" customWidth="1"/>
     <col min="8" max="10" width="7.94117647058824" style="2"/>
-    <col min="11" max="11" width="8.64705882352941" style="3"/>
-    <col min="12" max="12" width="8.35294117647059" style="3"/>
-    <col min="13" max="13" width="8.64705882352941" style="3"/>
-    <col min="14" max="15" width="7.94117647058824" style="3"/>
-    <col min="16" max="22" width="7.94117647058824" style="2"/>
-    <col min="23" max="24" width="7.94117647058824" style="3"/>
+    <col min="11" max="11" width="8.64705882352941" style="2"/>
+    <col min="12" max="12" width="8.35294117647059" style="2"/>
+    <col min="13" max="13" width="8.64705882352941" style="2"/>
+    <col min="14" max="24" width="7.94117647058824" style="2"/>
     <col min="28" max="30" width="7.94117647058824" style="1"/>
-    <col min="31" max="32" width="12.6470588235294" style="4"/>
-    <col min="33" max="33" width="12.6470588235294" style="5"/>
+    <col min="31" max="32" width="12.6470588235294" style="3"/>
+    <col min="33" max="33" width="12.6470588235294" style="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="28" spans="1:41">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="15" t="s">
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="22" t="s">
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22" t="s">
+      <c r="AJ1" s="21"/>
+      <c r="AK1" s="21"/>
+      <c r="AL1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="24" t="s">
+      <c r="AM1" s="21"/>
+      <c r="AN1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AO1" s="25" t="s">
+      <c r="AO1" s="24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:41">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="11" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="16" t="s">
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="16"/>
-      <c r="AI2" s="19" t="s">
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="AJ2" s="19" t="s">
+      <c r="AJ2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="AK2" s="19" t="s">
+      <c r="AK2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="AL2" s="19" t="s">
+      <c r="AL2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="AM2" s="19" t="s">
+      <c r="AM2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AN2" s="24"/>
-      <c r="AO2" s="25"/>
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="24"/>
     </row>
     <row r="3" ht="41" spans="1:41">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="11" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="S3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="T3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="U3" s="11" t="s">
+      <c r="U3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="V3" s="11" t="s">
+      <c r="V3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="W3" s="11" t="s">
+      <c r="W3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="X3" s="11" t="s">
+      <c r="X3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="Y3" s="18" t="s">
+      <c r="Y3" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="Z3" s="18" t="s">
+      <c r="Z3" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="AA3" s="19" t="s">
+      <c r="AA3" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="AB3" s="13" t="s">
+      <c r="AB3" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AC3" s="13" t="s">
+      <c r="AC3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="AD3" s="13" t="s">
+      <c r="AD3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="AE3" s="13" t="s">
+      <c r="AE3" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="AF3" s="13" t="s">
+      <c r="AF3" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AG3" s="13" t="s">
+      <c r="AG3" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="AH3" s="23" t="s">
+      <c r="AH3" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="19"/>
-      <c r="AM3" s="19"/>
-      <c r="AN3" s="24"/>
-      <c r="AO3" s="25"/>
+      <c r="AI3" s="18"/>
+      <c r="AJ3" s="18"/>
+      <c r="AK3" s="18"/>
+      <c r="AL3" s="18"/>
+      <c r="AM3" s="18"/>
+      <c r="AN3" s="23"/>
+      <c r="AO3" s="24"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>5.02</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>4.912</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>4.509</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>4.442</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>5.9</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>5.671</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>5.558</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>5.512</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>26.69</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>24.434</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>16.438</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>15.069</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>10.55</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>5.573</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>5.399</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>5.208</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>44.07</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>36.654</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>21.942</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>19.52</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>9.79</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>8.663</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>7.36</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>7.047</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>2.53</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>2.289</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>2.117</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <v>2.079</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>11.55</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>6.179</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>5.77</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <v>5.634</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>12.89</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>9.188</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>8.711</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="7">
         <v>8.681</v>
       </c>
     </row>
     <row r="13" spans="1:30">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>82.51</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>77.761</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <v>66.404</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="7">
         <v>62.741</v>
       </c>
       <c r="H13" s="2">
@@ -3414,143 +3409,143 @@
       <c r="J13" s="2">
         <v>55.68</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="13">
         <f>(D13-H13)/H13</f>
         <v>1.12654639175258</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="13">
         <f>(I13-D13)/I13</f>
         <v>0.067683615819209</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M13" s="13">
         <f>(I13-J13)/J13</f>
         <v>0.589439655172414</v>
       </c>
-      <c r="O13" s="17" t="s">
+      <c r="O13" s="16" t="s">
         <v>75</v>
       </c>
       <c r="P13" s="2">
         <v>68</v>
       </c>
-      <c r="AB13" s="20">
+      <c r="AB13" s="19">
         <f>(I13-P13)/I13</f>
         <v>0.231638418079096</v>
       </c>
-      <c r="AC13" s="21"/>
-      <c r="AD13" s="21"/>
+      <c r="AC13" s="20"/>
+      <c r="AD13" s="20"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>24.79</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <v>23.798</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <v>20.692</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="7">
         <v>19.614</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>11.87</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>11.737</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <v>11.213</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="7">
         <v>10.654</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>9.88</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="7">
         <v>9.831</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <v>8.207</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="7">
         <v>8.188</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <v>15.95</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="7">
         <v>12.47</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="7">
         <v>10.739</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="7">
         <v>10.421</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:33">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>20.77</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
         <v>18.072</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <v>14.826</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="7">
         <v>14.75</v>
       </c>
       <c r="H18" s="2">
@@ -3562,15 +3557,15 @@
       <c r="J18" s="2">
         <v>11.34</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="13">
         <f>(D18-H18)/H18</f>
         <v>1.25027085590466</v>
       </c>
-      <c r="L18" s="14">
+      <c r="L18" s="13">
         <f>(I18-D18)/I18</f>
         <v>-0.111884368308351</v>
       </c>
-      <c r="M18" s="14">
+      <c r="M18" s="13">
         <f>(I18-J18)/J18</f>
         <v>0.647266313932981</v>
       </c>
@@ -3609,281 +3604,281 @@
       <c r="Z18" s="1">
         <v>19.23</v>
       </c>
-      <c r="AB18" s="20">
+      <c r="AB18" s="19">
         <f>(I18-P18)/I18</f>
         <v>0.185224839400428</v>
       </c>
-      <c r="AC18" s="21">
+      <c r="AC18" s="20">
         <f>(Q18-R18)/Q18</f>
         <v>0.12819089900111</v>
       </c>
-      <c r="AD18" s="21">
+      <c r="AD18" s="20">
         <f>(S18-T18)/S18</f>
         <v>0.153923541247485</v>
       </c>
-      <c r="AE18" s="4">
+      <c r="AE18" s="3">
         <f>(U18-V18)/U18</f>
         <v>0.109623015873016</v>
       </c>
-      <c r="AF18" s="4">
+      <c r="AF18" s="3">
         <f>(W18-X18)/W18</f>
         <v>0.0679133858267716</v>
       </c>
-      <c r="AG18" s="4">
+      <c r="AG18" s="3">
         <f>(Y18-Z18)/Y18</f>
         <v>0.0754807692307692</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>89.08</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="7">
         <v>78.363</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="7">
         <v>69.182</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="7">
         <v>62.819</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <v>6.4</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="7">
         <v>5.908</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="7">
         <v>4.445</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="7">
         <v>4.395</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>16.96</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="7">
         <v>14.997</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="7">
         <v>13.684</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="7">
         <v>13.645</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <v>12.01</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="7">
         <v>10.818</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="7">
         <v>7.82</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="7">
         <v>7.676</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7">
         <v>22.75</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="7">
         <v>18.133</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="7">
         <v>16.394</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="7">
         <v>15.927</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <v>6.19</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="7">
         <v>5.79</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="7">
         <v>4.962</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="7">
         <v>4.799</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="7">
         <v>10.8</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="7">
         <v>9.259</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="7">
         <v>7.721</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="7">
         <v>7.261</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="7">
         <v>4.75</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="7">
         <v>4.288</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="7">
         <v>3.644</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="7">
         <v>3.444</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="7">
         <v>6.06</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="7">
         <v>4.382</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="7">
         <v>3.399</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="7">
         <v>3.055</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="7">
         <v>28.62</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="7">
         <v>27.22</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="7">
         <v>26.754</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="7">
         <v>26.239</v>
       </c>
     </row>
     <row r="29" spans="1:29">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="7">
         <v>45.96</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="7">
         <v>41.032</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="7">
         <v>32.34</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="7">
         <v>31.994</v>
       </c>
       <c r="H29" s="2">
@@ -3895,15 +3890,15 @@
       <c r="J29" s="2">
         <v>29.61</v>
       </c>
-      <c r="K29" s="14">
+      <c r="K29" s="13">
         <f t="shared" ref="K29:K33" si="0">(D29-H29)/H29</f>
         <v>1.23106796116505</v>
       </c>
-      <c r="L29" s="14">
+      <c r="L29" s="13">
         <f t="shared" ref="L29:L33" si="1">(I29-D29)/I29</f>
         <v>0.0448877805486284</v>
       </c>
-      <c r="M29" s="14">
+      <c r="M29" s="13">
         <f t="shared" ref="M29:M33" si="2">(I29-J29)/J29</f>
         <v>0.625126646403242</v>
       </c>
@@ -3916,35 +3911,35 @@
       <c r="R29" s="2">
         <v>42.01</v>
       </c>
-      <c r="AB29" s="20">
+      <c r="AB29" s="19">
         <f t="shared" ref="AB29:AB33" si="3">(I29-P29)/I29</f>
         <v>0.168536990856193</v>
       </c>
-      <c r="AC29" s="21">
+      <c r="AC29" s="20">
         <f>(Q29-R29)/Q29</f>
         <v>0.105027694929697</v>
       </c>
     </row>
     <row r="30" spans="1:28">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="7">
         <v>12.97</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="7">
         <v>12.787</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="7">
         <v>10.36</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="7">
         <v>10.079</v>
       </c>
       <c r="H30" s="2">
@@ -3956,92 +3951,92 @@
       <c r="J30" s="2">
         <v>8.62</v>
       </c>
-      <c r="K30" s="14">
+      <c r="K30" s="13">
         <f t="shared" si="0"/>
         <v>0.974124809741248</v>
       </c>
-      <c r="L30" s="14">
+      <c r="L30" s="13">
         <f t="shared" si="1"/>
         <v>0.286186020913594</v>
       </c>
-      <c r="M30" s="14">
+      <c r="M30" s="13">
         <f t="shared" si="2"/>
         <v>1.10788863109049</v>
       </c>
       <c r="P30" s="2">
         <v>9.88</v>
       </c>
-      <c r="AB30" s="20">
+      <c r="AB30" s="19">
         <f t="shared" si="3"/>
         <v>0.456246560264172</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="7">
         <v>31.33</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="7">
         <v>25.983</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="7">
         <v>22.802</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="7">
         <v>22.263</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="7">
         <v>8.43</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="7">
         <v>7.281</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="7">
         <v>3.835</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="7">
         <v>3.387</v>
       </c>
     </row>
     <row r="33" spans="1:28">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="7">
         <v>8.54</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="7">
         <v>8.504</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="7">
         <v>7.357</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="7">
         <v>7.158</v>
       </c>
       <c r="H33" s="2">
@@ -4053,322 +4048,322 @@
       <c r="J33" s="2">
         <v>5.27</v>
       </c>
-      <c r="K33" s="14">
+      <c r="K33" s="13">
         <f t="shared" si="0"/>
         <v>0.967741935483871</v>
       </c>
-      <c r="L33" s="14">
+      <c r="L33" s="13">
         <f t="shared" si="1"/>
         <v>0.183556405353729</v>
       </c>
-      <c r="M33" s="14">
+      <c r="M33" s="13">
         <f t="shared" si="2"/>
         <v>0.984819734345351</v>
       </c>
       <c r="P33" s="2">
         <v>7.04</v>
       </c>
-      <c r="AB33" s="20">
+      <c r="AB33" s="19">
         <f t="shared" si="3"/>
         <v>0.326959847036329</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="7">
         <v>10.4</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="7">
         <v>8.694</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="7">
         <v>6.913</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="7">
         <v>6.477</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="7">
         <v>15.24</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="7">
         <v>13.52</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="7">
         <v>13.008</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="7">
         <v>12.94</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="7">
         <v>31.57</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="7">
         <v>29.929</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F36" s="7">
         <v>29.134</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G36" s="7">
         <v>28.232</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="7">
         <v>10.98</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="7">
         <v>10.146</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37" s="7">
         <v>8.5</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G37" s="7">
         <v>7.762</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="7">
         <v>5.7</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="7">
         <v>5.661</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38" s="7">
         <v>5.181</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G38" s="7">
         <v>5.06</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="7">
         <v>12.47</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="7">
         <v>12.343</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F39" s="7">
         <v>9.218</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G39" s="7">
         <v>8.675</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="7">
         <v>10.75</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="7">
         <v>10.226</v>
       </c>
-      <c r="F40" s="8">
+      <c r="F40" s="7">
         <v>9.875</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G40" s="7">
         <v>9.846</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="7">
         <v>5.11</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="7">
         <v>5.046</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F41" s="7">
         <v>4.781</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G41" s="7">
         <v>4.582</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="7">
         <v>62.59</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="7">
         <v>60.392</v>
       </c>
-      <c r="F42" s="8">
+      <c r="F42" s="7">
         <v>43.697</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G42" s="7">
         <v>40.956</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="7">
         <v>15.2</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43" s="7">
         <v>13.648</v>
       </c>
-      <c r="F43" s="8">
+      <c r="F43" s="7">
         <v>12.957</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G43" s="7">
         <v>12.855</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="7">
         <v>3.49</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E44" s="7">
         <v>3.291</v>
       </c>
-      <c r="F44" s="8">
+      <c r="F44" s="7">
         <v>3.023</v>
       </c>
-      <c r="G44" s="8">
+      <c r="G44" s="7">
         <v>3.007</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="7">
         <v>188.92</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45" s="7">
         <v>185.298</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F45" s="7">
         <v>123.921</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G45" s="7">
         <v>109.732</v>
       </c>
     </row>
     <row r="46" spans="1:28">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="7">
         <v>20.27</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E46" s="7">
         <v>19.862</v>
       </c>
-      <c r="F46" s="8">
+      <c r="F46" s="7">
         <v>15.287</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G46" s="7">
         <v>14.28</v>
       </c>
       <c r="I46" s="2">
@@ -4377,100 +4372,100 @@
       <c r="P46" s="2">
         <v>17.23</v>
       </c>
-      <c r="AB46" s="20">
+      <c r="AB46" s="19">
         <f>(I46-P46)/I46</f>
         <v>0.278475711892797</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="7">
         <v>10.83</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E47" s="7">
         <v>10.063</v>
       </c>
-      <c r="F47" s="8">
+      <c r="F47" s="7">
         <v>9.87</v>
       </c>
-      <c r="G47" s="8">
+      <c r="G47" s="7">
         <v>9.861</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="7">
         <v>23.3</v>
       </c>
-      <c r="E48" s="8">
+      <c r="E48" s="7">
         <v>18.922</v>
       </c>
-      <c r="F48" s="8">
+      <c r="F48" s="7">
         <v>16.435</v>
       </c>
-      <c r="G48" s="8">
+      <c r="G48" s="7">
         <v>16.36</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="7">
         <v>5.43</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E49" s="7">
         <v>5.029</v>
       </c>
-      <c r="F49" s="8">
+      <c r="F49" s="7">
         <v>4.839</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G49" s="7">
         <v>4.797</v>
       </c>
     </row>
     <row r="50" spans="1:30">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="7">
         <v>52.8</v>
       </c>
-      <c r="E50" s="8">
+      <c r="E50" s="7">
         <v>43.007</v>
       </c>
-      <c r="F50" s="8">
+      <c r="F50" s="7">
         <v>29.901</v>
       </c>
-      <c r="G50" s="8">
+      <c r="G50" s="7">
         <v>28.266</v>
       </c>
       <c r="H50" s="2">
@@ -4482,19 +4477,19 @@
       <c r="J50" s="2">
         <v>30.65</v>
       </c>
-      <c r="K50" s="14">
+      <c r="K50" s="13">
         <f>(D50-H50)/H50</f>
         <v>3.19380460683082</v>
       </c>
-      <c r="L50" s="14">
+      <c r="L50" s="13">
         <f>(I50-D50)/I50</f>
         <v>-0.0416255671730124</v>
       </c>
-      <c r="M50" s="14">
+      <c r="M50" s="13">
         <f>(I50-J50)/J50</f>
         <v>0.653833605220228</v>
       </c>
-      <c r="O50" s="17" t="s">
+      <c r="O50" s="16" t="s">
         <v>75</v>
       </c>
       <c r="P50" s="2">
@@ -4512,246 +4507,246 @@
       <c r="T50" s="2">
         <v>50.66</v>
       </c>
-      <c r="AB50" s="20">
+      <c r="AB50" s="19">
         <f>(I50-P50)/I50</f>
         <v>0.26987571513119</v>
       </c>
-      <c r="AC50" s="21">
+      <c r="AC50" s="20">
         <f>(Q50-R50)/Q50</f>
         <v>0.142091684858107</v>
       </c>
-      <c r="AD50" s="21">
+      <c r="AD50" s="20">
         <f>(S50-T50)/S50</f>
         <v>0.0847335140018068</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="7">
         <v>6.59</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E51" s="7">
         <v>6.465</v>
       </c>
-      <c r="F51" s="8">
+      <c r="F51" s="7">
         <v>6.256</v>
       </c>
-      <c r="G51" s="8">
+      <c r="G51" s="7">
         <v>6.063</v>
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D52" s="7">
         <v>9.23</v>
       </c>
-      <c r="E52" s="8">
+      <c r="E52" s="7">
         <v>8.565</v>
       </c>
-      <c r="F52" s="8">
+      <c r="F52" s="7">
         <v>7.005</v>
       </c>
-      <c r="G52" s="8">
+      <c r="G52" s="7">
         <v>6.902</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="7">
         <v>27.3</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E53" s="7">
         <v>25.75</v>
       </c>
-      <c r="F53" s="8">
+      <c r="F53" s="7">
         <v>23.158</v>
       </c>
-      <c r="G53" s="8">
+      <c r="G53" s="7">
         <v>22.475</v>
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="7">
         <v>8.4</v>
       </c>
-      <c r="E54" s="8">
+      <c r="E54" s="7">
         <v>8.239</v>
       </c>
-      <c r="F54" s="8">
+      <c r="F54" s="7">
         <v>7.551</v>
       </c>
-      <c r="G54" s="8">
+      <c r="G54" s="7">
         <v>7.433</v>
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="7">
         <v>6.58</v>
       </c>
-      <c r="E55" s="8">
+      <c r="E55" s="7">
         <v>6.094</v>
       </c>
-      <c r="F55" s="8">
+      <c r="F55" s="7">
         <v>5.362</v>
       </c>
-      <c r="G55" s="8">
+      <c r="G55" s="7">
         <v>5.318</v>
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D56" s="7">
         <v>48.86</v>
       </c>
-      <c r="E56" s="8">
+      <c r="E56" s="7">
         <v>41.785</v>
       </c>
-      <c r="F56" s="8">
+      <c r="F56" s="7">
         <v>39.583</v>
       </c>
-      <c r="G56" s="8">
+      <c r="G56" s="7">
         <v>37.671</v>
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D57" s="7">
         <v>63</v>
       </c>
-      <c r="E57" s="8">
+      <c r="E57" s="7">
         <v>54.972</v>
       </c>
-      <c r="F57" s="8">
+      <c r="F57" s="7">
         <v>46.126</v>
       </c>
-      <c r="G57" s="8">
+      <c r="G57" s="7">
         <v>41.986</v>
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D58" s="7">
         <v>22.16</v>
       </c>
-      <c r="E58" s="8">
+      <c r="E58" s="7">
         <v>18.345</v>
       </c>
-      <c r="F58" s="8">
+      <c r="F58" s="7">
         <v>15.617</v>
       </c>
-      <c r="G58" s="8">
+      <c r="G58" s="7">
         <v>15.484</v>
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D59" s="7">
         <v>18.18</v>
       </c>
-      <c r="E59" s="8">
+      <c r="E59" s="7">
         <v>17.394</v>
       </c>
-      <c r="F59" s="8">
+      <c r="F59" s="7">
         <v>14.905</v>
       </c>
-      <c r="G59" s="8">
+      <c r="G59" s="7">
         <v>14.694</v>
       </c>
     </row>
     <row r="60" spans="1:30">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="D60" s="8">
+      <c r="D60" s="7">
         <v>14.17</v>
       </c>
-      <c r="E60" s="8">
+      <c r="E60" s="7">
         <v>12.888</v>
       </c>
-      <c r="F60" s="8">
+      <c r="F60" s="7">
         <v>8.888</v>
       </c>
-      <c r="G60" s="8">
+      <c r="G60" s="7">
         <v>7.854</v>
       </c>
       <c r="H60" s="2">
@@ -4763,19 +4758,19 @@
       <c r="J60" s="2">
         <v>4.81</v>
       </c>
-      <c r="K60" s="14">
+      <c r="K60" s="13">
         <f>(D60-H60)/H60</f>
         <v>3.37345679012346</v>
       </c>
-      <c r="L60" s="14">
+      <c r="L60" s="13">
         <f>(I60-D60)/I60</f>
         <v>0.233639805300162</v>
       </c>
-      <c r="M60" s="14">
+      <c r="M60" s="13">
         <f>(I60-J60)/J60</f>
         <v>2.84407484407484</v>
       </c>
-      <c r="O60" s="17" t="s">
+      <c r="O60" s="16" t="s">
         <v>200</v>
       </c>
       <c r="P60" s="2">
@@ -4793,154 +4788,154 @@
       <c r="T60" s="2">
         <v>13.3</v>
       </c>
-      <c r="AB60" s="20">
+      <c r="AB60" s="19">
         <f>(I60-P60)/I60</f>
         <v>0.454299621416982</v>
       </c>
-      <c r="AC60" s="21">
+      <c r="AC60" s="20">
         <f>(Q60-R60)/Q60</f>
         <v>0.170798898071625</v>
       </c>
-      <c r="AD60" s="21">
+      <c r="AD60" s="20">
         <f>(S60-T60)/S60</f>
         <v>0.18951858622791</v>
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D61" s="7">
         <v>11.1</v>
       </c>
-      <c r="E61" s="8">
+      <c r="E61" s="7">
         <v>10.704</v>
       </c>
-      <c r="F61" s="8">
+      <c r="F61" s="7">
         <v>8.763</v>
       </c>
-      <c r="G61" s="8">
+      <c r="G61" s="7">
         <v>8.474</v>
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D62" s="7">
         <v>15.84</v>
       </c>
-      <c r="E62" s="8">
+      <c r="E62" s="7">
         <v>15.335</v>
       </c>
-      <c r="F62" s="8">
+      <c r="F62" s="7">
         <v>13.825</v>
       </c>
-      <c r="G62" s="8">
+      <c r="G62" s="7">
         <v>13.474</v>
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D63" s="7">
         <v>24.7</v>
       </c>
-      <c r="E63" s="8">
+      <c r="E63" s="7">
         <v>23.598</v>
       </c>
-      <c r="F63" s="8">
+      <c r="F63" s="7">
         <v>17.487</v>
       </c>
-      <c r="G63" s="8">
+      <c r="G63" s="7">
         <v>17.162</v>
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D64" s="7">
         <v>39.89</v>
       </c>
-      <c r="E64" s="8">
+      <c r="E64" s="7">
         <v>37.266</v>
       </c>
-      <c r="F64" s="8">
+      <c r="F64" s="7">
         <v>32.743</v>
       </c>
-      <c r="G64" s="8">
+      <c r="G64" s="7">
         <v>31.679</v>
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D65" s="7">
         <v>11.48</v>
       </c>
-      <c r="E65" s="8">
+      <c r="E65" s="7">
         <v>11.467</v>
       </c>
-      <c r="F65" s="8">
+      <c r="F65" s="7">
         <v>11.157</v>
       </c>
-      <c r="G65" s="8">
+      <c r="G65" s="7">
         <v>11.15</v>
       </c>
     </row>
     <row r="66" spans="1:30">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="D66" s="8">
+      <c r="D66" s="7">
         <v>9.46</v>
       </c>
-      <c r="E66" s="8">
+      <c r="E66" s="7">
         <v>9.024</v>
       </c>
-      <c r="F66" s="8">
+      <c r="F66" s="7">
         <v>8.182</v>
       </c>
-      <c r="G66" s="8">
+      <c r="G66" s="7">
         <v>8.14</v>
       </c>
       <c r="H66" s="2">
@@ -4952,19 +4947,19 @@
       <c r="J66" s="2">
         <v>6.82</v>
       </c>
-      <c r="K66" s="14">
+      <c r="K66" s="13">
         <f>(D66-H66)/H66</f>
         <v>0.525806451612903</v>
       </c>
-      <c r="L66" s="14">
+      <c r="L66" s="13">
         <f>(I66-D66)/I66</f>
         <v>0.0558882235528941</v>
       </c>
-      <c r="M66" s="14">
+      <c r="M66" s="13">
         <f>(I66-J66)/J66</f>
         <v>0.469208211143695</v>
       </c>
-      <c r="O66" s="17" t="s">
+      <c r="O66" s="16" t="s">
         <v>200</v>
       </c>
       <c r="P66" s="2">
@@ -4982,1212 +4977,1212 @@
       <c r="T66" s="2">
         <v>9.11</v>
       </c>
-      <c r="AB66" s="20">
+      <c r="AB66" s="19">
         <f>(I66-P66)/I66</f>
         <v>0.203592814371257</v>
       </c>
-      <c r="AC66" s="21">
+      <c r="AC66" s="20">
         <f>(Q66-R66)/Q66</f>
         <v>0.117352056168505</v>
       </c>
-      <c r="AD66" s="21">
+      <c r="AD66" s="20">
         <f>(S66-T66)/S66</f>
         <v>0.0779352226720649</v>
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="D67" s="8">
+      <c r="D67" s="7">
         <v>3.99</v>
       </c>
-      <c r="E67" s="8">
+      <c r="E67" s="7">
         <v>3.692</v>
       </c>
-      <c r="F67" s="8">
+      <c r="F67" s="7">
         <v>3.626</v>
       </c>
-      <c r="G67" s="8">
+      <c r="G67" s="7">
         <v>3.551</v>
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="8" t="s">
+      <c r="A68" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D68" s="8">
+      <c r="D68" s="7">
         <v>14.48</v>
       </c>
-      <c r="E68" s="8">
+      <c r="E68" s="7">
         <v>13.054</v>
       </c>
-      <c r="F68" s="8">
+      <c r="F68" s="7">
         <v>12.44</v>
       </c>
-      <c r="G68" s="8">
+      <c r="G68" s="7">
         <v>11.582</v>
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="D69" s="8">
+      <c r="D69" s="7">
         <v>19.95</v>
       </c>
-      <c r="E69" s="8">
+      <c r="E69" s="7">
         <v>17.29</v>
       </c>
-      <c r="F69" s="8">
+      <c r="F69" s="7">
         <v>16.064</v>
       </c>
-      <c r="G69" s="8">
+      <c r="G69" s="7">
         <v>15.975</v>
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="8" t="s">
+      <c r="A70" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D70" s="8">
+      <c r="D70" s="7">
         <v>17.63</v>
       </c>
-      <c r="E70" s="8">
+      <c r="E70" s="7">
         <v>15.331</v>
       </c>
-      <c r="F70" s="8">
+      <c r="F70" s="7">
         <v>14.494</v>
       </c>
-      <c r="G70" s="8">
+      <c r="G70" s="7">
         <v>13.496</v>
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D71" s="8">
+      <c r="D71" s="7">
         <v>25.55</v>
       </c>
-      <c r="E71" s="8">
+      <c r="E71" s="7">
         <v>22.117</v>
       </c>
-      <c r="F71" s="8">
+      <c r="F71" s="7">
         <v>19.337</v>
       </c>
-      <c r="G71" s="8">
+      <c r="G71" s="7">
         <v>19.007</v>
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="D72" s="8">
+      <c r="D72" s="7">
         <v>4.34</v>
       </c>
-      <c r="E72" s="8">
+      <c r="E72" s="7">
         <v>4.167</v>
       </c>
-      <c r="F72" s="8">
+      <c r="F72" s="7">
         <v>3.97</v>
       </c>
-      <c r="G72" s="8">
+      <c r="G72" s="7">
         <v>3.938</v>
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="D73" s="8">
+      <c r="D73" s="7">
         <v>14.01</v>
       </c>
-      <c r="E73" s="8">
+      <c r="E73" s="7">
         <v>13.643</v>
       </c>
-      <c r="F73" s="8">
+      <c r="F73" s="7">
         <v>12.999</v>
       </c>
-      <c r="G73" s="8">
+      <c r="G73" s="7">
         <v>12.974</v>
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="8" t="s">
+      <c r="A74" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="D74" s="8">
+      <c r="D74" s="7">
         <v>20.76</v>
       </c>
-      <c r="E74" s="8">
+      <c r="E74" s="7">
         <v>19.562</v>
       </c>
-      <c r="F74" s="8">
+      <c r="F74" s="7">
         <v>16.929</v>
       </c>
-      <c r="G74" s="8">
+      <c r="G74" s="7">
         <v>16.68</v>
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D75" s="8">
+      <c r="D75" s="7">
         <v>20.08</v>
       </c>
-      <c r="E75" s="8">
+      <c r="E75" s="7">
         <v>16.319</v>
       </c>
-      <c r="F75" s="8">
+      <c r="F75" s="7">
         <v>11.371</v>
       </c>
-      <c r="G75" s="8">
+      <c r="G75" s="7">
         <v>10.008</v>
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="8" t="s">
+      <c r="A76" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D76" s="8">
+      <c r="D76" s="7">
         <v>13.19</v>
       </c>
-      <c r="E76" s="8">
+      <c r="E76" s="7">
         <v>11.889</v>
       </c>
-      <c r="F76" s="8">
+      <c r="F76" s="7">
         <v>10.439</v>
       </c>
-      <c r="G76" s="8">
+      <c r="G76" s="7">
         <v>10.149</v>
       </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="8" t="s">
+      <c r="A77" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D77" s="7">
         <v>14.32</v>
       </c>
-      <c r="E77" s="8">
+      <c r="E77" s="7">
         <v>13.909</v>
       </c>
-      <c r="F77" s="8">
+      <c r="F77" s="7">
         <v>11.364</v>
       </c>
-      <c r="G77" s="8">
+      <c r="G77" s="7">
         <v>11.093</v>
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="8" t="s">
+      <c r="A78" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="D78" s="8">
+      <c r="D78" s="7">
         <v>7.6</v>
       </c>
-      <c r="E78" s="8">
+      <c r="E78" s="7">
         <v>6.587</v>
       </c>
-      <c r="F78" s="8">
+      <c r="F78" s="7">
         <v>5.607</v>
       </c>
-      <c r="G78" s="8">
+      <c r="G78" s="7">
         <v>5.547</v>
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="D79" s="8">
+      <c r="D79" s="7">
         <v>4.62</v>
       </c>
-      <c r="E79" s="8">
+      <c r="E79" s="7">
         <v>4.502</v>
       </c>
-      <c r="F79" s="8">
+      <c r="F79" s="7">
         <v>4.462</v>
       </c>
-      <c r="G79" s="8">
+      <c r="G79" s="7">
         <v>4.443</v>
       </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="8" t="s">
+      <c r="A80" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C80" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D80" s="8">
+      <c r="D80" s="7">
         <v>15.54</v>
       </c>
-      <c r="E80" s="8">
+      <c r="E80" s="7">
         <v>15.016</v>
       </c>
-      <c r="F80" s="8">
+      <c r="F80" s="7">
         <v>14.32</v>
       </c>
-      <c r="G80" s="8">
+      <c r="G80" s="7">
         <v>13.636</v>
       </c>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="D81" s="8">
+      <c r="D81" s="7">
         <v>22.09</v>
       </c>
-      <c r="E81" s="8">
+      <c r="E81" s="7">
         <v>20.41</v>
       </c>
-      <c r="F81" s="8">
+      <c r="F81" s="7">
         <v>15.272</v>
       </c>
-      <c r="G81" s="8">
+      <c r="G81" s="7">
         <v>14.775</v>
       </c>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="8" t="s">
+      <c r="A82" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D82" s="8">
+      <c r="D82" s="7">
         <v>30.82</v>
       </c>
-      <c r="E82" s="8">
+      <c r="E82" s="7">
         <v>30.815</v>
       </c>
-      <c r="F82" s="8">
+      <c r="F82" s="7">
         <v>29.201</v>
       </c>
-      <c r="G82" s="8">
+      <c r="G82" s="7">
         <v>27.31</v>
       </c>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="D83" s="8">
+      <c r="D83" s="7">
         <v>6.86</v>
       </c>
-      <c r="E83" s="8">
+      <c r="E83" s="7">
         <v>6.76</v>
       </c>
-      <c r="F83" s="8">
+      <c r="F83" s="7">
         <v>6.255</v>
       </c>
-      <c r="G83" s="8">
+      <c r="G83" s="7">
         <v>6.219</v>
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="8" t="s">
+      <c r="A84" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D84" s="8">
+      <c r="D84" s="7">
         <v>51.31</v>
       </c>
-      <c r="E84" s="8">
+      <c r="E84" s="7">
         <v>46.924</v>
       </c>
-      <c r="F84" s="8">
+      <c r="F84" s="7">
         <v>45.644</v>
       </c>
-      <c r="G84" s="8">
+      <c r="G84" s="7">
         <v>45.465</v>
       </c>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="8" t="s">
+      <c r="A85" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C85" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D85" s="7">
         <v>41.37</v>
       </c>
-      <c r="E85" s="8">
+      <c r="E85" s="7">
         <v>40.281</v>
       </c>
-      <c r="F85" s="8">
+      <c r="F85" s="7">
         <v>38.532</v>
       </c>
-      <c r="G85" s="8">
+      <c r="G85" s="7">
         <v>38.423</v>
       </c>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="8" t="s">
+      <c r="A86" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C86" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D86" s="8">
+      <c r="D86" s="7">
         <v>17.54</v>
       </c>
-      <c r="E86" s="8">
+      <c r="E86" s="7">
         <v>16.566</v>
       </c>
-      <c r="F86" s="8">
+      <c r="F86" s="7">
         <v>14.695</v>
       </c>
-      <c r="G86" s="8">
+      <c r="G86" s="7">
         <v>14.236</v>
       </c>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="8" t="s">
+      <c r="A87" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C87" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="D87" s="8">
+      <c r="D87" s="7">
         <v>6.86</v>
       </c>
-      <c r="E87" s="8">
+      <c r="E87" s="7">
         <v>6.549</v>
       </c>
-      <c r="F87" s="8">
+      <c r="F87" s="7">
         <v>6.298</v>
       </c>
-      <c r="G87" s="8">
+      <c r="G87" s="7">
         <v>6.276</v>
       </c>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="8" t="s">
+      <c r="A88" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C88" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D88" s="8">
+      <c r="D88" s="7">
         <v>22</v>
       </c>
-      <c r="E88" s="8">
+      <c r="E88" s="7">
         <v>21.106</v>
       </c>
-      <c r="F88" s="8">
+      <c r="F88" s="7">
         <v>18.731</v>
       </c>
-      <c r="G88" s="8">
+      <c r="G88" s="7">
         <v>18.215</v>
       </c>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="8" t="s">
+      <c r="A89" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C89" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D89" s="8">
+      <c r="D89" s="7">
         <v>15.29</v>
       </c>
-      <c r="E89" s="8">
+      <c r="E89" s="7">
         <v>14.931</v>
       </c>
-      <c r="F89" s="8">
+      <c r="F89" s="7">
         <v>13.73</v>
       </c>
-      <c r="G89" s="8">
+      <c r="G89" s="7">
         <v>13.597</v>
       </c>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="8" t="s">
+      <c r="A90" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D90" s="8">
+      <c r="D90" s="7">
         <v>4.08</v>
       </c>
-      <c r="E90" s="8">
+      <c r="E90" s="7">
         <v>3.8</v>
       </c>
-      <c r="F90" s="8">
+      <c r="F90" s="7">
         <v>3.683</v>
       </c>
-      <c r="G90" s="8">
+      <c r="G90" s="7">
         <v>3.561</v>
       </c>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="8" t="s">
+      <c r="A91" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C91" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="D91" s="8">
+      <c r="D91" s="7">
         <v>5.16</v>
       </c>
-      <c r="E91" s="8">
+      <c r="E91" s="7">
         <v>4.926</v>
       </c>
-      <c r="F91" s="8">
+      <c r="F91" s="7">
         <v>4.872</v>
       </c>
-      <c r="G91" s="8">
+      <c r="G91" s="7">
         <v>4.807</v>
       </c>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="8" t="s">
+      <c r="A92" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C92" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D92" s="8">
+      <c r="D92" s="7">
         <v>11.44</v>
       </c>
-      <c r="E92" s="8">
+      <c r="E92" s="7">
         <v>10.608</v>
       </c>
-      <c r="F92" s="8">
+      <c r="F92" s="7">
         <v>10.267</v>
       </c>
-      <c r="G92" s="8">
+      <c r="G92" s="7">
         <v>10.229</v>
       </c>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="8" t="s">
+      <c r="A93" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C93" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="D93" s="8">
+      <c r="D93" s="7">
         <v>8.6</v>
       </c>
-      <c r="E93" s="8">
+      <c r="E93" s="7">
         <v>7.981</v>
       </c>
-      <c r="F93" s="8">
+      <c r="F93" s="7">
         <v>7.948</v>
       </c>
-      <c r="G93" s="8">
+      <c r="G93" s="7">
         <v>7.857</v>
       </c>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="8" t="s">
+      <c r="A94" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="B94" s="8" t="s">
+      <c r="B94" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C94" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D94" s="8">
+      <c r="D94" s="7">
         <v>14.01</v>
       </c>
-      <c r="E94" s="8">
+      <c r="E94" s="7">
         <v>12.117</v>
       </c>
-      <c r="F94" s="8">
+      <c r="F94" s="7">
         <v>10.677</v>
       </c>
-      <c r="G94" s="8">
+      <c r="G94" s="7">
         <v>10.241</v>
       </c>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="8" t="s">
+      <c r="A95" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="B95" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C95" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D95" s="8">
+      <c r="D95" s="7">
         <v>10.15</v>
       </c>
-      <c r="E95" s="8">
+      <c r="E95" s="7">
         <v>8.98</v>
       </c>
-      <c r="F95" s="8">
+      <c r="F95" s="7">
         <v>8.589</v>
       </c>
-      <c r="G95" s="8">
+      <c r="G95" s="7">
         <v>8.416</v>
       </c>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="8" t="s">
+      <c r="A96" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="B96" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="C96" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="D96" s="8">
+      <c r="D96" s="7">
         <v>5.64</v>
       </c>
-      <c r="E96" s="8">
+      <c r="E96" s="7">
         <v>5.512</v>
       </c>
-      <c r="F96" s="8">
+      <c r="F96" s="7">
         <v>4.487</v>
       </c>
-      <c r="G96" s="8">
+      <c r="G96" s="7">
         <v>4.214</v>
       </c>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="8" t="s">
+      <c r="A97" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="B97" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="D97" s="8">
+      <c r="D97" s="7">
         <v>5.75</v>
       </c>
-      <c r="E97" s="8">
+      <c r="E97" s="7">
         <v>5.387</v>
       </c>
-      <c r="F97" s="8">
+      <c r="F97" s="7">
         <v>5.263</v>
       </c>
-      <c r="G97" s="8">
+      <c r="G97" s="7">
         <v>5.197</v>
       </c>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="8" t="s">
+      <c r="A98" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="C98" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="D98" s="8">
+      <c r="D98" s="7">
         <v>6</v>
       </c>
-      <c r="E98" s="8">
+      <c r="E98" s="7">
         <v>5.887</v>
       </c>
-      <c r="F98" s="8">
+      <c r="F98" s="7">
         <v>5.874</v>
       </c>
-      <c r="G98" s="8">
+      <c r="G98" s="7">
         <v>5.678</v>
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="8" t="s">
+      <c r="A99" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="C99" s="8" t="s">
+      <c r="C99" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="D99" s="8">
+      <c r="D99" s="7">
         <v>6.45</v>
       </c>
-      <c r="E99" s="8">
+      <c r="E99" s="7">
         <v>5.893</v>
       </c>
-      <c r="F99" s="8">
+      <c r="F99" s="7">
         <v>5.733</v>
       </c>
-      <c r="G99" s="8">
+      <c r="G99" s="7">
         <v>5.657</v>
       </c>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="8" t="s">
+      <c r="A100" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C100" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="D100" s="8">
+      <c r="D100" s="7">
         <v>13.3</v>
       </c>
-      <c r="E100" s="8">
+      <c r="E100" s="7">
         <v>12.838</v>
       </c>
-      <c r="F100" s="8">
+      <c r="F100" s="7">
         <v>11.392</v>
       </c>
-      <c r="G100" s="8">
+      <c r="G100" s="7">
         <v>11.301</v>
       </c>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="8" t="s">
+      <c r="A101" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C101" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="D101" s="8">
+      <c r="D101" s="7">
         <v>49.4</v>
       </c>
-      <c r="E101" s="8">
+      <c r="E101" s="7">
         <v>44.658</v>
       </c>
-      <c r="F101" s="8">
+      <c r="F101" s="7">
         <v>36.679</v>
       </c>
-      <c r="G101" s="8">
+      <c r="G101" s="7">
         <v>34.336</v>
       </c>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="8" t="s">
+      <c r="A102" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="C102" s="8" t="s">
+      <c r="C102" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="D102" s="8">
+      <c r="D102" s="7">
         <v>3.07</v>
       </c>
-      <c r="E102" s="8">
+      <c r="E102" s="7">
         <v>3.05</v>
       </c>
-      <c r="F102" s="8">
+      <c r="F102" s="7">
         <v>3.021</v>
       </c>
-      <c r="G102" s="8">
+      <c r="G102" s="7">
         <v>2.99</v>
       </c>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="8" t="s">
+      <c r="A103" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B103" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="C103" s="8" t="s">
+      <c r="C103" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="D103" s="8">
+      <c r="D103" s="7">
         <v>6.72</v>
       </c>
-      <c r="E103" s="8">
+      <c r="E103" s="7">
         <v>6.492</v>
       </c>
-      <c r="F103" s="8">
+      <c r="F103" s="7">
         <v>6.228</v>
       </c>
-      <c r="G103" s="8">
+      <c r="G103" s="7">
         <v>6.21</v>
       </c>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="8" t="s">
+      <c r="A104" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="B104" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="C104" s="8" t="s">
+      <c r="C104" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D104" s="8">
+      <c r="D104" s="7">
         <v>33.7</v>
       </c>
-      <c r="E104" s="8">
+      <c r="E104" s="7">
         <v>33.452</v>
       </c>
-      <c r="F104" s="8">
+      <c r="F104" s="7">
         <v>26.247</v>
       </c>
-      <c r="G104" s="8">
+      <c r="G104" s="7">
         <v>26.181</v>
       </c>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="8" t="s">
+      <c r="A105" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B105" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="C105" s="8" t="s">
+      <c r="C105" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D105" s="8">
+      <c r="D105" s="7">
         <v>67.8</v>
       </c>
-      <c r="E105" s="8">
+      <c r="E105" s="7">
         <v>64.247</v>
       </c>
-      <c r="F105" s="8">
+      <c r="F105" s="7">
         <v>58.919</v>
       </c>
-      <c r="G105" s="8">
+      <c r="G105" s="7">
         <v>58.589</v>
       </c>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="8" t="s">
+      <c r="A106" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="B106" s="8" t="s">
+      <c r="B106" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="C106" s="8" t="s">
+      <c r="C106" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="D106" s="8">
+      <c r="D106" s="7">
         <v>24.31</v>
       </c>
-      <c r="E106" s="8">
+      <c r="E106" s="7">
         <v>23.6</v>
       </c>
-      <c r="F106" s="8">
+      <c r="F106" s="7">
         <v>20.147</v>
       </c>
-      <c r="G106" s="8">
+      <c r="G106" s="7">
         <v>19.845</v>
       </c>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="8" t="s">
+      <c r="A107" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="B107" s="8" t="s">
+      <c r="B107" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="C107" s="8" t="s">
+      <c r="C107" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D107" s="8">
+      <c r="D107" s="7">
         <v>7.41</v>
       </c>
-      <c r="E107" s="8">
+      <c r="E107" s="7">
         <v>7.193</v>
       </c>
-      <c r="F107" s="8">
+      <c r="F107" s="7">
         <v>6.55</v>
       </c>
-      <c r="G107" s="8">
+      <c r="G107" s="7">
         <v>6.408</v>
       </c>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="8" t="s">
+      <c r="A108" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="B108" s="8" t="s">
+      <c r="B108" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="C108" s="8" t="s">
+      <c r="C108" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D108" s="8">
+      <c r="D108" s="7">
         <v>45.13</v>
       </c>
-      <c r="E108" s="8">
+      <c r="E108" s="7">
         <v>41.827</v>
       </c>
-      <c r="F108" s="8">
+      <c r="F108" s="7">
         <v>39.364</v>
       </c>
-      <c r="G108" s="8">
+      <c r="G108" s="7">
         <v>38.995</v>
       </c>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B109" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="C109" s="8" t="s">
+      <c r="C109" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="D109" s="8">
+      <c r="D109" s="7">
         <v>4.36</v>
       </c>
-      <c r="E109" s="8">
+      <c r="E109" s="7">
         <v>4.287</v>
       </c>
-      <c r="F109" s="8">
+      <c r="F109" s="7">
         <v>4.251</v>
       </c>
-      <c r="G109" s="8">
+      <c r="G109" s="7">
         <v>4.178</v>
       </c>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="8" t="s">
+      <c r="A110" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="B110" s="8" t="s">
+      <c r="B110" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="C110" s="8" t="s">
+      <c r="C110" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="D110" s="8">
+      <c r="D110" s="7">
         <v>10.1</v>
       </c>
-      <c r="E110" s="8">
+      <c r="E110" s="7">
         <v>8.138</v>
       </c>
-      <c r="F110" s="8">
+      <c r="F110" s="7">
         <v>7.103</v>
       </c>
-      <c r="G110" s="8">
+      <c r="G110" s="7">
         <v>6.862</v>
       </c>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="8" t="s">
+      <c r="A111" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="B111" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="C111" s="8" t="s">
+      <c r="C111" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="D111" s="8">
+      <c r="D111" s="7">
         <v>2.86</v>
       </c>
-      <c r="E111" s="8">
+      <c r="E111" s="7">
         <v>2.843</v>
       </c>
-      <c r="F111" s="8">
+      <c r="F111" s="7">
         <v>2.828</v>
       </c>
-      <c r="G111" s="8">
+      <c r="G111" s="7">
         <v>2.816</v>
       </c>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="8" t="s">
+      <c r="A112" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="B112" s="8" t="s">
+      <c r="B112" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="C112" s="8" t="s">
+      <c r="C112" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="D112" s="8">
+      <c r="D112" s="7">
         <v>94.24</v>
       </c>
-      <c r="E112" s="8">
+      <c r="E112" s="7">
         <v>90.834</v>
       </c>
-      <c r="F112" s="8">
+      <c r="F112" s="7">
         <v>79.248</v>
       </c>
-      <c r="G112" s="8">
+      <c r="G112" s="7">
         <v>77.459</v>
       </c>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="8" t="s">
+      <c r="A113" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="B113" s="8" t="s">
+      <c r="B113" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="C113" s="8" t="s">
+      <c r="C113" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="D113" s="8">
+      <c r="D113" s="7">
         <v>7.37</v>
       </c>
-      <c r="E113" s="8">
+      <c r="E113" s="7">
         <v>7.24</v>
       </c>
-      <c r="F113" s="8">
+      <c r="F113" s="7">
         <v>6.899</v>
       </c>
-      <c r="G113" s="8">
+      <c r="G113" s="7">
         <v>6.707</v>
       </c>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="8" t="s">
+      <c r="A114" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="B114" s="8" t="s">
+      <c r="B114" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="C114" s="8" t="s">
+      <c r="C114" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="D114" s="8">
+      <c r="D114" s="7">
         <v>24.07</v>
       </c>
-      <c r="E114" s="8">
+      <c r="E114" s="7">
         <v>22.064</v>
       </c>
-      <c r="F114" s="8">
+      <c r="F114" s="7">
         <v>19.924</v>
       </c>
-      <c r="G114" s="8">
+      <c r="G114" s="7">
         <v>19.704</v>
       </c>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="8" t="s">
+      <c r="A115" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="B115" s="8" t="s">
+      <c r="B115" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="C115" s="8" t="s">
+      <c r="C115" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="D115" s="8">
+      <c r="D115" s="7">
         <v>22.9</v>
       </c>
-      <c r="E115" s="8">
+      <c r="E115" s="7">
         <v>21.576</v>
       </c>
-      <c r="F115" s="8">
+      <c r="F115" s="7">
         <v>16.979</v>
       </c>
-      <c r="G115" s="8">
+      <c r="G115" s="7">
         <v>16.628</v>
       </c>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="8" t="s">
+      <c r="A116" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="B116" s="8" t="s">
+      <c r="B116" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="C116" s="8" t="s">
+      <c r="C116" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="D116" s="8">
+      <c r="D116" s="7">
         <v>10.35</v>
       </c>
-      <c r="E116" s="8">
+      <c r="E116" s="7">
         <v>8.41</v>
       </c>
-      <c r="F116" s="8">
+      <c r="F116" s="7">
         <v>7.002</v>
       </c>
-      <c r="G116" s="8">
+      <c r="G116" s="7">
         <v>6.926</v>
       </c>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="8" t="s">
+      <c r="A117" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B117" s="8" t="s">
+      <c r="B117" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="C117" s="8" t="s">
+      <c r="C117" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="D117" s="8">
+      <c r="D117" s="7">
         <v>16.16</v>
       </c>
-      <c r="E117" s="8">
+      <c r="E117" s="7">
         <v>15.694</v>
       </c>
-      <c r="F117" s="8">
+      <c r="F117" s="7">
         <v>13.854</v>
       </c>
-      <c r="G117" s="8">
+      <c r="G117" s="7">
         <v>13.634</v>
       </c>
     </row>
     <row r="118" spans="1:32">
-      <c r="A118" s="8" t="s">
+      <c r="A118" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="B118" s="8" t="s">
+      <c r="B118" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="C118" s="8" t="s">
+      <c r="C118" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D118" s="8">
+      <c r="D118" s="7">
         <v>20.85</v>
       </c>
-      <c r="E118" s="8">
+      <c r="E118" s="7">
         <v>20.125</v>
       </c>
-      <c r="F118" s="8">
+      <c r="F118" s="7">
         <v>18.707</v>
       </c>
-      <c r="G118" s="8">
+      <c r="G118" s="7">
         <v>18.495</v>
       </c>
       <c r="H118" s="2">
@@ -6199,15 +6194,15 @@
       <c r="J118" s="2">
         <v>11.07</v>
       </c>
-      <c r="K118" s="14">
+      <c r="K118" s="13">
         <f>(D118-H118)/H118</f>
         <v>0.883468834688347</v>
       </c>
-      <c r="L118" s="14">
+      <c r="L118" s="13">
         <f>(I118-D118)/I118</f>
         <v>0.213504337985666</v>
       </c>
-      <c r="M118" s="14">
+      <c r="M118" s="13">
         <f>(I118-J118)/J118</f>
         <v>1.39476061427281</v>
       </c>
@@ -6232,605 +6227,605 @@
       <c r="V118" s="2">
         <v>18.4</v>
       </c>
-      <c r="W118" s="3">
+      <c r="W118" s="2">
         <v>22.39</v>
       </c>
-      <c r="X118" s="3">
+      <c r="X118" s="2">
         <v>20.67</v>
       </c>
-      <c r="AB118" s="20">
+      <c r="AB118" s="19">
         <f>(I118-P118)/I118</f>
         <v>0.495284798189362</v>
       </c>
-      <c r="AC118" s="21">
+      <c r="AC118" s="20">
         <f>(Q118-R118)/Q118</f>
         <v>0.208542713567839</v>
       </c>
-      <c r="AD118" s="21">
+      <c r="AD118" s="20">
         <f>(S118-T118)/S118</f>
         <v>0.1686805219913</v>
       </c>
-      <c r="AE118" s="4">
+      <c r="AE118" s="3">
         <f>(U118-V118)/U118</f>
         <v>0.161731207289294</v>
       </c>
-      <c r="AF118" s="4">
+      <c r="AF118" s="3">
         <f>(W118-X118)/W118</f>
         <v>0.0768200089325591</v>
       </c>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="8" t="s">
+      <c r="A119" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B119" s="8" t="s">
+      <c r="B119" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="C119" s="8" t="s">
+      <c r="C119" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="D119" s="8">
+      <c r="D119" s="7">
         <v>7.1</v>
       </c>
-      <c r="E119" s="8">
+      <c r="E119" s="7">
         <v>6.62</v>
       </c>
-      <c r="F119" s="8">
+      <c r="F119" s="7">
         <v>6.326</v>
       </c>
-      <c r="G119" s="8">
+      <c r="G119" s="7">
         <v>6.271</v>
       </c>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="8" t="s">
+      <c r="A120" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="B120" s="8" t="s">
+      <c r="B120" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="C120" s="8" t="s">
+      <c r="C120" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="D120" s="8">
+      <c r="D120" s="7">
         <v>8.08</v>
       </c>
-      <c r="E120" s="8">
+      <c r="E120" s="7">
         <v>7.865</v>
       </c>
-      <c r="F120" s="8">
+      <c r="F120" s="7">
         <v>7.097</v>
       </c>
-      <c r="G120" s="8">
+      <c r="G120" s="7">
         <v>7.038</v>
       </c>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="8" t="s">
+      <c r="A121" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="B121" s="8" t="s">
+      <c r="B121" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="C121" s="8" t="s">
+      <c r="C121" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="D121" s="8">
+      <c r="D121" s="7">
         <v>3.73</v>
       </c>
-      <c r="E121" s="8">
+      <c r="E121" s="7">
         <v>3.681</v>
       </c>
-      <c r="F121" s="8">
+      <c r="F121" s="7">
         <v>3.621</v>
       </c>
-      <c r="G121" s="8">
+      <c r="G121" s="7">
         <v>3.495</v>
       </c>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="8" t="s">
+      <c r="A122" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="B122" s="8" t="s">
+      <c r="B122" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="C122" s="8" t="s">
+      <c r="C122" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="D122" s="8">
+      <c r="D122" s="7">
         <v>13.94</v>
       </c>
-      <c r="E122" s="8">
+      <c r="E122" s="7">
         <v>13.932</v>
       </c>
-      <c r="F122" s="8">
+      <c r="F122" s="7">
         <v>13.922</v>
       </c>
-      <c r="G122" s="8">
+      <c r="G122" s="7">
         <v>13.871</v>
       </c>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="8" t="s">
+      <c r="A123" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="B123" s="8" t="s">
+      <c r="B123" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="C123" s="8" t="s">
+      <c r="C123" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="D123" s="8">
+      <c r="D123" s="7">
         <v>10.14</v>
       </c>
-      <c r="E123" s="8">
+      <c r="E123" s="7">
         <v>8.832</v>
       </c>
-      <c r="F123" s="8">
+      <c r="F123" s="7">
         <v>8.246</v>
       </c>
-      <c r="G123" s="8">
+      <c r="G123" s="7">
         <v>8.242</v>
       </c>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="8" t="s">
+      <c r="A124" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="B124" s="8" t="s">
+      <c r="B124" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="C124" s="8" t="s">
+      <c r="C124" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="D124" s="8">
+      <c r="D124" s="7">
         <v>114.28</v>
       </c>
-      <c r="E124" s="8">
+      <c r="E124" s="7">
         <v>101.532</v>
       </c>
-      <c r="F124" s="8">
+      <c r="F124" s="7">
         <v>78.549</v>
       </c>
-      <c r="G124" s="8">
+      <c r="G124" s="7">
         <v>75.612</v>
       </c>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="8" t="s">
+      <c r="A125" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="B125" s="8" t="s">
+      <c r="B125" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="C125" s="8" t="s">
+      <c r="C125" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D125" s="8">
+      <c r="D125" s="7">
         <v>5.85</v>
       </c>
-      <c r="E125" s="8">
+      <c r="E125" s="7">
         <v>5.824</v>
       </c>
-      <c r="F125" s="8">
+      <c r="F125" s="7">
         <v>5.293</v>
       </c>
-      <c r="G125" s="8">
+      <c r="G125" s="7">
         <v>5.062</v>
       </c>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="8" t="s">
+      <c r="A126" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="B126" s="8" t="s">
+      <c r="B126" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="C126" s="8" t="s">
+      <c r="C126" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="D126" s="8">
+      <c r="D126" s="7">
         <v>28.55</v>
       </c>
-      <c r="E126" s="8">
+      <c r="E126" s="7">
         <v>26.932</v>
       </c>
-      <c r="F126" s="8">
+      <c r="F126" s="7">
         <v>21.287</v>
       </c>
-      <c r="G126" s="8">
+      <c r="G126" s="7">
         <v>18.597</v>
       </c>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="8" t="s">
+      <c r="A127" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="B127" s="9" t="s">
+      <c r="B127" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="C127" s="8" t="s">
+      <c r="C127" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D127" s="8">
+      <c r="D127" s="7">
         <v>16.54</v>
       </c>
-      <c r="E127" s="8">
+      <c r="E127" s="7">
         <v>15.973</v>
       </c>
-      <c r="F127" s="8">
+      <c r="F127" s="7">
         <v>15.08</v>
       </c>
-      <c r="G127" s="8">
+      <c r="G127" s="7">
         <v>14.391</v>
       </c>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="8" t="s">
+      <c r="A128" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="B128" s="8" t="s">
+      <c r="B128" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="C128" s="8" t="s">
+      <c r="C128" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="D128" s="8">
+      <c r="D128" s="7">
         <v>6.58</v>
       </c>
-      <c r="E128" s="8">
+      <c r="E128" s="7">
         <v>6.3</v>
       </c>
-      <c r="F128" s="8">
+      <c r="F128" s="7">
         <v>5.97</v>
       </c>
-      <c r="G128" s="8">
+      <c r="G128" s="7">
         <v>5.922</v>
       </c>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="8" t="s">
+      <c r="A129" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="B129" s="8" t="s">
+      <c r="B129" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="C129" s="8" t="s">
+      <c r="C129" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="D129" s="8">
+      <c r="D129" s="7">
         <v>138.4</v>
       </c>
-      <c r="E129" s="8">
+      <c r="E129" s="7">
         <v>133.681</v>
       </c>
-      <c r="F129" s="8">
+      <c r="F129" s="7">
         <v>106.948</v>
       </c>
-      <c r="G129" s="8">
+      <c r="G129" s="7">
         <v>94.608</v>
       </c>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="8" t="s">
+      <c r="A130" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="B130" s="8" t="s">
+      <c r="B130" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="C130" s="8" t="s">
+      <c r="C130" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D130" s="8">
+      <c r="D130" s="7">
         <v>18.88</v>
       </c>
-      <c r="E130" s="8">
+      <c r="E130" s="7">
         <v>18.447</v>
       </c>
-      <c r="F130" s="8">
+      <c r="F130" s="7">
         <v>16.585</v>
       </c>
-      <c r="G130" s="8">
+      <c r="G130" s="7">
         <v>16.094</v>
       </c>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="8" t="s">
+      <c r="A131" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="B131" s="8" t="s">
+      <c r="B131" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="C131" s="8" t="s">
+      <c r="C131" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="D131" s="8">
+      <c r="D131" s="7">
         <v>9.89</v>
       </c>
-      <c r="E131" s="8">
+      <c r="E131" s="7">
         <v>8.775</v>
       </c>
-      <c r="F131" s="8">
+      <c r="F131" s="7">
         <v>8.203</v>
       </c>
-      <c r="G131" s="8">
+      <c r="G131" s="7">
         <v>8.137</v>
       </c>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="8" t="s">
+      <c r="A132" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="B132" s="8" t="s">
+      <c r="B132" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="C132" s="8" t="s">
+      <c r="C132" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D132" s="8">
+      <c r="D132" s="7">
         <v>30.25</v>
       </c>
-      <c r="E132" s="8">
+      <c r="E132" s="7">
         <v>27.413</v>
       </c>
-      <c r="F132" s="8">
+      <c r="F132" s="7">
         <v>26.18</v>
       </c>
-      <c r="G132" s="8">
+      <c r="G132" s="7">
         <v>25.731</v>
       </c>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="8" t="s">
+      <c r="A133" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="B133" s="8" t="s">
+      <c r="B133" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="C133" s="8" t="s">
+      <c r="C133" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="D133" s="8">
+      <c r="D133" s="7">
         <v>4.6</v>
       </c>
-      <c r="E133" s="8">
+      <c r="E133" s="7">
         <v>4.49</v>
       </c>
-      <c r="F133" s="8">
+      <c r="F133" s="7">
         <v>3.797</v>
       </c>
-      <c r="G133" s="8">
+      <c r="G133" s="7">
         <v>3.752</v>
       </c>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="8" t="s">
+      <c r="A134" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="B134" s="8" t="s">
+      <c r="B134" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="C134" s="8" t="s">
+      <c r="C134" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="D134" s="8">
+      <c r="D134" s="7">
         <v>44.06</v>
       </c>
-      <c r="E134" s="8">
+      <c r="E134" s="7">
         <v>38.363</v>
       </c>
-      <c r="F134" s="8">
+      <c r="F134" s="7">
         <v>29.553</v>
       </c>
-      <c r="G134" s="8">
+      <c r="G134" s="7">
         <v>28.369</v>
       </c>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="B135" s="8" t="s">
+      <c r="B135" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="C135" s="8" t="s">
+      <c r="C135" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D135" s="8">
+      <c r="D135" s="7">
         <v>5.03</v>
       </c>
-      <c r="E135" s="8">
+      <c r="E135" s="7">
         <v>4.644</v>
       </c>
-      <c r="F135" s="8">
+      <c r="F135" s="7">
         <v>3.896</v>
       </c>
-      <c r="G135" s="8">
+      <c r="G135" s="7">
         <v>3.883</v>
       </c>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="8" t="s">
+      <c r="A136" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="B136" s="8" t="s">
+      <c r="B136" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="C136" s="8" t="s">
+      <c r="C136" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="D136" s="8">
+      <c r="D136" s="7">
         <v>13.2</v>
       </c>
-      <c r="E136" s="8">
+      <c r="E136" s="7">
         <v>13.039</v>
       </c>
-      <c r="F136" s="8">
+      <c r="F136" s="7">
         <v>11.808</v>
       </c>
-      <c r="G136" s="8">
+      <c r="G136" s="7">
         <v>11.674</v>
       </c>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="8" t="s">
+      <c r="A137" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="B137" s="8" t="s">
+      <c r="B137" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="C137" s="8" t="s">
+      <c r="C137" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D137" s="8">
+      <c r="D137" s="7">
         <v>17.34</v>
       </c>
-      <c r="E137" s="8">
+      <c r="E137" s="7">
         <v>14.34</v>
       </c>
-      <c r="F137" s="8">
+      <c r="F137" s="7">
         <v>11.156</v>
       </c>
-      <c r="G137" s="8">
+      <c r="G137" s="7">
         <v>10.363</v>
       </c>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="8" t="s">
+      <c r="A138" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="B138" s="8" t="s">
+      <c r="B138" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C138" s="8" t="s">
+      <c r="C138" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D138" s="8">
+      <c r="D138" s="7">
         <v>23.54</v>
       </c>
-      <c r="E138" s="8">
+      <c r="E138" s="7">
         <v>21.591</v>
       </c>
-      <c r="F138" s="8">
+      <c r="F138" s="7">
         <v>21.407</v>
       </c>
-      <c r="G138" s="8">
+      <c r="G138" s="7">
         <v>21.356</v>
       </c>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="8" t="s">
+      <c r="A139" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="B139" s="8" t="s">
+      <c r="B139" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="C139" s="8" t="s">
+      <c r="C139" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D139" s="8">
+      <c r="D139" s="7">
         <v>8.19</v>
       </c>
-      <c r="E139" s="8">
+      <c r="E139" s="7">
         <v>7.93</v>
       </c>
-      <c r="F139" s="8">
+      <c r="F139" s="7">
         <v>7.561</v>
       </c>
-      <c r="G139" s="8">
+      <c r="G139" s="7">
         <v>7.237</v>
       </c>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="8" t="s">
+      <c r="A140" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="B140" s="8" t="s">
+      <c r="B140" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="C140" s="8" t="s">
+      <c r="C140" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="D140" s="8">
+      <c r="D140" s="7">
         <v>9.34</v>
       </c>
-      <c r="E140" s="8">
+      <c r="E140" s="7">
         <v>9.269</v>
       </c>
-      <c r="F140" s="8">
+      <c r="F140" s="7">
         <v>8.565</v>
       </c>
-      <c r="G140" s="8">
+      <c r="G140" s="7">
         <v>8.526</v>
       </c>
     </row>
     <row r="141" spans="1:7">
-      <c r="A141" s="8" t="s">
+      <c r="A141" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B141" s="8" t="s">
+      <c r="B141" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="C141" s="8" t="s">
+      <c r="C141" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="D141" s="8">
+      <c r="D141" s="7">
         <v>126</v>
       </c>
-      <c r="E141" s="8">
+      <c r="E141" s="7">
         <v>107.874</v>
       </c>
-      <c r="F141" s="8">
+      <c r="F141" s="7">
         <v>89.241</v>
       </c>
-      <c r="G141" s="8">
+      <c r="G141" s="7">
         <v>86.269</v>
       </c>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" s="8" t="s">
+      <c r="A142" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="B142" s="8" t="s">
+      <c r="B142" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="C142" s="8" t="s">
+      <c r="C142" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D142" s="8">
+      <c r="D142" s="7">
         <v>20.71</v>
       </c>
-      <c r="E142" s="8">
+      <c r="E142" s="7">
         <v>20.588</v>
       </c>
-      <c r="F142" s="8">
+      <c r="F142" s="7">
         <v>19.197</v>
       </c>
-      <c r="G142" s="8">
+      <c r="G142" s="7">
         <v>18.585</v>
       </c>
     </row>
     <row r="143" spans="1:30">
-      <c r="A143" s="8" t="s">
+      <c r="A143" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="B143" s="9" t="s">
+      <c r="B143" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="C143" s="8" t="s">
+      <c r="C143" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D143" s="8">
+      <c r="D143" s="7">
         <v>151.55</v>
       </c>
-      <c r="E143" s="8">
+      <c r="E143" s="7">
         <v>133.879</v>
       </c>
-      <c r="F143" s="8">
+      <c r="F143" s="7">
         <v>125.532</v>
       </c>
-      <c r="G143" s="8">
+      <c r="G143" s="7">
         <v>125.296</v>
       </c>
       <c r="H143" s="2">
@@ -6842,19 +6837,19 @@
       <c r="J143" s="2">
         <v>82.89</v>
       </c>
-      <c r="K143" s="14">
+      <c r="K143" s="13">
         <f>(D143-H143)/H143</f>
         <v>1.27177334732424</v>
       </c>
-      <c r="L143" s="14">
+      <c r="L143" s="13">
         <f>(I143-D143)/I143</f>
         <v>0.0451137294436393</v>
       </c>
-      <c r="M143" s="14">
+      <c r="M143" s="13">
         <f>(I143-J143)/J143</f>
         <v>0.914706237181807</v>
       </c>
-      <c r="O143" s="26" t="s">
+      <c r="O143" s="25" t="s">
         <v>75</v>
       </c>
       <c r="P143" s="2">
@@ -6872,844 +6867,844 @@
       <c r="T143" s="2">
         <v>124.25</v>
       </c>
-      <c r="AB143" s="27">
+      <c r="AB143" s="26">
         <f>(I143-P143)/I143</f>
         <v>0.475962447230798</v>
       </c>
-      <c r="AC143" s="28">
+      <c r="AC143" s="27">
         <f>(Q143-R143)/Q143</f>
         <v>0.216615425745221</v>
       </c>
-      <c r="AD143" s="28">
+      <c r="AD143" s="27">
         <f>(S143-T143)/S143</f>
         <v>0.177152317880795</v>
       </c>
     </row>
     <row r="144" spans="1:7">
-      <c r="A144" s="8" t="s">
+      <c r="A144" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="B144" s="8" t="s">
+      <c r="B144" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="C144" s="8" t="s">
+      <c r="C144" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="D144" s="8">
+      <c r="D144" s="7">
         <v>5.11</v>
       </c>
-      <c r="E144" s="8">
+      <c r="E144" s="7">
         <v>4.928</v>
       </c>
-      <c r="F144" s="8">
+      <c r="F144" s="7">
         <v>4.683</v>
       </c>
-      <c r="G144" s="8">
+      <c r="G144" s="7">
         <v>4.651</v>
       </c>
     </row>
     <row r="145" spans="1:7">
-      <c r="A145" s="8" t="s">
+      <c r="A145" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="B145" s="8" t="s">
+      <c r="B145" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="C145" s="8" t="s">
+      <c r="C145" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="D145" s="8">
+      <c r="D145" s="7">
         <v>9.15</v>
       </c>
-      <c r="E145" s="8">
+      <c r="E145" s="7">
         <v>8.445</v>
       </c>
-      <c r="F145" s="8">
+      <c r="F145" s="7">
         <v>8.012</v>
       </c>
-      <c r="G145" s="8">
+      <c r="G145" s="7">
         <v>7.696</v>
       </c>
     </row>
     <row r="146" spans="1:7">
-      <c r="A146" s="8" t="s">
+      <c r="A146" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="B146" s="8" t="s">
+      <c r="B146" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="C146" s="8" t="s">
+      <c r="C146" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="D146" s="8">
+      <c r="D146" s="7">
         <v>122.2</v>
       </c>
-      <c r="E146" s="8">
+      <c r="E146" s="7">
         <v>121.873</v>
       </c>
-      <c r="F146" s="8">
+      <c r="F146" s="7">
         <v>119.148</v>
       </c>
-      <c r="G146" s="8">
+      <c r="G146" s="7">
         <v>117.983</v>
       </c>
     </row>
     <row r="147" spans="1:7">
-      <c r="A147" s="8" t="s">
+      <c r="A147" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="B147" s="8" t="s">
+      <c r="B147" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="C147" s="8" t="s">
+      <c r="C147" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="D147" s="8">
+      <c r="D147" s="7">
         <v>12.51</v>
       </c>
-      <c r="E147" s="8">
+      <c r="E147" s="7">
         <v>12.275</v>
       </c>
-      <c r="F147" s="8">
+      <c r="F147" s="7">
         <v>11.4</v>
       </c>
-      <c r="G147" s="8">
+      <c r="G147" s="7">
         <v>11.347</v>
       </c>
     </row>
     <row r="148" spans="1:7">
-      <c r="A148" s="8" t="s">
+      <c r="A148" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="B148" s="8" t="s">
+      <c r="B148" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="C148" s="8" t="s">
+      <c r="C148" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="D148" s="8">
+      <c r="D148" s="7">
         <v>170.6</v>
       </c>
-      <c r="E148" s="8">
+      <c r="E148" s="7">
         <v>164.385</v>
       </c>
-      <c r="F148" s="8">
+      <c r="F148" s="7">
         <v>152.602</v>
       </c>
-      <c r="G148" s="8">
+      <c r="G148" s="7">
         <v>147.403</v>
       </c>
     </row>
     <row r="149" spans="1:7">
-      <c r="A149" s="8" t="s">
+      <c r="A149" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="B149" s="8" t="s">
+      <c r="B149" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="C149" s="8" t="s">
+      <c r="C149" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="D149" s="8">
+      <c r="D149" s="7">
         <v>3.55</v>
       </c>
-      <c r="E149" s="8">
+      <c r="E149" s="7">
         <v>3.511</v>
       </c>
-      <c r="F149" s="8">
+      <c r="F149" s="7">
         <v>3.168</v>
       </c>
-      <c r="G149" s="8">
+      <c r="G149" s="7">
         <v>2.996</v>
       </c>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="8" t="s">
+      <c r="A150" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="B150" s="9" t="s">
+      <c r="B150" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="C150" s="8" t="s">
+      <c r="C150" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D150" s="8">
+      <c r="D150" s="7">
         <v>8.07</v>
       </c>
-      <c r="E150" s="8">
+      <c r="E150" s="7">
         <v>7.549</v>
       </c>
-      <c r="F150" s="8">
+      <c r="F150" s="7">
         <v>6.163</v>
       </c>
-      <c r="G150" s="8">
+      <c r="G150" s="7">
         <v>5.65</v>
       </c>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="8" t="s">
+      <c r="A151" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="B151" s="8" t="s">
+      <c r="B151" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="C151" s="8" t="s">
+      <c r="C151" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="D151" s="8">
+      <c r="D151" s="7">
         <v>11.05</v>
       </c>
-      <c r="E151" s="8">
+      <c r="E151" s="7">
         <v>10.904</v>
       </c>
-      <c r="F151" s="8">
+      <c r="F151" s="7">
         <v>8.944</v>
       </c>
-      <c r="G151" s="8">
+      <c r="G151" s="7">
         <v>8.501</v>
       </c>
     </row>
     <row r="152" spans="1:7">
-      <c r="A152" s="8" t="s">
+      <c r="A152" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="B152" s="8" t="s">
+      <c r="B152" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="C152" s="8" t="s">
+      <c r="C152" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D152" s="8">
+      <c r="D152" s="7">
         <v>7.98</v>
       </c>
-      <c r="E152" s="8">
+      <c r="E152" s="7">
         <v>7.933</v>
       </c>
-      <c r="F152" s="8">
+      <c r="F152" s="7">
         <v>7.721</v>
       </c>
-      <c r="G152" s="8">
+      <c r="G152" s="7">
         <v>7.539</v>
       </c>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="8" t="s">
+      <c r="A153" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="B153" s="8" t="s">
+      <c r="B153" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="C153" s="8" t="s">
+      <c r="C153" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D153" s="8">
+      <c r="D153" s="7">
         <v>13.33</v>
       </c>
-      <c r="E153" s="8">
+      <c r="E153" s="7">
         <v>11.578</v>
       </c>
-      <c r="F153" s="8">
+      <c r="F153" s="7">
         <v>10.197</v>
       </c>
-      <c r="G153" s="8">
+      <c r="G153" s="7">
         <v>10.186</v>
       </c>
     </row>
     <row r="154" spans="1:7">
-      <c r="A154" s="8" t="s">
+      <c r="A154" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="B154" s="8" t="s">
+      <c r="B154" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="C154" s="8" t="s">
+      <c r="C154" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="D154" s="8">
+      <c r="D154" s="7">
         <v>12.62</v>
       </c>
-      <c r="E154" s="8">
+      <c r="E154" s="7">
         <v>12.313</v>
       </c>
-      <c r="F154" s="8">
+      <c r="F154" s="7">
         <v>10.489</v>
       </c>
-      <c r="G154" s="8">
+      <c r="G154" s="7">
         <v>10.027</v>
       </c>
     </row>
     <row r="155" spans="1:7">
-      <c r="A155" s="8" t="s">
+      <c r="A155" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="B155" s="8" t="s">
+      <c r="B155" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="C155" s="8" t="s">
+      <c r="C155" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="D155" s="8">
+      <c r="D155" s="7">
         <v>41.2</v>
       </c>
-      <c r="E155" s="8">
+      <c r="E155" s="7">
         <v>38.125</v>
       </c>
-      <c r="F155" s="8">
+      <c r="F155" s="7">
         <v>29.658</v>
       </c>
-      <c r="G155" s="8">
+      <c r="G155" s="7">
         <v>28.965</v>
       </c>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="8" t="s">
+      <c r="A156" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="B156" s="8" t="s">
+      <c r="B156" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="C156" s="8" t="s">
+      <c r="C156" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D156" s="8">
+      <c r="D156" s="7">
         <v>3.53</v>
       </c>
-      <c r="E156" s="8">
+      <c r="E156" s="7">
         <v>3.473</v>
       </c>
-      <c r="F156" s="8">
+      <c r="F156" s="7">
         <v>3.408</v>
       </c>
-      <c r="G156" s="8">
+      <c r="G156" s="7">
         <v>3.34</v>
       </c>
     </row>
     <row r="157" spans="1:7">
-      <c r="A157" s="8" t="s">
+      <c r="A157" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="B157" s="8" t="s">
+      <c r="B157" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="C157" s="8" t="s">
+      <c r="C157" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D157" s="8">
+      <c r="D157" s="7">
         <v>23.12</v>
       </c>
-      <c r="E157" s="8">
+      <c r="E157" s="7">
         <v>20.047</v>
       </c>
-      <c r="F157" s="8">
+      <c r="F157" s="7">
         <v>16.862</v>
       </c>
-      <c r="G157" s="8">
+      <c r="G157" s="7">
         <v>16.31</v>
       </c>
     </row>
     <row r="158" spans="1:7">
-      <c r="A158" s="8" t="s">
+      <c r="A158" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="B158" s="8" t="s">
+      <c r="B158" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="C158" s="8" t="s">
+      <c r="C158" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D158" s="8">
+      <c r="D158" s="7">
         <v>13.16</v>
       </c>
-      <c r="E158" s="8">
+      <c r="E158" s="7">
         <v>9.716</v>
       </c>
-      <c r="F158" s="8">
+      <c r="F158" s="7">
         <v>9.082</v>
       </c>
-      <c r="G158" s="8">
+      <c r="G158" s="7">
         <v>8.963</v>
       </c>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="8" t="s">
+      <c r="A159" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="B159" s="8" t="s">
+      <c r="B159" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="C159" s="8" t="s">
+      <c r="C159" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="D159" s="8">
+      <c r="D159" s="7">
         <v>10.04</v>
       </c>
-      <c r="E159" s="8">
+      <c r="E159" s="7">
         <v>9.714</v>
       </c>
-      <c r="F159" s="8">
+      <c r="F159" s="7">
         <v>9.137</v>
       </c>
-      <c r="G159" s="8">
+      <c r="G159" s="7">
         <v>9.104</v>
       </c>
     </row>
     <row r="160" spans="1:7">
-      <c r="A160" s="8" t="s">
+      <c r="A160" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="B160" s="8" t="s">
+      <c r="B160" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="C160" s="8" t="s">
+      <c r="C160" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="D160" s="8">
+      <c r="D160" s="7">
         <v>5.22</v>
       </c>
-      <c r="E160" s="8">
+      <c r="E160" s="7">
         <v>4.981</v>
       </c>
-      <c r="F160" s="8">
+      <c r="F160" s="7">
         <v>4.589</v>
       </c>
-      <c r="G160" s="8">
+      <c r="G160" s="7">
         <v>4.576</v>
       </c>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="8" t="s">
+      <c r="A161" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="B161" s="8" t="s">
+      <c r="B161" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="C161" s="8" t="s">
+      <c r="C161" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="D161" s="8">
+      <c r="D161" s="7">
         <v>5.75</v>
       </c>
-      <c r="E161" s="8">
+      <c r="E161" s="7">
         <v>5.649</v>
       </c>
-      <c r="F161" s="8">
+      <c r="F161" s="7">
         <v>4.67</v>
       </c>
-      <c r="G161" s="8">
+      <c r="G161" s="7">
         <v>4.571</v>
       </c>
     </row>
     <row r="162" spans="1:7">
-      <c r="A162" s="8" t="s">
+      <c r="A162" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="B162" s="8" t="s">
+      <c r="B162" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="C162" s="8" t="s">
+      <c r="C162" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="D162" s="8">
+      <c r="D162" s="7">
         <v>8.59</v>
       </c>
-      <c r="E162" s="8">
+      <c r="E162" s="7">
         <v>8.423</v>
       </c>
-      <c r="F162" s="8">
+      <c r="F162" s="7">
         <v>8.186</v>
       </c>
-      <c r="G162" s="8">
+      <c r="G162" s="7">
         <v>8.179</v>
       </c>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="8" t="s">
+      <c r="A163" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="B163" s="8" t="s">
+      <c r="B163" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="C163" s="8" t="s">
+      <c r="C163" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D163" s="8">
+      <c r="D163" s="7">
         <v>30.24</v>
       </c>
-      <c r="E163" s="8">
+      <c r="E163" s="7">
         <v>29.597</v>
       </c>
-      <c r="F163" s="8">
+      <c r="F163" s="7">
         <v>23.164</v>
       </c>
-      <c r="G163" s="8">
+      <c r="G163" s="7">
         <v>22.303</v>
       </c>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="8" t="s">
+      <c r="A164" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="B164" s="8" t="s">
+      <c r="B164" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="C164" s="8" t="s">
+      <c r="C164" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="D164" s="8">
+      <c r="D164" s="7">
         <v>25.79</v>
       </c>
-      <c r="E164" s="8">
+      <c r="E164" s="7">
         <v>23.941</v>
       </c>
-      <c r="F164" s="8">
+      <c r="F164" s="7">
         <v>20.295</v>
       </c>
-      <c r="G164" s="8">
+      <c r="G164" s="7">
         <v>19.989</v>
       </c>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="8" t="s">
+      <c r="A165" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="B165" s="8" t="s">
+      <c r="B165" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="C165" s="8" t="s">
+      <c r="C165" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="D165" s="8">
+      <c r="D165" s="7">
         <v>8.72</v>
       </c>
-      <c r="E165" s="8">
+      <c r="E165" s="7">
         <v>8.399</v>
       </c>
-      <c r="F165" s="8">
+      <c r="F165" s="7">
         <v>8.067</v>
       </c>
-      <c r="G165" s="8">
+      <c r="G165" s="7">
         <v>7.746</v>
       </c>
     </row>
     <row r="166" spans="1:7">
-      <c r="A166" s="8" t="s">
+      <c r="A166" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="B166" s="8" t="s">
+      <c r="B166" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="C166" s="8" t="s">
+      <c r="C166" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="D166" s="8">
+      <c r="D166" s="7">
         <v>7.18</v>
       </c>
-      <c r="E166" s="8">
+      <c r="E166" s="7">
         <v>6.875</v>
       </c>
-      <c r="F166" s="8">
+      <c r="F166" s="7">
         <v>6.27</v>
       </c>
-      <c r="G166" s="8">
+      <c r="G166" s="7">
         <v>6.246</v>
       </c>
     </row>
     <row r="167" spans="1:7">
-      <c r="A167" s="8" t="s">
+      <c r="A167" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="B167" s="8" t="s">
+      <c r="B167" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="C167" s="8" t="s">
+      <c r="C167" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D167" s="8">
+      <c r="D167" s="7">
         <v>22.78</v>
       </c>
-      <c r="E167" s="8">
+      <c r="E167" s="7">
         <v>20.026</v>
       </c>
-      <c r="F167" s="8">
+      <c r="F167" s="7">
         <v>17.823</v>
       </c>
-      <c r="G167" s="8">
+      <c r="G167" s="7">
         <v>17.343</v>
       </c>
     </row>
     <row r="168" spans="1:7">
-      <c r="A168" s="8" t="s">
+      <c r="A168" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="B168" s="8" t="s">
+      <c r="B168" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="C168" s="8" t="s">
+      <c r="C168" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="D168" s="8">
+      <c r="D168" s="7">
         <v>4.26</v>
       </c>
-      <c r="E168" s="8">
+      <c r="E168" s="7">
         <v>4.177</v>
       </c>
-      <c r="F168" s="8">
+      <c r="F168" s="7">
         <v>4.168</v>
       </c>
-      <c r="G168" s="8">
+      <c r="G168" s="7">
         <v>4.095</v>
       </c>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="8" t="s">
+      <c r="A169" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="B169" s="8" t="s">
+      <c r="B169" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="C169" s="8" t="s">
+      <c r="C169" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="D169" s="8">
+      <c r="D169" s="7">
         <v>3.94</v>
       </c>
-      <c r="E169" s="8">
+      <c r="E169" s="7">
         <v>3.789</v>
       </c>
-      <c r="F169" s="8">
+      <c r="F169" s="7">
         <v>3.475</v>
       </c>
-      <c r="G169" s="8">
+      <c r="G169" s="7">
         <v>3.429</v>
       </c>
     </row>
     <row r="170" spans="1:7">
-      <c r="A170" s="8" t="s">
+      <c r="A170" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="B170" s="8" t="s">
+      <c r="B170" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="C170" s="8" t="s">
+      <c r="C170" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="D170" s="8">
+      <c r="D170" s="7">
         <v>4.42</v>
       </c>
-      <c r="E170" s="8">
+      <c r="E170" s="7">
         <v>4.335</v>
       </c>
-      <c r="F170" s="8">
+      <c r="F170" s="7">
         <v>3.674</v>
       </c>
-      <c r="G170" s="8">
+      <c r="G170" s="7">
         <v>3.586</v>
       </c>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="8" t="s">
+      <c r="A171" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="B171" s="8" t="s">
+      <c r="B171" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="C171" s="8" t="s">
+      <c r="C171" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="D171" s="8">
+      <c r="D171" s="7">
         <v>26.43</v>
       </c>
-      <c r="E171" s="8">
+      <c r="E171" s="7">
         <v>24.691</v>
       </c>
-      <c r="F171" s="8">
+      <c r="F171" s="7">
         <v>24.135</v>
       </c>
-      <c r="G171" s="8">
+      <c r="G171" s="7">
         <v>22.751</v>
       </c>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="8" t="s">
+      <c r="A172" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="B172" s="8" t="s">
+      <c r="B172" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="C172" s="8" t="s">
+      <c r="C172" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="D172" s="8">
+      <c r="D172" s="7">
         <v>14.49</v>
       </c>
-      <c r="E172" s="8">
+      <c r="E172" s="7">
         <v>12.746</v>
       </c>
-      <c r="F172" s="8">
+      <c r="F172" s="7">
         <v>9.974</v>
       </c>
-      <c r="G172" s="8">
+      <c r="G172" s="7">
         <v>9.927</v>
       </c>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="8" t="s">
+      <c r="A173" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="B173" s="8" t="s">
+      <c r="B173" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="C173" s="8" t="s">
+      <c r="C173" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="D173" s="8">
+      <c r="D173" s="7">
         <v>3.38</v>
       </c>
-      <c r="E173" s="8">
+      <c r="E173" s="7">
         <v>3.157</v>
       </c>
-      <c r="F173" s="8">
+      <c r="F173" s="7">
         <v>2.787</v>
       </c>
-      <c r="G173" s="8">
+      <c r="G173" s="7">
         <v>2.674</v>
       </c>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="8" t="s">
+      <c r="A174" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="B174" s="8" t="s">
+      <c r="B174" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="C174" s="8" t="s">
+      <c r="C174" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="D174" s="8">
+      <c r="D174" s="7">
         <v>3.89</v>
       </c>
-      <c r="E174" s="8">
+      <c r="E174" s="7">
         <v>3.71</v>
       </c>
-      <c r="F174" s="8">
+      <c r="F174" s="7">
         <v>3.706</v>
       </c>
-      <c r="G174" s="8">
+      <c r="G174" s="7">
         <v>3.666</v>
       </c>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="8" t="s">
+      <c r="A175" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="B175" s="8" t="s">
+      <c r="B175" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="C175" s="8" t="s">
+      <c r="C175" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="D175" s="8">
+      <c r="D175" s="7">
         <v>13.41</v>
       </c>
-      <c r="E175" s="8">
+      <c r="E175" s="7">
         <v>12.372</v>
       </c>
-      <c r="F175" s="8">
+      <c r="F175" s="7">
         <v>9.126</v>
       </c>
-      <c r="G175" s="8">
+      <c r="G175" s="7">
         <v>8.041</v>
       </c>
     </row>
     <row r="176" spans="1:7">
-      <c r="A176" s="8" t="s">
+      <c r="A176" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="B176" s="8" t="s">
+      <c r="B176" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="C176" s="8" t="s">
+      <c r="C176" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D176" s="8">
+      <c r="D176" s="7">
         <v>4.09</v>
       </c>
-      <c r="E176" s="8">
+      <c r="E176" s="7">
         <v>4.069</v>
       </c>
-      <c r="F176" s="8">
+      <c r="F176" s="7">
         <v>4.025</v>
       </c>
-      <c r="G176" s="8">
+      <c r="G176" s="7">
         <v>3.97</v>
       </c>
     </row>
     <row r="177" spans="1:7">
-      <c r="A177" s="8" t="s">
+      <c r="A177" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="B177" s="8" t="s">
+      <c r="B177" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="C177" s="8" t="s">
+      <c r="C177" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D177" s="8">
+      <c r="D177" s="7">
         <v>7.68</v>
       </c>
-      <c r="E177" s="8">
+      <c r="E177" s="7">
         <v>7</v>
       </c>
-      <c r="F177" s="8">
+      <c r="F177" s="7">
         <v>5.403</v>
       </c>
-      <c r="G177" s="8">
+      <c r="G177" s="7">
         <v>5.257</v>
       </c>
     </row>
     <row r="178" spans="1:7">
-      <c r="A178" s="8" t="s">
+      <c r="A178" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="B178" s="8" t="s">
+      <c r="B178" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="C178" s="8" t="s">
+      <c r="C178" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="D178" s="8">
+      <c r="D178" s="7">
         <v>8.5</v>
       </c>
-      <c r="E178" s="8">
+      <c r="E178" s="7">
         <v>7.989</v>
       </c>
-      <c r="F178" s="8">
+      <c r="F178" s="7">
         <v>6.403</v>
       </c>
-      <c r="G178" s="8">
+      <c r="G178" s="7">
         <v>6.35</v>
       </c>
     </row>
     <row r="179" spans="1:7">
-      <c r="A179" s="8" t="s">
+      <c r="A179" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="B179" s="8" t="s">
+      <c r="B179" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="C179" s="8" t="s">
+      <c r="C179" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="D179" s="8">
+      <c r="D179" s="7">
         <v>12.77</v>
       </c>
-      <c r="E179" s="8">
+      <c r="E179" s="7">
         <v>11.498</v>
       </c>
-      <c r="F179" s="8">
+      <c r="F179" s="7">
         <v>10.241</v>
       </c>
-      <c r="G179" s="8">
+      <c r="G179" s="7">
         <v>9.943</v>
       </c>
     </row>

--- a/我的创作/财务/证券投资/股票/SEAP交易系统/交易分析/技术面2022-10-21.xlsx
+++ b/我的创作/财务/证券投资/股票/SEAP交易系统/交易分析/技术面2022-10-21.xlsx
@@ -1738,12 +1738,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1785,7 +1785,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1799,8 +1799,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1816,36 +1824,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1875,9 +1853,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1898,23 +1898,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1966,168 +1966,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2140,7 +1978,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2211,36 +2211,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2261,6 +2231,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2291,6 +2276,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2302,142 +2302,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2471,10 +2471,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2486,16 +2486,16 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="4" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="4" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2928,11 +2928,11 @@
   <dimension ref="A1:AO179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="AA113" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="AB130" sqref="AB130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8"/>

--- a/我的创作/财务/证券投资/股票/SEAP交易系统/交易分析/技术面2022-10-21.xlsx
+++ b/我的创作/财务/证券投资/股票/SEAP交易系统/交易分析/技术面2022-10-21.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489">
   <si>
     <t>股票代码</t>
   </si>
@@ -1348,6 +1348,9 @@
     <t>通信-通信设备-通信终端及配件</t>
   </si>
   <si>
+    <t>5w</t>
+  </si>
+  <si>
     <t>002356.SZ</t>
   </si>
   <si>
@@ -1739,11 +1742,11 @@
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1784,10 +1787,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1799,16 +1803,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1830,7 +1826,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1838,10 +1834,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1868,9 +1864,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1898,16 +1893,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1918,6 +1913,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1966,25 +1969,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1996,43 +1993,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2044,25 +2005,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2080,6 +2029,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2092,7 +2053,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2104,13 +2101,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2122,25 +2113,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2221,21 +2224,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2291,6 +2279,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2302,142 +2305,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2447,13 +2450,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2517,6 +2523,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2928,11 +2937,11 @@
   <dimension ref="A1:AO179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="AA113" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="V4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB130" sqref="AB130"/>
+      <selection pane="bottomRight" activeCell="AE19" sqref="AE19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8"/>
@@ -2947,457 +2956,458 @@
     <col min="12" max="12" width="8.35294117647059" style="2"/>
     <col min="13" max="13" width="8.64705882352941" style="2"/>
     <col min="14" max="24" width="7.94117647058824" style="2"/>
+    <col min="27" max="27" width="7.94117647058824" style="3"/>
     <col min="28" max="30" width="7.94117647058824" style="1"/>
-    <col min="31" max="32" width="12.6470588235294" style="3"/>
-    <col min="33" max="33" width="12.6470588235294" style="4"/>
+    <col min="31" max="32" width="12.6470588235294" style="4"/>
+    <col min="33" max="33" width="12.6470588235294" style="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="28" spans="1:41">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="14" t="s">
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="21" t="s">
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21" t="s">
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="23" t="s">
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="AO1" s="24" t="s">
+      <c r="AO1" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:41">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="10" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="15" t="s">
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="15"/>
-      <c r="AI2" s="18" t="s">
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="AJ2" s="18" t="s">
+      <c r="AJ2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="AK2" s="18" t="s">
+      <c r="AK2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="AL2" s="18" t="s">
+      <c r="AL2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AM2" s="18" t="s">
+      <c r="AM2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="24"/>
+      <c r="AN2" s="24"/>
+      <c r="AO2" s="25"/>
     </row>
     <row r="3" ht="41" spans="1:41">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="10" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="Q3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="S3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="T3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="U3" s="10" t="s">
+      <c r="U3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="V3" s="10" t="s">
+      <c r="V3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="W3" s="10" t="s">
+      <c r="W3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="X3" s="10" t="s">
+      <c r="X3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="Y3" s="17" t="s">
+      <c r="Y3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="Z3" s="17" t="s">
+      <c r="Z3" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="AA3" s="18" t="s">
+      <c r="AA3" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AB3" s="12" t="s">
+      <c r="AB3" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AC3" s="12" t="s">
+      <c r="AC3" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="AD3" s="12" t="s">
+      <c r="AD3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="AE3" s="12" t="s">
+      <c r="AE3" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="AF3" s="12" t="s">
+      <c r="AF3" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="AG3" s="12" t="s">
+      <c r="AG3" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AH3" s="22" t="s">
+      <c r="AH3" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="AI3" s="18"/>
-      <c r="AJ3" s="18"/>
-      <c r="AK3" s="18"/>
-      <c r="AL3" s="18"/>
-      <c r="AM3" s="18"/>
-      <c r="AN3" s="23"/>
-      <c r="AO3" s="24"/>
+      <c r="AI3" s="19"/>
+      <c r="AJ3" s="19"/>
+      <c r="AK3" s="19"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="19"/>
+      <c r="AN3" s="24"/>
+      <c r="AO3" s="25"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="8">
         <v>5.02</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="8">
         <v>4.912</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="8">
         <v>4.509</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="8">
         <v>4.442</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="8">
         <v>5.9</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="8">
         <v>5.671</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="8">
         <v>5.558</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="8">
         <v>5.512</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="8">
         <v>26.69</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="8">
         <v>24.434</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="8">
         <v>16.438</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="8">
         <v>15.069</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="8">
         <v>10.55</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="8">
         <v>5.573</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="8">
         <v>5.399</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="8">
         <v>5.208</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="8">
         <v>44.07</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="8">
         <v>36.654</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="8">
         <v>21.942</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="8">
         <v>19.52</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="8">
         <v>9.79</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="8">
         <v>8.663</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="8">
         <v>7.36</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="8">
         <v>7.047</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="8">
         <v>2.53</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="8">
         <v>2.289</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="8">
         <v>2.117</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="8">
         <v>2.079</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="8">
         <v>11.55</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="8">
         <v>6.179</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="8">
         <v>5.77</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="8">
         <v>5.634</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="8">
         <v>12.89</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="8">
         <v>9.188</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="8">
         <v>8.711</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="8">
         <v>8.681</v>
       </c>
     </row>
     <row r="13" spans="1:30">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="8">
         <v>82.51</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="8">
         <v>77.761</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="8">
         <v>66.404</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="8">
         <v>62.741</v>
       </c>
       <c r="H13" s="2">
@@ -3409,143 +3419,143 @@
       <c r="J13" s="2">
         <v>55.68</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="14">
         <f>(D13-H13)/H13</f>
         <v>1.12654639175258</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="14">
         <f>(I13-D13)/I13</f>
         <v>0.067683615819209</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="14">
         <f>(I13-J13)/J13</f>
         <v>0.589439655172414</v>
       </c>
-      <c r="O13" s="16" t="s">
+      <c r="O13" s="17" t="s">
         <v>75</v>
       </c>
       <c r="P13" s="2">
         <v>68</v>
       </c>
-      <c r="AB13" s="19">
+      <c r="AB13" s="20">
         <f>(I13-P13)/I13</f>
         <v>0.231638418079096</v>
       </c>
-      <c r="AC13" s="20"/>
-      <c r="AD13" s="20"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="8">
         <v>24.79</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="8">
         <v>23.798</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="8">
         <v>20.692</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="8">
         <v>19.614</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="8">
         <v>11.87</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="8">
         <v>11.737</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="8">
         <v>11.213</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="8">
         <v>10.654</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="8">
         <v>9.88</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="8">
         <v>9.831</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="8">
         <v>8.207</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="8">
         <v>8.188</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="8">
         <v>15.95</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="8">
         <v>12.47</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="8">
         <v>10.739</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="8">
         <v>10.421</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:33">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="8">
         <v>20.77</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="8">
         <v>18.072</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="8">
         <v>14.826</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="8">
         <v>14.75</v>
       </c>
       <c r="H18" s="2">
@@ -3557,15 +3567,15 @@
       <c r="J18" s="2">
         <v>11.34</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="14">
         <f>(D18-H18)/H18</f>
         <v>1.25027085590466</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="14">
         <f>(I18-D18)/I18</f>
         <v>-0.111884368308351</v>
       </c>
-      <c r="M18" s="13">
+      <c r="M18" s="14">
         <f>(I18-J18)/J18</f>
         <v>0.647266313932981</v>
       </c>
@@ -3604,281 +3614,329 @@
       <c r="Z18" s="1">
         <v>19.23</v>
       </c>
-      <c r="AB18" s="19">
+      <c r="AB18" s="20">
         <f>(I18-P18)/I18</f>
         <v>0.185224839400428</v>
       </c>
-      <c r="AC18" s="20">
+      <c r="AC18" s="21">
         <f>(Q18-R18)/Q18</f>
         <v>0.12819089900111</v>
       </c>
-      <c r="AD18" s="20">
+      <c r="AD18" s="21">
         <f>(S18-T18)/S18</f>
         <v>0.153923541247485</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AE18" s="4">
         <f>(U18-V18)/U18</f>
         <v>0.109623015873016</v>
       </c>
-      <c r="AF18" s="3">
+      <c r="AF18" s="4">
         <f>(W18-X18)/W18</f>
         <v>0.0679133858267716</v>
       </c>
-      <c r="AG18" s="3">
+      <c r="AG18" s="4">
         <f>(Y18-Z18)/Y18</f>
         <v>0.0754807692307692</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:30">
+      <c r="A19" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="8">
         <v>89.08</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="8">
         <v>78.363</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="8">
         <v>69.182</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="8">
         <v>62.819</v>
       </c>
+      <c r="H19" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="I19" s="2">
+        <v>90.2</v>
+      </c>
+      <c r="J19" s="2">
+        <v>62.1</v>
+      </c>
+      <c r="K19" s="14">
+        <f>(D19-H19)/H19</f>
+        <v>1.58202898550725</v>
+      </c>
+      <c r="L19" s="14">
+        <f>(I19-D19)/I19</f>
+        <v>0.0124168514412417</v>
+      </c>
+      <c r="M19" s="14">
+        <f>(I19-J19)/J19</f>
+        <v>0.452495974235105</v>
+      </c>
+      <c r="P19" s="2">
+        <v>70.55</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>78.88</v>
+      </c>
+      <c r="R19" s="2">
+        <v>70.73</v>
+      </c>
+      <c r="S19" s="2">
+        <v>84.62</v>
+      </c>
+      <c r="T19" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB19" s="20">
+        <f>(I19-P19)/I19</f>
+        <v>0.217849223946785</v>
+      </c>
+      <c r="AC19" s="21">
+        <f>(Q19-R19)/Q19</f>
+        <v>0.103321501014199</v>
+      </c>
+      <c r="AD19" s="21">
+        <f>(S19-T19)/S19</f>
+        <v>0.113684708106831</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="8">
         <v>6.4</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="8">
         <v>5.908</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="8">
         <v>4.445</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="8">
         <v>4.395</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="8">
         <v>16.96</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="8">
         <v>14.997</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="8">
         <v>13.684</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="8">
         <v>13.645</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="8">
         <v>12.01</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="8">
         <v>10.818</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="8">
         <v>7.82</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="8">
         <v>7.676</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="8">
         <v>22.75</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="8">
         <v>18.133</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="8">
         <v>16.394</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="8">
         <v>15.927</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="8">
         <v>6.19</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="8">
         <v>5.79</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="8">
         <v>4.962</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="8">
         <v>4.799</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="8">
         <v>10.8</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="8">
         <v>9.259</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="8">
         <v>7.721</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="8">
         <v>7.261</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="8">
         <v>4.75</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="8">
         <v>4.288</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="8">
         <v>3.644</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="8">
         <v>3.444</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="8">
         <v>6.06</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="8">
         <v>4.382</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="8">
         <v>3.399</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="8">
         <v>3.055</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="8">
         <v>28.62</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="8">
         <v>27.22</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="8">
         <v>26.754</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="8">
         <v>26.239</v>
       </c>
     </row>
     <row r="29" spans="1:29">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="8">
         <v>45.96</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="8">
         <v>41.032</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="8">
         <v>32.34</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="8">
         <v>31.994</v>
       </c>
       <c r="H29" s="2">
@@ -3890,15 +3948,15 @@
       <c r="J29" s="2">
         <v>29.61</v>
       </c>
-      <c r="K29" s="13">
+      <c r="K29" s="14">
         <f t="shared" ref="K29:K33" si="0">(D29-H29)/H29</f>
         <v>1.23106796116505</v>
       </c>
-      <c r="L29" s="13">
+      <c r="L29" s="14">
         <f t="shared" ref="L29:L33" si="1">(I29-D29)/I29</f>
         <v>0.0448877805486284</v>
       </c>
-      <c r="M29" s="13">
+      <c r="M29" s="14">
         <f t="shared" ref="M29:M33" si="2">(I29-J29)/J29</f>
         <v>0.625126646403242</v>
       </c>
@@ -3911,35 +3969,35 @@
       <c r="R29" s="2">
         <v>42.01</v>
       </c>
-      <c r="AB29" s="19">
+      <c r="AB29" s="20">
         <f t="shared" ref="AB29:AB33" si="3">(I29-P29)/I29</f>
         <v>0.168536990856193</v>
       </c>
-      <c r="AC29" s="20">
+      <c r="AC29" s="21">
         <f>(Q29-R29)/Q29</f>
         <v>0.105027694929697</v>
       </c>
     </row>
     <row r="30" spans="1:28">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="8">
         <v>12.97</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="8">
         <v>12.787</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="8">
         <v>10.36</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="8">
         <v>10.079</v>
       </c>
       <c r="H30" s="2">
@@ -3951,92 +4009,92 @@
       <c r="J30" s="2">
         <v>8.62</v>
       </c>
-      <c r="K30" s="13">
+      <c r="K30" s="14">
         <f t="shared" si="0"/>
         <v>0.974124809741248</v>
       </c>
-      <c r="L30" s="13">
+      <c r="L30" s="14">
         <f t="shared" si="1"/>
         <v>0.286186020913594</v>
       </c>
-      <c r="M30" s="13">
+      <c r="M30" s="14">
         <f t="shared" si="2"/>
         <v>1.10788863109049</v>
       </c>
       <c r="P30" s="2">
         <v>9.88</v>
       </c>
-      <c r="AB30" s="19">
+      <c r="AB30" s="20">
         <f t="shared" si="3"/>
         <v>0.456246560264172</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="8">
         <v>31.33</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="8">
         <v>25.983</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="8">
         <v>22.802</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="8">
         <v>22.263</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="8">
         <v>8.43</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="8">
         <v>7.281</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="8">
         <v>3.835</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="8">
         <v>3.387</v>
       </c>
     </row>
     <row r="33" spans="1:28">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="8">
         <v>8.54</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="8">
         <v>8.504</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="8">
         <v>7.357</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="8">
         <v>7.158</v>
       </c>
       <c r="H33" s="2">
@@ -4048,322 +4106,322 @@
       <c r="J33" s="2">
         <v>5.27</v>
       </c>
-      <c r="K33" s="13">
+      <c r="K33" s="14">
         <f t="shared" si="0"/>
         <v>0.967741935483871</v>
       </c>
-      <c r="L33" s="13">
+      <c r="L33" s="14">
         <f t="shared" si="1"/>
         <v>0.183556405353729</v>
       </c>
-      <c r="M33" s="13">
+      <c r="M33" s="14">
         <f t="shared" si="2"/>
         <v>0.984819734345351</v>
       </c>
       <c r="P33" s="2">
         <v>7.04</v>
       </c>
-      <c r="AB33" s="19">
+      <c r="AB33" s="20">
         <f t="shared" si="3"/>
         <v>0.326959847036329</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="8">
         <v>10.4</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="8">
         <v>8.694</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="8">
         <v>6.913</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="8">
         <v>6.477</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="8">
         <v>15.24</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="8">
         <v>13.52</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="8">
         <v>13.008</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="8">
         <v>12.94</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="8">
         <v>31.57</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="8">
         <v>29.929</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="8">
         <v>29.134</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="8">
         <v>28.232</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="8">
         <v>10.98</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="8">
         <v>10.146</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="8">
         <v>8.5</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="8">
         <v>7.762</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="8">
         <v>5.7</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="8">
         <v>5.661</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="8">
         <v>5.181</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G38" s="8">
         <v>5.06</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="8">
         <v>12.47</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="8">
         <v>12.343</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="8">
         <v>9.218</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="8">
         <v>8.675</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="8">
         <v>10.75</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="8">
         <v>10.226</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="8">
         <v>9.875</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="8">
         <v>9.846</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="8">
         <v>5.11</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="8">
         <v>5.046</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="8">
         <v>4.781</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="8">
         <v>4.582</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="8">
         <v>62.59</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="8">
         <v>60.392</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="8">
         <v>43.697</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G42" s="8">
         <v>40.956</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="8">
         <v>15.2</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="8">
         <v>13.648</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="8">
         <v>12.957</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="8">
         <v>12.855</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="8">
         <v>3.49</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="8">
         <v>3.291</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="8">
         <v>3.023</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G44" s="8">
         <v>3.007</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="8">
         <v>188.92</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="8">
         <v>185.298</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="8">
         <v>123.921</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G45" s="8">
         <v>109.732</v>
       </c>
     </row>
     <row r="46" spans="1:28">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="8">
         <v>20.27</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="8">
         <v>19.862</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="8">
         <v>15.287</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G46" s="8">
         <v>14.28</v>
       </c>
       <c r="I46" s="2">
@@ -4372,100 +4430,100 @@
       <c r="P46" s="2">
         <v>17.23</v>
       </c>
-      <c r="AB46" s="19">
+      <c r="AB46" s="20">
         <f>(I46-P46)/I46</f>
         <v>0.278475711892797</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="8">
         <v>10.83</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="8">
         <v>10.063</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="8">
         <v>9.87</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="8">
         <v>9.861</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="8">
         <v>23.3</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="8">
         <v>18.922</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48" s="8">
         <v>16.435</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G48" s="8">
         <v>16.36</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="8">
         <v>5.43</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="8">
         <v>5.029</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49" s="8">
         <v>4.839</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G49" s="8">
         <v>4.797</v>
       </c>
     </row>
     <row r="50" spans="1:30">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50" s="8">
         <v>52.8</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50" s="8">
         <v>43.007</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50" s="8">
         <v>29.901</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G50" s="8">
         <v>28.266</v>
       </c>
       <c r="H50" s="2">
@@ -4477,19 +4535,19 @@
       <c r="J50" s="2">
         <v>30.65</v>
       </c>
-      <c r="K50" s="13">
+      <c r="K50" s="14">
         <f>(D50-H50)/H50</f>
         <v>3.19380460683082</v>
       </c>
-      <c r="L50" s="13">
+      <c r="L50" s="14">
         <f>(I50-D50)/I50</f>
         <v>-0.0416255671730124</v>
       </c>
-      <c r="M50" s="13">
+      <c r="M50" s="14">
         <f>(I50-J50)/J50</f>
         <v>0.653833605220228</v>
       </c>
-      <c r="O50" s="16" t="s">
+      <c r="O50" s="17" t="s">
         <v>75</v>
       </c>
       <c r="P50" s="2">
@@ -4507,246 +4565,246 @@
       <c r="T50" s="2">
         <v>50.66</v>
       </c>
-      <c r="AB50" s="19">
+      <c r="AB50" s="20">
         <f>(I50-P50)/I50</f>
         <v>0.26987571513119</v>
       </c>
-      <c r="AC50" s="20">
+      <c r="AC50" s="21">
         <f>(Q50-R50)/Q50</f>
         <v>0.142091684858107</v>
       </c>
-      <c r="AD50" s="20">
+      <c r="AD50" s="21">
         <f>(S50-T50)/S50</f>
         <v>0.0847335140018068</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51" s="8">
         <v>6.59</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51" s="8">
         <v>6.465</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F51" s="8">
         <v>6.256</v>
       </c>
-      <c r="G51" s="7">
+      <c r="G51" s="8">
         <v>6.063</v>
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D52" s="8">
         <v>9.23</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="8">
         <v>8.565</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F52" s="8">
         <v>7.005</v>
       </c>
-      <c r="G52" s="7">
+      <c r="G52" s="8">
         <v>6.902</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53" s="8">
         <v>27.3</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53" s="8">
         <v>25.75</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53" s="8">
         <v>23.158</v>
       </c>
-      <c r="G53" s="7">
+      <c r="G53" s="8">
         <v>22.475</v>
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D54" s="8">
         <v>8.4</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54" s="8">
         <v>8.239</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F54" s="8">
         <v>7.551</v>
       </c>
-      <c r="G54" s="7">
+      <c r="G54" s="8">
         <v>7.433</v>
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55" s="8">
         <v>6.58</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="8">
         <v>6.094</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F55" s="8">
         <v>5.362</v>
       </c>
-      <c r="G55" s="7">
+      <c r="G55" s="8">
         <v>5.318</v>
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D56" s="8">
         <v>48.86</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56" s="8">
         <v>41.785</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F56" s="8">
         <v>39.583</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G56" s="8">
         <v>37.671</v>
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D57" s="8">
         <v>63</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E57" s="8">
         <v>54.972</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F57" s="8">
         <v>46.126</v>
       </c>
-      <c r="G57" s="7">
+      <c r="G57" s="8">
         <v>41.986</v>
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D58" s="8">
         <v>22.16</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58" s="8">
         <v>18.345</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F58" s="8">
         <v>15.617</v>
       </c>
-      <c r="G58" s="7">
+      <c r="G58" s="8">
         <v>15.484</v>
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D59" s="8">
         <v>18.18</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E59" s="8">
         <v>17.394</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59" s="8">
         <v>14.905</v>
       </c>
-      <c r="G59" s="7">
+      <c r="G59" s="8">
         <v>14.694</v>
       </c>
     </row>
     <row r="60" spans="1:30">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D60" s="8">
         <v>14.17</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="8">
         <v>12.888</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F60" s="8">
         <v>8.888</v>
       </c>
-      <c r="G60" s="7">
+      <c r="G60" s="8">
         <v>7.854</v>
       </c>
       <c r="H60" s="2">
@@ -4758,19 +4816,19 @@
       <c r="J60" s="2">
         <v>4.81</v>
       </c>
-      <c r="K60" s="13">
+      <c r="K60" s="14">
         <f>(D60-H60)/H60</f>
         <v>3.37345679012346</v>
       </c>
-      <c r="L60" s="13">
+      <c r="L60" s="14">
         <f>(I60-D60)/I60</f>
         <v>0.233639805300162</v>
       </c>
-      <c r="M60" s="13">
+      <c r="M60" s="14">
         <f>(I60-J60)/J60</f>
         <v>2.84407484407484</v>
       </c>
-      <c r="O60" s="16" t="s">
+      <c r="O60" s="17" t="s">
         <v>200</v>
       </c>
       <c r="P60" s="2">
@@ -4788,154 +4846,154 @@
       <c r="T60" s="2">
         <v>13.3</v>
       </c>
-      <c r="AB60" s="19">
+      <c r="AB60" s="20">
         <f>(I60-P60)/I60</f>
         <v>0.454299621416982</v>
       </c>
-      <c r="AC60" s="20">
+      <c r="AC60" s="21">
         <f>(Q60-R60)/Q60</f>
         <v>0.170798898071625</v>
       </c>
-      <c r="AD60" s="20">
+      <c r="AD60" s="21">
         <f>(S60-T60)/S60</f>
         <v>0.18951858622791</v>
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D61" s="8">
         <v>11.1</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E61" s="8">
         <v>10.704</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F61" s="8">
         <v>8.763</v>
       </c>
-      <c r="G61" s="7">
+      <c r="G61" s="8">
         <v>8.474</v>
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D62" s="8">
         <v>15.84</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E62" s="8">
         <v>15.335</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F62" s="8">
         <v>13.825</v>
       </c>
-      <c r="G62" s="7">
+      <c r="G62" s="8">
         <v>13.474</v>
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="D63" s="7">
+      <c r="D63" s="8">
         <v>24.7</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E63" s="8">
         <v>23.598</v>
       </c>
-      <c r="F63" s="7">
+      <c r="F63" s="8">
         <v>17.487</v>
       </c>
-      <c r="G63" s="7">
+      <c r="G63" s="8">
         <v>17.162</v>
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D64" s="8">
         <v>39.89</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E64" s="8">
         <v>37.266</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F64" s="8">
         <v>32.743</v>
       </c>
-      <c r="G64" s="7">
+      <c r="G64" s="8">
         <v>31.679</v>
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="D65" s="7">
+      <c r="D65" s="8">
         <v>11.48</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E65" s="8">
         <v>11.467</v>
       </c>
-      <c r="F65" s="7">
+      <c r="F65" s="8">
         <v>11.157</v>
       </c>
-      <c r="G65" s="7">
+      <c r="G65" s="8">
         <v>11.15</v>
       </c>
     </row>
     <row r="66" spans="1:30">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D66" s="8">
         <v>9.46</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E66" s="8">
         <v>9.024</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F66" s="8">
         <v>8.182</v>
       </c>
-      <c r="G66" s="7">
+      <c r="G66" s="8">
         <v>8.14</v>
       </c>
       <c r="H66" s="2">
@@ -4947,19 +5005,19 @@
       <c r="J66" s="2">
         <v>6.82</v>
       </c>
-      <c r="K66" s="13">
+      <c r="K66" s="14">
         <f>(D66-H66)/H66</f>
         <v>0.525806451612903</v>
       </c>
-      <c r="L66" s="13">
+      <c r="L66" s="14">
         <f>(I66-D66)/I66</f>
         <v>0.0558882235528941</v>
       </c>
-      <c r="M66" s="13">
+      <c r="M66" s="14">
         <f>(I66-J66)/J66</f>
         <v>0.469208211143695</v>
       </c>
-      <c r="O66" s="16" t="s">
+      <c r="O66" s="17" t="s">
         <v>200</v>
       </c>
       <c r="P66" s="2">
@@ -4977,1212 +5035,1212 @@
       <c r="T66" s="2">
         <v>9.11</v>
       </c>
-      <c r="AB66" s="19">
+      <c r="AB66" s="20">
         <f>(I66-P66)/I66</f>
         <v>0.203592814371257</v>
       </c>
-      <c r="AC66" s="20">
+      <c r="AC66" s="21">
         <f>(Q66-R66)/Q66</f>
         <v>0.117352056168505</v>
       </c>
-      <c r="AD66" s="20">
+      <c r="AD66" s="21">
         <f>(S66-T66)/S66</f>
         <v>0.0779352226720649</v>
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D67" s="8">
         <v>3.99</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E67" s="8">
         <v>3.692</v>
       </c>
-      <c r="F67" s="7">
+      <c r="F67" s="8">
         <v>3.626</v>
       </c>
-      <c r="G67" s="7">
+      <c r="G67" s="8">
         <v>3.551</v>
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D68" s="8">
         <v>14.48</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E68" s="8">
         <v>13.054</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F68" s="8">
         <v>12.44</v>
       </c>
-      <c r="G68" s="7">
+      <c r="G68" s="8">
         <v>11.582</v>
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="D69" s="7">
+      <c r="D69" s="8">
         <v>19.95</v>
       </c>
-      <c r="E69" s="7">
+      <c r="E69" s="8">
         <v>17.29</v>
       </c>
-      <c r="F69" s="7">
+      <c r="F69" s="8">
         <v>16.064</v>
       </c>
-      <c r="G69" s="7">
+      <c r="G69" s="8">
         <v>15.975</v>
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="7" t="s">
+      <c r="A70" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D70" s="7">
+      <c r="D70" s="8">
         <v>17.63</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E70" s="8">
         <v>15.331</v>
       </c>
-      <c r="F70" s="7">
+      <c r="F70" s="8">
         <v>14.494</v>
       </c>
-      <c r="G70" s="7">
+      <c r="G70" s="8">
         <v>13.496</v>
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D71" s="7">
+      <c r="D71" s="8">
         <v>25.55</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E71" s="8">
         <v>22.117</v>
       </c>
-      <c r="F71" s="7">
+      <c r="F71" s="8">
         <v>19.337</v>
       </c>
-      <c r="G71" s="7">
+      <c r="G71" s="8">
         <v>19.007</v>
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="D72" s="7">
+      <c r="D72" s="8">
         <v>4.34</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E72" s="8">
         <v>4.167</v>
       </c>
-      <c r="F72" s="7">
+      <c r="F72" s="8">
         <v>3.97</v>
       </c>
-      <c r="G72" s="7">
+      <c r="G72" s="8">
         <v>3.938</v>
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="D73" s="7">
+      <c r="D73" s="8">
         <v>14.01</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E73" s="8">
         <v>13.643</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F73" s="8">
         <v>12.999</v>
       </c>
-      <c r="G73" s="7">
+      <c r="G73" s="8">
         <v>12.974</v>
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D74" s="8">
         <v>20.76</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E74" s="8">
         <v>19.562</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F74" s="8">
         <v>16.929</v>
       </c>
-      <c r="G74" s="7">
+      <c r="G74" s="8">
         <v>16.68</v>
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="7" t="s">
+      <c r="A75" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D75" s="7">
+      <c r="D75" s="8">
         <v>20.08</v>
       </c>
-      <c r="E75" s="7">
+      <c r="E75" s="8">
         <v>16.319</v>
       </c>
-      <c r="F75" s="7">
+      <c r="F75" s="8">
         <v>11.371</v>
       </c>
-      <c r="G75" s="7">
+      <c r="G75" s="8">
         <v>10.008</v>
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D76" s="7">
+      <c r="D76" s="8">
         <v>13.19</v>
       </c>
-      <c r="E76" s="7">
+      <c r="E76" s="8">
         <v>11.889</v>
       </c>
-      <c r="F76" s="7">
+      <c r="F76" s="8">
         <v>10.439</v>
       </c>
-      <c r="G76" s="7">
+      <c r="G76" s="8">
         <v>10.149</v>
       </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="7" t="s">
+      <c r="A77" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="D77" s="7">
+      <c r="D77" s="8">
         <v>14.32</v>
       </c>
-      <c r="E77" s="7">
+      <c r="E77" s="8">
         <v>13.909</v>
       </c>
-      <c r="F77" s="7">
+      <c r="F77" s="8">
         <v>11.364</v>
       </c>
-      <c r="G77" s="7">
+      <c r="G77" s="8">
         <v>11.093</v>
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="7" t="s">
+      <c r="A78" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D78" s="7">
+      <c r="D78" s="8">
         <v>7.6</v>
       </c>
-      <c r="E78" s="7">
+      <c r="E78" s="8">
         <v>6.587</v>
       </c>
-      <c r="F78" s="7">
+      <c r="F78" s="8">
         <v>5.607</v>
       </c>
-      <c r="G78" s="7">
+      <c r="G78" s="8">
         <v>5.547</v>
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="7" t="s">
+      <c r="A79" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="D79" s="7">
+      <c r="D79" s="8">
         <v>4.62</v>
       </c>
-      <c r="E79" s="7">
+      <c r="E79" s="8">
         <v>4.502</v>
       </c>
-      <c r="F79" s="7">
+      <c r="F79" s="8">
         <v>4.462</v>
       </c>
-      <c r="G79" s="7">
+      <c r="G79" s="8">
         <v>4.443</v>
       </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="7" t="s">
+      <c r="A80" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C80" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D80" s="7">
+      <c r="D80" s="8">
         <v>15.54</v>
       </c>
-      <c r="E80" s="7">
+      <c r="E80" s="8">
         <v>15.016</v>
       </c>
-      <c r="F80" s="7">
+      <c r="F80" s="8">
         <v>14.32</v>
       </c>
-      <c r="G80" s="7">
+      <c r="G80" s="8">
         <v>13.636</v>
       </c>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="7" t="s">
+      <c r="A81" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D81" s="7">
+      <c r="D81" s="8">
         <v>22.09</v>
       </c>
-      <c r="E81" s="7">
+      <c r="E81" s="8">
         <v>20.41</v>
       </c>
-      <c r="F81" s="7">
+      <c r="F81" s="8">
         <v>15.272</v>
       </c>
-      <c r="G81" s="7">
+      <c r="G81" s="8">
         <v>14.775</v>
       </c>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="7" t="s">
+      <c r="A82" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C82" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D82" s="8">
         <v>30.82</v>
       </c>
-      <c r="E82" s="7">
+      <c r="E82" s="8">
         <v>30.815</v>
       </c>
-      <c r="F82" s="7">
+      <c r="F82" s="8">
         <v>29.201</v>
       </c>
-      <c r="G82" s="7">
+      <c r="G82" s="8">
         <v>27.31</v>
       </c>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="7" t="s">
+      <c r="A83" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C83" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D83" s="7">
+      <c r="D83" s="8">
         <v>6.86</v>
       </c>
-      <c r="E83" s="7">
+      <c r="E83" s="8">
         <v>6.76</v>
       </c>
-      <c r="F83" s="7">
+      <c r="F83" s="8">
         <v>6.255</v>
       </c>
-      <c r="G83" s="7">
+      <c r="G83" s="8">
         <v>6.219</v>
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="7" t="s">
+      <c r="A84" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D84" s="7">
+      <c r="D84" s="8">
         <v>51.31</v>
       </c>
-      <c r="E84" s="7">
+      <c r="E84" s="8">
         <v>46.924</v>
       </c>
-      <c r="F84" s="7">
+      <c r="F84" s="8">
         <v>45.644</v>
       </c>
-      <c r="G84" s="7">
+      <c r="G84" s="8">
         <v>45.465</v>
       </c>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="7" t="s">
+      <c r="A85" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="D85" s="7">
+      <c r="D85" s="8">
         <v>41.37</v>
       </c>
-      <c r="E85" s="7">
+      <c r="E85" s="8">
         <v>40.281</v>
       </c>
-      <c r="F85" s="7">
+      <c r="F85" s="8">
         <v>38.532</v>
       </c>
-      <c r="G85" s="7">
+      <c r="G85" s="8">
         <v>38.423</v>
       </c>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="7" t="s">
+      <c r="A86" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C86" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D86" s="7">
+      <c r="D86" s="8">
         <v>17.54</v>
       </c>
-      <c r="E86" s="7">
+      <c r="E86" s="8">
         <v>16.566</v>
       </c>
-      <c r="F86" s="7">
+      <c r="F86" s="8">
         <v>14.695</v>
       </c>
-      <c r="G86" s="7">
+      <c r="G86" s="8">
         <v>14.236</v>
       </c>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="7" t="s">
+      <c r="A87" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C87" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="D87" s="7">
+      <c r="D87" s="8">
         <v>6.86</v>
       </c>
-      <c r="E87" s="7">
+      <c r="E87" s="8">
         <v>6.549</v>
       </c>
-      <c r="F87" s="7">
+      <c r="F87" s="8">
         <v>6.298</v>
       </c>
-      <c r="G87" s="7">
+      <c r="G87" s="8">
         <v>6.276</v>
       </c>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="7" t="s">
+      <c r="A88" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="D88" s="7">
+      <c r="D88" s="8">
         <v>22</v>
       </c>
-      <c r="E88" s="7">
+      <c r="E88" s="8">
         <v>21.106</v>
       </c>
-      <c r="F88" s="7">
+      <c r="F88" s="8">
         <v>18.731</v>
       </c>
-      <c r="G88" s="7">
+      <c r="G88" s="8">
         <v>18.215</v>
       </c>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="7" t="s">
+      <c r="A89" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C89" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="D89" s="7">
+      <c r="D89" s="8">
         <v>15.29</v>
       </c>
-      <c r="E89" s="7">
+      <c r="E89" s="8">
         <v>14.931</v>
       </c>
-      <c r="F89" s="7">
+      <c r="F89" s="8">
         <v>13.73</v>
       </c>
-      <c r="G89" s="7">
+      <c r="G89" s="8">
         <v>13.597</v>
       </c>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="7" t="s">
+      <c r="A90" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C90" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D90" s="7">
+      <c r="D90" s="8">
         <v>4.08</v>
       </c>
-      <c r="E90" s="7">
+      <c r="E90" s="8">
         <v>3.8</v>
       </c>
-      <c r="F90" s="7">
+      <c r="F90" s="8">
         <v>3.683</v>
       </c>
-      <c r="G90" s="7">
+      <c r="G90" s="8">
         <v>3.561</v>
       </c>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="7" t="s">
+      <c r="A91" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C91" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="D91" s="7">
+      <c r="D91" s="8">
         <v>5.16</v>
       </c>
-      <c r="E91" s="7">
+      <c r="E91" s="8">
         <v>4.926</v>
       </c>
-      <c r="F91" s="7">
+      <c r="F91" s="8">
         <v>4.872</v>
       </c>
-      <c r="G91" s="7">
+      <c r="G91" s="8">
         <v>4.807</v>
       </c>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="7" t="s">
+      <c r="A92" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C92" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D92" s="7">
+      <c r="D92" s="8">
         <v>11.44</v>
       </c>
-      <c r="E92" s="7">
+      <c r="E92" s="8">
         <v>10.608</v>
       </c>
-      <c r="F92" s="7">
+      <c r="F92" s="8">
         <v>10.267</v>
       </c>
-      <c r="G92" s="7">
+      <c r="G92" s="8">
         <v>10.229</v>
       </c>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="7" t="s">
+      <c r="A93" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C93" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="D93" s="7">
+      <c r="D93" s="8">
         <v>8.6</v>
       </c>
-      <c r="E93" s="7">
+      <c r="E93" s="8">
         <v>7.981</v>
       </c>
-      <c r="F93" s="7">
+      <c r="F93" s="8">
         <v>7.948</v>
       </c>
-      <c r="G93" s="7">
+      <c r="G93" s="8">
         <v>7.857</v>
       </c>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="7" t="s">
+      <c r="A94" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C94" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D94" s="7">
+      <c r="D94" s="8">
         <v>14.01</v>
       </c>
-      <c r="E94" s="7">
+      <c r="E94" s="8">
         <v>12.117</v>
       </c>
-      <c r="F94" s="7">
+      <c r="F94" s="8">
         <v>10.677</v>
       </c>
-      <c r="G94" s="7">
+      <c r="G94" s="8">
         <v>10.241</v>
       </c>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="7" t="s">
+      <c r="A95" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C95" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D95" s="7">
+      <c r="D95" s="8">
         <v>10.15</v>
       </c>
-      <c r="E95" s="7">
+      <c r="E95" s="8">
         <v>8.98</v>
       </c>
-      <c r="F95" s="7">
+      <c r="F95" s="8">
         <v>8.589</v>
       </c>
-      <c r="G95" s="7">
+      <c r="G95" s="8">
         <v>8.416</v>
       </c>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="7" t="s">
+      <c r="A96" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B96" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C96" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D96" s="7">
+      <c r="D96" s="8">
         <v>5.64</v>
       </c>
-      <c r="E96" s="7">
+      <c r="E96" s="8">
         <v>5.512</v>
       </c>
-      <c r="F96" s="7">
+      <c r="F96" s="8">
         <v>4.487</v>
       </c>
-      <c r="G96" s="7">
+      <c r="G96" s="8">
         <v>4.214</v>
       </c>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="7" t="s">
+      <c r="A97" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C97" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="D97" s="7">
+      <c r="D97" s="8">
         <v>5.75</v>
       </c>
-      <c r="E97" s="7">
+      <c r="E97" s="8">
         <v>5.387</v>
       </c>
-      <c r="F97" s="7">
+      <c r="F97" s="8">
         <v>5.263</v>
       </c>
-      <c r="G97" s="7">
+      <c r="G97" s="8">
         <v>5.197</v>
       </c>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="7" t="s">
+      <c r="A98" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B98" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="C98" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="D98" s="7">
+      <c r="D98" s="8">
         <v>6</v>
       </c>
-      <c r="E98" s="7">
+      <c r="E98" s="8">
         <v>5.887</v>
       </c>
-      <c r="F98" s="7">
+      <c r="F98" s="8">
         <v>5.874</v>
       </c>
-      <c r="G98" s="7">
+      <c r="G98" s="8">
         <v>5.678</v>
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="7" t="s">
+      <c r="A99" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B99" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="C99" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="D99" s="7">
+      <c r="D99" s="8">
         <v>6.45</v>
       </c>
-      <c r="E99" s="7">
+      <c r="E99" s="8">
         <v>5.893</v>
       </c>
-      <c r="F99" s="7">
+      <c r="F99" s="8">
         <v>5.733</v>
       </c>
-      <c r="G99" s="7">
+      <c r="G99" s="8">
         <v>5.657</v>
       </c>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="7" t="s">
+      <c r="A100" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="B100" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="C100" s="7" t="s">
+      <c r="C100" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="D100" s="7">
+      <c r="D100" s="8">
         <v>13.3</v>
       </c>
-      <c r="E100" s="7">
+      <c r="E100" s="8">
         <v>12.838</v>
       </c>
-      <c r="F100" s="7">
+      <c r="F100" s="8">
         <v>11.392</v>
       </c>
-      <c r="G100" s="7">
+      <c r="G100" s="8">
         <v>11.301</v>
       </c>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="7" t="s">
+      <c r="A101" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B101" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="C101" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="D101" s="7">
+      <c r="D101" s="8">
         <v>49.4</v>
       </c>
-      <c r="E101" s="7">
+      <c r="E101" s="8">
         <v>44.658</v>
       </c>
-      <c r="F101" s="7">
+      <c r="F101" s="8">
         <v>36.679</v>
       </c>
-      <c r="G101" s="7">
+      <c r="G101" s="8">
         <v>34.336</v>
       </c>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="7" t="s">
+      <c r="A102" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B102" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="C102" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="D102" s="7">
+      <c r="D102" s="8">
         <v>3.07</v>
       </c>
-      <c r="E102" s="7">
+      <c r="E102" s="8">
         <v>3.05</v>
       </c>
-      <c r="F102" s="7">
+      <c r="F102" s="8">
         <v>3.021</v>
       </c>
-      <c r="G102" s="7">
+      <c r="G102" s="8">
         <v>2.99</v>
       </c>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="7" t="s">
+      <c r="A103" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B103" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="C103" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="D103" s="7">
+      <c r="D103" s="8">
         <v>6.72</v>
       </c>
-      <c r="E103" s="7">
+      <c r="E103" s="8">
         <v>6.492</v>
       </c>
-      <c r="F103" s="7">
+      <c r="F103" s="8">
         <v>6.228</v>
       </c>
-      <c r="G103" s="7">
+      <c r="G103" s="8">
         <v>6.21</v>
       </c>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="7" t="s">
+      <c r="A104" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B104" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="C104" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D104" s="7">
+      <c r="D104" s="8">
         <v>33.7</v>
       </c>
-      <c r="E104" s="7">
+      <c r="E104" s="8">
         <v>33.452</v>
       </c>
-      <c r="F104" s="7">
+      <c r="F104" s="8">
         <v>26.247</v>
       </c>
-      <c r="G104" s="7">
+      <c r="G104" s="8">
         <v>26.181</v>
       </c>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="7" t="s">
+      <c r="A105" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="B105" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="C105" s="7" t="s">
+      <c r="C105" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D105" s="7">
+      <c r="D105" s="8">
         <v>67.8</v>
       </c>
-      <c r="E105" s="7">
+      <c r="E105" s="8">
         <v>64.247</v>
       </c>
-      <c r="F105" s="7">
+      <c r="F105" s="8">
         <v>58.919</v>
       </c>
-      <c r="G105" s="7">
+      <c r="G105" s="8">
         <v>58.589</v>
       </c>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="7" t="s">
+      <c r="A106" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="B106" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C106" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="D106" s="7">
+      <c r="D106" s="8">
         <v>24.31</v>
       </c>
-      <c r="E106" s="7">
+      <c r="E106" s="8">
         <v>23.6</v>
       </c>
-      <c r="F106" s="7">
+      <c r="F106" s="8">
         <v>20.147</v>
       </c>
-      <c r="G106" s="7">
+      <c r="G106" s="8">
         <v>19.845</v>
       </c>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="7" t="s">
+      <c r="A107" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B107" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C107" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D107" s="7">
+      <c r="D107" s="8">
         <v>7.41</v>
       </c>
-      <c r="E107" s="7">
+      <c r="E107" s="8">
         <v>7.193</v>
       </c>
-      <c r="F107" s="7">
+      <c r="F107" s="8">
         <v>6.55</v>
       </c>
-      <c r="G107" s="7">
+      <c r="G107" s="8">
         <v>6.408</v>
       </c>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="7" t="s">
+      <c r="A108" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="B108" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="C108" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D108" s="7">
+      <c r="D108" s="8">
         <v>45.13</v>
       </c>
-      <c r="E108" s="7">
+      <c r="E108" s="8">
         <v>41.827</v>
       </c>
-      <c r="F108" s="7">
+      <c r="F108" s="8">
         <v>39.364</v>
       </c>
-      <c r="G108" s="7">
+      <c r="G108" s="8">
         <v>38.995</v>
       </c>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="7" t="s">
+      <c r="A109" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="B109" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="C109" s="7" t="s">
+      <c r="C109" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="D109" s="7">
+      <c r="D109" s="8">
         <v>4.36</v>
       </c>
-      <c r="E109" s="7">
+      <c r="E109" s="8">
         <v>4.287</v>
       </c>
-      <c r="F109" s="7">
+      <c r="F109" s="8">
         <v>4.251</v>
       </c>
-      <c r="G109" s="7">
+      <c r="G109" s="8">
         <v>4.178</v>
       </c>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="7" t="s">
+      <c r="A110" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="B110" s="7" t="s">
+      <c r="B110" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="C110" s="7" t="s">
+      <c r="C110" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="D110" s="7">
+      <c r="D110" s="8">
         <v>10.1</v>
       </c>
-      <c r="E110" s="7">
+      <c r="E110" s="8">
         <v>8.138</v>
       </c>
-      <c r="F110" s="7">
+      <c r="F110" s="8">
         <v>7.103</v>
       </c>
-      <c r="G110" s="7">
+      <c r="G110" s="8">
         <v>6.862</v>
       </c>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="7" t="s">
+      <c r="A111" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="B111" s="7" t="s">
+      <c r="B111" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="C111" s="7" t="s">
+      <c r="C111" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="D111" s="7">
+      <c r="D111" s="8">
         <v>2.86</v>
       </c>
-      <c r="E111" s="7">
+      <c r="E111" s="8">
         <v>2.843</v>
       </c>
-      <c r="F111" s="7">
+      <c r="F111" s="8">
         <v>2.828</v>
       </c>
-      <c r="G111" s="7">
+      <c r="G111" s="8">
         <v>2.816</v>
       </c>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="7" t="s">
+      <c r="A112" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="B112" s="7" t="s">
+      <c r="B112" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="C112" s="7" t="s">
+      <c r="C112" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="D112" s="7">
+      <c r="D112" s="8">
         <v>94.24</v>
       </c>
-      <c r="E112" s="7">
+      <c r="E112" s="8">
         <v>90.834</v>
       </c>
-      <c r="F112" s="7">
+      <c r="F112" s="8">
         <v>79.248</v>
       </c>
-      <c r="G112" s="7">
+      <c r="G112" s="8">
         <v>77.459</v>
       </c>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="7" t="s">
+      <c r="A113" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="B113" s="7" t="s">
+      <c r="B113" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="C113" s="7" t="s">
+      <c r="C113" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="D113" s="7">
+      <c r="D113" s="8">
         <v>7.37</v>
       </c>
-      <c r="E113" s="7">
+      <c r="E113" s="8">
         <v>7.24</v>
       </c>
-      <c r="F113" s="7">
+      <c r="F113" s="8">
         <v>6.899</v>
       </c>
-      <c r="G113" s="7">
+      <c r="G113" s="8">
         <v>6.707</v>
       </c>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="7" t="s">
+      <c r="A114" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="B114" s="7" t="s">
+      <c r="B114" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="C114" s="7" t="s">
+      <c r="C114" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="D114" s="7">
+      <c r="D114" s="8">
         <v>24.07</v>
       </c>
-      <c r="E114" s="7">
+      <c r="E114" s="8">
         <v>22.064</v>
       </c>
-      <c r="F114" s="7">
+      <c r="F114" s="8">
         <v>19.924</v>
       </c>
-      <c r="G114" s="7">
+      <c r="G114" s="8">
         <v>19.704</v>
       </c>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="7" t="s">
+      <c r="A115" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="B115" s="7" t="s">
+      <c r="B115" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="C115" s="7" t="s">
+      <c r="C115" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="D115" s="7">
+      <c r="D115" s="8">
         <v>22.9</v>
       </c>
-      <c r="E115" s="7">
+      <c r="E115" s="8">
         <v>21.576</v>
       </c>
-      <c r="F115" s="7">
+      <c r="F115" s="8">
         <v>16.979</v>
       </c>
-      <c r="G115" s="7">
+      <c r="G115" s="8">
         <v>16.628</v>
       </c>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="7" t="s">
+      <c r="A116" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="B116" s="7" t="s">
+      <c r="B116" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="C116" s="7" t="s">
+      <c r="C116" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="D116" s="7">
+      <c r="D116" s="8">
         <v>10.35</v>
       </c>
-      <c r="E116" s="7">
+      <c r="E116" s="8">
         <v>8.41</v>
       </c>
-      <c r="F116" s="7">
+      <c r="F116" s="8">
         <v>7.002</v>
       </c>
-      <c r="G116" s="7">
+      <c r="G116" s="8">
         <v>6.926</v>
       </c>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="7" t="s">
+      <c r="A117" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="B117" s="7" t="s">
+      <c r="B117" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="C117" s="7" t="s">
+      <c r="C117" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="D117" s="7">
+      <c r="D117" s="8">
         <v>16.16</v>
       </c>
-      <c r="E117" s="7">
+      <c r="E117" s="8">
         <v>15.694</v>
       </c>
-      <c r="F117" s="7">
+      <c r="F117" s="8">
         <v>13.854</v>
       </c>
-      <c r="G117" s="7">
+      <c r="G117" s="8">
         <v>13.634</v>
       </c>
     </row>
     <row r="118" spans="1:32">
-      <c r="A118" s="7" t="s">
+      <c r="A118" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="B118" s="7" t="s">
+      <c r="B118" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="C118" s="7" t="s">
+      <c r="C118" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D118" s="7">
+      <c r="D118" s="8">
         <v>20.85</v>
       </c>
-      <c r="E118" s="7">
+      <c r="E118" s="8">
         <v>20.125</v>
       </c>
-      <c r="F118" s="7">
+      <c r="F118" s="8">
         <v>18.707</v>
       </c>
-      <c r="G118" s="7">
+      <c r="G118" s="8">
         <v>18.495</v>
       </c>
       <c r="H118" s="2">
@@ -6194,15 +6252,15 @@
       <c r="J118" s="2">
         <v>11.07</v>
       </c>
-      <c r="K118" s="13">
+      <c r="K118" s="14">
         <f>(D118-H118)/H118</f>
         <v>0.883468834688347</v>
       </c>
-      <c r="L118" s="13">
+      <c r="L118" s="14">
         <f>(I118-D118)/I118</f>
         <v>0.213504337985666</v>
       </c>
-      <c r="M118" s="13">
+      <c r="M118" s="14">
         <f>(I118-J118)/J118</f>
         <v>1.39476061427281</v>
       </c>
@@ -6233,599 +6291,630 @@
       <c r="X118" s="2">
         <v>20.67</v>
       </c>
-      <c r="AB118" s="19">
+      <c r="AB118" s="20">
         <f>(I118-P118)/I118</f>
         <v>0.495284798189362</v>
       </c>
-      <c r="AC118" s="20">
+      <c r="AC118" s="21">
         <f>(Q118-R118)/Q118</f>
         <v>0.208542713567839</v>
       </c>
-      <c r="AD118" s="20">
+      <c r="AD118" s="21">
         <f>(S118-T118)/S118</f>
         <v>0.1686805219913</v>
       </c>
-      <c r="AE118" s="3">
+      <c r="AE118" s="4">
         <f>(U118-V118)/U118</f>
         <v>0.161731207289294</v>
       </c>
-      <c r="AF118" s="3">
+      <c r="AF118" s="4">
         <f>(W118-X118)/W118</f>
         <v>0.0768200089325591</v>
       </c>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="7" t="s">
+      <c r="A119" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="B119" s="7" t="s">
+      <c r="B119" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="C119" s="7" t="s">
+      <c r="C119" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="D119" s="7">
+      <c r="D119" s="8">
         <v>7.1</v>
       </c>
-      <c r="E119" s="7">
+      <c r="E119" s="8">
         <v>6.62</v>
       </c>
-      <c r="F119" s="7">
+      <c r="F119" s="8">
         <v>6.326</v>
       </c>
-      <c r="G119" s="7">
+      <c r="G119" s="8">
         <v>6.271</v>
       </c>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="7" t="s">
+      <c r="A120" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="B120" s="7" t="s">
+      <c r="B120" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="C120" s="7" t="s">
+      <c r="C120" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="D120" s="7">
+      <c r="D120" s="8">
         <v>8.08</v>
       </c>
-      <c r="E120" s="7">
+      <c r="E120" s="8">
         <v>7.865</v>
       </c>
-      <c r="F120" s="7">
+      <c r="F120" s="8">
         <v>7.097</v>
       </c>
-      <c r="G120" s="7">
+      <c r="G120" s="8">
         <v>7.038</v>
       </c>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="7" t="s">
+      <c r="A121" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="B121" s="7" t="s">
+      <c r="B121" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="C121" s="7" t="s">
+      <c r="C121" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D121" s="7">
+      <c r="D121" s="8">
         <v>3.73</v>
       </c>
-      <c r="E121" s="7">
+      <c r="E121" s="8">
         <v>3.681</v>
       </c>
-      <c r="F121" s="7">
+      <c r="F121" s="8">
         <v>3.621</v>
       </c>
-      <c r="G121" s="7">
+      <c r="G121" s="8">
         <v>3.495</v>
       </c>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="7" t="s">
+      <c r="A122" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="B122" s="7" t="s">
+      <c r="B122" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="C122" s="7" t="s">
+      <c r="C122" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="D122" s="7">
+      <c r="D122" s="8">
         <v>13.94</v>
       </c>
-      <c r="E122" s="7">
+      <c r="E122" s="8">
         <v>13.932</v>
       </c>
-      <c r="F122" s="7">
+      <c r="F122" s="8">
         <v>13.922</v>
       </c>
-      <c r="G122" s="7">
+      <c r="G122" s="8">
         <v>13.871</v>
       </c>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="7" t="s">
+      <c r="A123" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="B123" s="7" t="s">
+      <c r="B123" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="C123" s="7" t="s">
+      <c r="C123" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="D123" s="7">
+      <c r="D123" s="8">
         <v>10.14</v>
       </c>
-      <c r="E123" s="7">
+      <c r="E123" s="8">
         <v>8.832</v>
       </c>
-      <c r="F123" s="7">
+      <c r="F123" s="8">
         <v>8.246</v>
       </c>
-      <c r="G123" s="7">
+      <c r="G123" s="8">
         <v>8.242</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
-      <c r="A124" s="7" t="s">
+    <row r="124" spans="1:28">
+      <c r="A124" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="B124" s="7" t="s">
+      <c r="B124" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="C124" s="7" t="s">
+      <c r="C124" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="D124" s="7">
+      <c r="D124" s="8">
         <v>114.28</v>
       </c>
-      <c r="E124" s="7">
+      <c r="E124" s="8">
         <v>101.532</v>
       </c>
-      <c r="F124" s="7">
+      <c r="F124" s="8">
         <v>78.549</v>
       </c>
-      <c r="G124" s="7">
+      <c r="G124" s="8">
         <v>75.612</v>
       </c>
+      <c r="H124" s="2">
+        <v>46.92</v>
+      </c>
+      <c r="I124" s="2">
+        <v>120.66</v>
+      </c>
+      <c r="J124" s="2">
+        <v>57.94</v>
+      </c>
+      <c r="K124" s="14">
+        <f>(D124-H124)/H124</f>
+        <v>1.43563512361466</v>
+      </c>
+      <c r="L124" s="14">
+        <f>(I124-D124)/I124</f>
+        <v>0.0528758494944472</v>
+      </c>
+      <c r="M124" s="14">
+        <f>(I124-J124)/J124</f>
+        <v>1.08249913703832</v>
+      </c>
+      <c r="P124" s="2">
+        <v>86.67</v>
+      </c>
+      <c r="AA124" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="AB124" s="26">
+        <f>(I124-P124)/I124</f>
+        <v>0.281700646444555</v>
+      </c>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="B125" s="7" t="s">
+      <c r="A125" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="C125" s="7" t="s">
+      <c r="B125" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="C125" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D125" s="7">
+      <c r="D125" s="8">
         <v>5.85</v>
       </c>
-      <c r="E125" s="7">
+      <c r="E125" s="8">
         <v>5.824</v>
       </c>
-      <c r="F125" s="7">
+      <c r="F125" s="8">
         <v>5.293</v>
       </c>
-      <c r="G125" s="7">
+      <c r="G125" s="8">
         <v>5.062</v>
       </c>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="B126" s="7" t="s">
+      <c r="A126" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="C126" s="7" t="s">
+      <c r="B126" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="C126" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="D126" s="7">
+      <c r="D126" s="8">
         <v>28.55</v>
       </c>
-      <c r="E126" s="7">
+      <c r="E126" s="8">
         <v>26.932</v>
       </c>
-      <c r="F126" s="7">
+      <c r="F126" s="8">
         <v>21.287</v>
       </c>
-      <c r="G126" s="7">
+      <c r="G126" s="8">
         <v>18.597</v>
       </c>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="B127" s="8" t="s">
+      <c r="A127" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="C127" s="7" t="s">
+      <c r="B127" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="C127" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D127" s="7">
+      <c r="D127" s="8">
         <v>16.54</v>
       </c>
-      <c r="E127" s="7">
+      <c r="E127" s="8">
         <v>15.973</v>
       </c>
-      <c r="F127" s="7">
+      <c r="F127" s="8">
         <v>15.08</v>
       </c>
-      <c r="G127" s="7">
+      <c r="G127" s="8">
         <v>14.391</v>
       </c>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="B128" s="7" t="s">
+      <c r="A128" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="C128" s="7" t="s">
+      <c r="B128" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="D128" s="7">
+      <c r="C128" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="D128" s="8">
         <v>6.58</v>
       </c>
-      <c r="E128" s="7">
+      <c r="E128" s="8">
         <v>6.3</v>
       </c>
-      <c r="F128" s="7">
+      <c r="F128" s="8">
         <v>5.97</v>
       </c>
-      <c r="G128" s="7">
+      <c r="G128" s="8">
         <v>5.922</v>
       </c>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="B129" s="7" t="s">
+      <c r="A129" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="C129" s="7" t="s">
+      <c r="B129" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="D129" s="7">
+      <c r="C129" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="D129" s="8">
         <v>138.4</v>
       </c>
-      <c r="E129" s="7">
+      <c r="E129" s="8">
         <v>133.681</v>
       </c>
-      <c r="F129" s="7">
+      <c r="F129" s="8">
         <v>106.948</v>
       </c>
-      <c r="G129" s="7">
+      <c r="G129" s="8">
         <v>94.608</v>
       </c>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="B130" s="7" t="s">
+      <c r="A130" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="C130" s="7" t="s">
+      <c r="B130" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="C130" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D130" s="7">
+      <c r="D130" s="8">
         <v>18.88</v>
       </c>
-      <c r="E130" s="7">
+      <c r="E130" s="8">
         <v>18.447</v>
       </c>
-      <c r="F130" s="7">
+      <c r="F130" s="8">
         <v>16.585</v>
       </c>
-      <c r="G130" s="7">
+      <c r="G130" s="8">
         <v>16.094</v>
       </c>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="B131" s="7" t="s">
+      <c r="A131" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="C131" s="7" t="s">
+      <c r="B131" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="C131" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="D131" s="7">
+      <c r="D131" s="8">
         <v>9.89</v>
       </c>
-      <c r="E131" s="7">
+      <c r="E131" s="8">
         <v>8.775</v>
       </c>
-      <c r="F131" s="7">
+      <c r="F131" s="8">
         <v>8.203</v>
       </c>
-      <c r="G131" s="7">
+      <c r="G131" s="8">
         <v>8.137</v>
       </c>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="B132" s="7" t="s">
+      <c r="A132" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="C132" s="7" t="s">
+      <c r="B132" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="C132" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D132" s="7">
+      <c r="D132" s="8">
         <v>30.25</v>
       </c>
-      <c r="E132" s="7">
+      <c r="E132" s="8">
         <v>27.413</v>
       </c>
-      <c r="F132" s="7">
+      <c r="F132" s="8">
         <v>26.18</v>
       </c>
-      <c r="G132" s="7">
+      <c r="G132" s="8">
         <v>25.731</v>
       </c>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="B133" s="7" t="s">
+      <c r="A133" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="C133" s="7" t="s">
+      <c r="B133" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="C133" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="D133" s="7">
+      <c r="D133" s="8">
         <v>4.6</v>
       </c>
-      <c r="E133" s="7">
+      <c r="E133" s="8">
         <v>4.49</v>
       </c>
-      <c r="F133" s="7">
+      <c r="F133" s="8">
         <v>3.797</v>
       </c>
-      <c r="G133" s="7">
+      <c r="G133" s="8">
         <v>3.752</v>
       </c>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="B134" s="7" t="s">
+      <c r="A134" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="C134" s="7" t="s">
+      <c r="B134" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="C134" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="D134" s="7">
+      <c r="D134" s="8">
         <v>44.06</v>
       </c>
-      <c r="E134" s="7">
+      <c r="E134" s="8">
         <v>38.363</v>
       </c>
-      <c r="F134" s="7">
+      <c r="F134" s="8">
         <v>29.553</v>
       </c>
-      <c r="G134" s="7">
+      <c r="G134" s="8">
         <v>28.369</v>
       </c>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="B135" s="7" t="s">
+      <c r="A135" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="C135" s="7" t="s">
+      <c r="B135" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="C135" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="D135" s="7">
+      <c r="D135" s="8">
         <v>5.03</v>
       </c>
-      <c r="E135" s="7">
+      <c r="E135" s="8">
         <v>4.644</v>
       </c>
-      <c r="F135" s="7">
+      <c r="F135" s="8">
         <v>3.896</v>
       </c>
-      <c r="G135" s="7">
+      <c r="G135" s="8">
         <v>3.883</v>
       </c>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="B136" s="7" t="s">
+      <c r="A136" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="C136" s="7" t="s">
+      <c r="B136" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="C136" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="D136" s="7">
+      <c r="D136" s="8">
         <v>13.2</v>
       </c>
-      <c r="E136" s="7">
+      <c r="E136" s="8">
         <v>13.039</v>
       </c>
-      <c r="F136" s="7">
+      <c r="F136" s="8">
         <v>11.808</v>
       </c>
-      <c r="G136" s="7">
+      <c r="G136" s="8">
         <v>11.674</v>
       </c>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="B137" s="7" t="s">
+      <c r="A137" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="C137" s="7" t="s">
+      <c r="B137" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="C137" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D137" s="7">
+      <c r="D137" s="8">
         <v>17.34</v>
       </c>
-      <c r="E137" s="7">
+      <c r="E137" s="8">
         <v>14.34</v>
       </c>
-      <c r="F137" s="7">
+      <c r="F137" s="8">
         <v>11.156</v>
       </c>
-      <c r="G137" s="7">
+      <c r="G137" s="8">
         <v>10.363</v>
       </c>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="B138" s="7" t="s">
+      <c r="A138" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="C138" s="7" t="s">
+      <c r="B138" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="C138" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D138" s="7">
+      <c r="D138" s="8">
         <v>23.54</v>
       </c>
-      <c r="E138" s="7">
+      <c r="E138" s="8">
         <v>21.591</v>
       </c>
-      <c r="F138" s="7">
+      <c r="F138" s="8">
         <v>21.407</v>
       </c>
-      <c r="G138" s="7">
+      <c r="G138" s="8">
         <v>21.356</v>
       </c>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="B139" s="7" t="s">
+      <c r="A139" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="C139" s="7" t="s">
+      <c r="B139" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="C139" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D139" s="7">
+      <c r="D139" s="8">
         <v>8.19</v>
       </c>
-      <c r="E139" s="7">
+      <c r="E139" s="8">
         <v>7.93</v>
       </c>
-      <c r="F139" s="7">
+      <c r="F139" s="8">
         <v>7.561</v>
       </c>
-      <c r="G139" s="7">
+      <c r="G139" s="8">
         <v>7.237</v>
       </c>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="B140" s="7" t="s">
+      <c r="A140" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="C140" s="7" t="s">
+      <c r="B140" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="D140" s="7">
+      <c r="C140" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="D140" s="8">
         <v>9.34</v>
       </c>
-      <c r="E140" s="7">
+      <c r="E140" s="8">
         <v>9.269</v>
       </c>
-      <c r="F140" s="7">
+      <c r="F140" s="8">
         <v>8.565</v>
       </c>
-      <c r="G140" s="7">
+      <c r="G140" s="8">
         <v>8.526</v>
       </c>
     </row>
     <row r="141" spans="1:7">
-      <c r="A141" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="B141" s="7" t="s">
+      <c r="A141" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="C141" s="7" t="s">
+      <c r="B141" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="D141" s="7">
+      <c r="C141" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="D141" s="8">
         <v>126</v>
       </c>
-      <c r="E141" s="7">
+      <c r="E141" s="8">
         <v>107.874</v>
       </c>
-      <c r="F141" s="7">
+      <c r="F141" s="8">
         <v>89.241</v>
       </c>
-      <c r="G141" s="7">
+      <c r="G141" s="8">
         <v>86.269</v>
       </c>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="B142" s="7" t="s">
+      <c r="A142" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="C142" s="7" t="s">
+      <c r="B142" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="C142" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D142" s="7">
+      <c r="D142" s="8">
         <v>20.71</v>
       </c>
-      <c r="E142" s="7">
+      <c r="E142" s="8">
         <v>20.588</v>
       </c>
-      <c r="F142" s="7">
+      <c r="F142" s="8">
         <v>19.197</v>
       </c>
-      <c r="G142" s="7">
+      <c r="G142" s="8">
         <v>18.585</v>
       </c>
     </row>
     <row r="143" spans="1:30">
-      <c r="A143" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="B143" s="8" t="s">
+      <c r="A143" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="C143" s="7" t="s">
+      <c r="B143" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="C143" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D143" s="7">
+      <c r="D143" s="8">
         <v>151.55</v>
       </c>
-      <c r="E143" s="7">
+      <c r="E143" s="8">
         <v>133.879</v>
       </c>
-      <c r="F143" s="7">
+      <c r="F143" s="8">
         <v>125.532</v>
       </c>
-      <c r="G143" s="7">
+      <c r="G143" s="8">
         <v>125.296</v>
       </c>
       <c r="H143" s="2">
@@ -6837,19 +6926,19 @@
       <c r="J143" s="2">
         <v>82.89</v>
       </c>
-      <c r="K143" s="13">
+      <c r="K143" s="14">
         <f>(D143-H143)/H143</f>
         <v>1.27177334732424</v>
       </c>
-      <c r="L143" s="13">
+      <c r="L143" s="14">
         <f>(I143-D143)/I143</f>
         <v>0.0451137294436393</v>
       </c>
-      <c r="M143" s="13">
+      <c r="M143" s="14">
         <f>(I143-J143)/J143</f>
         <v>0.914706237181807</v>
       </c>
-      <c r="O143" s="25" t="s">
+      <c r="O143" s="27" t="s">
         <v>75</v>
       </c>
       <c r="P143" s="2">
@@ -6867,844 +6956,844 @@
       <c r="T143" s="2">
         <v>124.25</v>
       </c>
-      <c r="AB143" s="26">
+      <c r="AB143" s="28">
         <f>(I143-P143)/I143</f>
         <v>0.475962447230798</v>
       </c>
-      <c r="AC143" s="27">
+      <c r="AC143" s="29">
         <f>(Q143-R143)/Q143</f>
         <v>0.216615425745221</v>
       </c>
-      <c r="AD143" s="27">
+      <c r="AD143" s="29">
         <f>(S143-T143)/S143</f>
         <v>0.177152317880795</v>
       </c>
     </row>
     <row r="144" spans="1:7">
-      <c r="A144" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="B144" s="7" t="s">
+      <c r="A144" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="C144" s="7" t="s">
+      <c r="B144" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="D144" s="7">
+      <c r="C144" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="D144" s="8">
         <v>5.11</v>
       </c>
-      <c r="E144" s="7">
+      <c r="E144" s="8">
         <v>4.928</v>
       </c>
-      <c r="F144" s="7">
+      <c r="F144" s="8">
         <v>4.683</v>
       </c>
-      <c r="G144" s="7">
+      <c r="G144" s="8">
         <v>4.651</v>
       </c>
     </row>
     <row r="145" spans="1:7">
-      <c r="A145" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="B145" s="7" t="s">
+      <c r="A145" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="C145" s="7" t="s">
+      <c r="B145" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="D145" s="7">
+      <c r="C145" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="D145" s="8">
         <v>9.15</v>
       </c>
-      <c r="E145" s="7">
+      <c r="E145" s="8">
         <v>8.445</v>
       </c>
-      <c r="F145" s="7">
+      <c r="F145" s="8">
         <v>8.012</v>
       </c>
-      <c r="G145" s="7">
+      <c r="G145" s="8">
         <v>7.696</v>
       </c>
     </row>
     <row r="146" spans="1:7">
-      <c r="A146" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="B146" s="7" t="s">
+      <c r="A146" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="C146" s="7" t="s">
+      <c r="B146" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="C146" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="D146" s="7">
+      <c r="D146" s="8">
         <v>122.2</v>
       </c>
-      <c r="E146" s="7">
+      <c r="E146" s="8">
         <v>121.873</v>
       </c>
-      <c r="F146" s="7">
+      <c r="F146" s="8">
         <v>119.148</v>
       </c>
-      <c r="G146" s="7">
+      <c r="G146" s="8">
         <v>117.983</v>
       </c>
     </row>
     <row r="147" spans="1:7">
-      <c r="A147" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="B147" s="7" t="s">
+      <c r="A147" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="C147" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="D147" s="7">
+      <c r="B147" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="D147" s="8">
         <v>12.51</v>
       </c>
-      <c r="E147" s="7">
+      <c r="E147" s="8">
         <v>12.275</v>
       </c>
-      <c r="F147" s="7">
+      <c r="F147" s="8">
         <v>11.4</v>
       </c>
-      <c r="G147" s="7">
+      <c r="G147" s="8">
         <v>11.347</v>
       </c>
     </row>
     <row r="148" spans="1:7">
-      <c r="A148" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="B148" s="7" t="s">
+      <c r="A148" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="C148" s="7" t="s">
+      <c r="B148" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="D148" s="7">
+      <c r="C148" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="D148" s="8">
         <v>170.6</v>
       </c>
-      <c r="E148" s="7">
+      <c r="E148" s="8">
         <v>164.385</v>
       </c>
-      <c r="F148" s="7">
+      <c r="F148" s="8">
         <v>152.602</v>
       </c>
-      <c r="G148" s="7">
+      <c r="G148" s="8">
         <v>147.403</v>
       </c>
     </row>
     <row r="149" spans="1:7">
-      <c r="A149" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="B149" s="7" t="s">
+      <c r="A149" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="C149" s="7" t="s">
+      <c r="B149" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="D149" s="7">
+      <c r="C149" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="D149" s="8">
         <v>3.55</v>
       </c>
-      <c r="E149" s="7">
+      <c r="E149" s="8">
         <v>3.511</v>
       </c>
-      <c r="F149" s="7">
+      <c r="F149" s="8">
         <v>3.168</v>
       </c>
-      <c r="G149" s="7">
+      <c r="G149" s="8">
         <v>2.996</v>
       </c>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="B150" s="8" t="s">
+      <c r="A150" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="C150" s="7" t="s">
+      <c r="B150" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="C150" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D150" s="7">
+      <c r="D150" s="8">
         <v>8.07</v>
       </c>
-      <c r="E150" s="7">
+      <c r="E150" s="8">
         <v>7.549</v>
       </c>
-      <c r="F150" s="7">
+      <c r="F150" s="8">
         <v>6.163</v>
       </c>
-      <c r="G150" s="7">
+      <c r="G150" s="8">
         <v>5.65</v>
       </c>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="B151" s="7" t="s">
+      <c r="A151" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="C151" s="7" t="s">
+      <c r="B151" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="D151" s="7">
+      <c r="C151" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="D151" s="8">
         <v>11.05</v>
       </c>
-      <c r="E151" s="7">
+      <c r="E151" s="8">
         <v>10.904</v>
       </c>
-      <c r="F151" s="7">
+      <c r="F151" s="8">
         <v>8.944</v>
       </c>
-      <c r="G151" s="7">
+      <c r="G151" s="8">
         <v>8.501</v>
       </c>
     </row>
     <row r="152" spans="1:7">
-      <c r="A152" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="B152" s="7" t="s">
+      <c r="A152" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="C152" s="7" t="s">
+      <c r="B152" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="C152" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D152" s="7">
+      <c r="D152" s="8">
         <v>7.98</v>
       </c>
-      <c r="E152" s="7">
+      <c r="E152" s="8">
         <v>7.933</v>
       </c>
-      <c r="F152" s="7">
+      <c r="F152" s="8">
         <v>7.721</v>
       </c>
-      <c r="G152" s="7">
+      <c r="G152" s="8">
         <v>7.539</v>
       </c>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="B153" s="7" t="s">
+      <c r="A153" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="C153" s="7" t="s">
+      <c r="B153" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="C153" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D153" s="7">
+      <c r="D153" s="8">
         <v>13.33</v>
       </c>
-      <c r="E153" s="7">
+      <c r="E153" s="8">
         <v>11.578</v>
       </c>
-      <c r="F153" s="7">
+      <c r="F153" s="8">
         <v>10.197</v>
       </c>
-      <c r="G153" s="7">
+      <c r="G153" s="8">
         <v>10.186</v>
       </c>
     </row>
     <row r="154" spans="1:7">
-      <c r="A154" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="B154" s="7" t="s">
+      <c r="A154" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="C154" s="7" t="s">
+      <c r="B154" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="C154" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="D154" s="7">
+      <c r="D154" s="8">
         <v>12.62</v>
       </c>
-      <c r="E154" s="7">
+      <c r="E154" s="8">
         <v>12.313</v>
       </c>
-      <c r="F154" s="7">
+      <c r="F154" s="8">
         <v>10.489</v>
       </c>
-      <c r="G154" s="7">
+      <c r="G154" s="8">
         <v>10.027</v>
       </c>
     </row>
     <row r="155" spans="1:7">
-      <c r="A155" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="B155" s="7" t="s">
+      <c r="A155" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="C155" s="7" t="s">
+      <c r="B155" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="C155" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="D155" s="7">
+      <c r="D155" s="8">
         <v>41.2</v>
       </c>
-      <c r="E155" s="7">
+      <c r="E155" s="8">
         <v>38.125</v>
       </c>
-      <c r="F155" s="7">
+      <c r="F155" s="8">
         <v>29.658</v>
       </c>
-      <c r="G155" s="7">
+      <c r="G155" s="8">
         <v>28.965</v>
       </c>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="B156" s="7" t="s">
+      <c r="A156" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="C156" s="7" t="s">
+      <c r="B156" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="C156" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="D156" s="7">
+      <c r="D156" s="8">
         <v>3.53</v>
       </c>
-      <c r="E156" s="7">
+      <c r="E156" s="8">
         <v>3.473</v>
       </c>
-      <c r="F156" s="7">
+      <c r="F156" s="8">
         <v>3.408</v>
       </c>
-      <c r="G156" s="7">
+      <c r="G156" s="8">
         <v>3.34</v>
       </c>
     </row>
     <row r="157" spans="1:7">
-      <c r="A157" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="B157" s="7" t="s">
+      <c r="A157" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="C157" s="7" t="s">
+      <c r="B157" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="C157" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D157" s="7">
+      <c r="D157" s="8">
         <v>23.12</v>
       </c>
-      <c r="E157" s="7">
+      <c r="E157" s="8">
         <v>20.047</v>
       </c>
-      <c r="F157" s="7">
+      <c r="F157" s="8">
         <v>16.862</v>
       </c>
-      <c r="G157" s="7">
+      <c r="G157" s="8">
         <v>16.31</v>
       </c>
     </row>
     <row r="158" spans="1:7">
-      <c r="A158" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="B158" s="7" t="s">
+      <c r="A158" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="C158" s="7" t="s">
+      <c r="B158" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="C158" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D158" s="7">
+      <c r="D158" s="8">
         <v>13.16</v>
       </c>
-      <c r="E158" s="7">
+      <c r="E158" s="8">
         <v>9.716</v>
       </c>
-      <c r="F158" s="7">
+      <c r="F158" s="8">
         <v>9.082</v>
       </c>
-      <c r="G158" s="7">
+      <c r="G158" s="8">
         <v>8.963</v>
       </c>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="B159" s="7" t="s">
+      <c r="A159" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="C159" s="7" t="s">
+      <c r="B159" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="D159" s="7">
+      <c r="C159" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="D159" s="8">
         <v>10.04</v>
       </c>
-      <c r="E159" s="7">
+      <c r="E159" s="8">
         <v>9.714</v>
       </c>
-      <c r="F159" s="7">
+      <c r="F159" s="8">
         <v>9.137</v>
       </c>
-      <c r="G159" s="7">
+      <c r="G159" s="8">
         <v>9.104</v>
       </c>
     </row>
     <row r="160" spans="1:7">
-      <c r="A160" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="B160" s="7" t="s">
+      <c r="A160" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="C160" s="7" t="s">
+      <c r="B160" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="D160" s="7">
+      <c r="C160" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="D160" s="8">
         <v>5.22</v>
       </c>
-      <c r="E160" s="7">
+      <c r="E160" s="8">
         <v>4.981</v>
       </c>
-      <c r="F160" s="7">
+      <c r="F160" s="8">
         <v>4.589</v>
       </c>
-      <c r="G160" s="7">
+      <c r="G160" s="8">
         <v>4.576</v>
       </c>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="7" t="s">
+      <c r="A161" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D161" s="8">
+        <v>5.75</v>
+      </c>
+      <c r="E161" s="8">
+        <v>5.649</v>
+      </c>
+      <c r="F161" s="8">
+        <v>4.67</v>
+      </c>
+      <c r="G161" s="8">
+        <v>4.571</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D162" s="8">
+        <v>8.59</v>
+      </c>
+      <c r="E162" s="8">
+        <v>8.423</v>
+      </c>
+      <c r="F162" s="8">
+        <v>8.186</v>
+      </c>
+      <c r="G162" s="8">
+        <v>8.179</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D163" s="8">
+        <v>30.24</v>
+      </c>
+      <c r="E163" s="8">
+        <v>29.597</v>
+      </c>
+      <c r="F163" s="8">
+        <v>23.164</v>
+      </c>
+      <c r="G163" s="8">
+        <v>22.303</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="D164" s="8">
+        <v>25.79</v>
+      </c>
+      <c r="E164" s="8">
+        <v>23.941</v>
+      </c>
+      <c r="F164" s="8">
+        <v>20.295</v>
+      </c>
+      <c r="G164" s="8">
+        <v>19.989</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="D165" s="8">
+        <v>8.72</v>
+      </c>
+      <c r="E165" s="8">
+        <v>8.399</v>
+      </c>
+      <c r="F165" s="8">
+        <v>8.067</v>
+      </c>
+      <c r="G165" s="8">
+        <v>7.746</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D166" s="8">
+        <v>7.18</v>
+      </c>
+      <c r="E166" s="8">
+        <v>6.875</v>
+      </c>
+      <c r="F166" s="8">
+        <v>6.27</v>
+      </c>
+      <c r="G166" s="8">
+        <v>6.246</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D167" s="8">
+        <v>22.78</v>
+      </c>
+      <c r="E167" s="8">
+        <v>20.026</v>
+      </c>
+      <c r="F167" s="8">
+        <v>17.823</v>
+      </c>
+      <c r="G167" s="8">
+        <v>17.343</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="D168" s="8">
+        <v>4.26</v>
+      </c>
+      <c r="E168" s="8">
+        <v>4.177</v>
+      </c>
+      <c r="F168" s="8">
+        <v>4.168</v>
+      </c>
+      <c r="G168" s="8">
+        <v>4.095</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="D169" s="8">
+        <v>3.94</v>
+      </c>
+      <c r="E169" s="8">
+        <v>3.789</v>
+      </c>
+      <c r="F169" s="8">
+        <v>3.475</v>
+      </c>
+      <c r="G169" s="8">
+        <v>3.429</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="D170" s="8">
+        <v>4.42</v>
+      </c>
+      <c r="E170" s="8">
+        <v>4.335</v>
+      </c>
+      <c r="F170" s="8">
+        <v>3.674</v>
+      </c>
+      <c r="G170" s="8">
+        <v>3.586</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="D171" s="8">
+        <v>26.43</v>
+      </c>
+      <c r="E171" s="8">
+        <v>24.691</v>
+      </c>
+      <c r="F171" s="8">
+        <v>24.135</v>
+      </c>
+      <c r="G171" s="8">
+        <v>22.751</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="C172" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D172" s="8">
+        <v>14.49</v>
+      </c>
+      <c r="E172" s="8">
+        <v>12.746</v>
+      </c>
+      <c r="F172" s="8">
+        <v>9.974</v>
+      </c>
+      <c r="G172" s="8">
+        <v>9.927</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D173" s="8">
+        <v>3.38</v>
+      </c>
+      <c r="E173" s="8">
+        <v>3.157</v>
+      </c>
+      <c r="F173" s="8">
+        <v>2.787</v>
+      </c>
+      <c r="G173" s="8">
+        <v>2.674</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="D174" s="8">
+        <v>3.89</v>
+      </c>
+      <c r="E174" s="8">
+        <v>3.71</v>
+      </c>
+      <c r="F174" s="8">
+        <v>3.706</v>
+      </c>
+      <c r="G174" s="8">
+        <v>3.666</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="C175" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="B161" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="C161" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="D161" s="7">
-        <v>5.75</v>
-      </c>
-      <c r="E161" s="7">
-        <v>5.649</v>
-      </c>
-      <c r="F161" s="7">
-        <v>4.67</v>
-      </c>
-      <c r="G161" s="7">
-        <v>4.571</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7">
-      <c r="A162" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="B162" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="C162" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="D162" s="7">
-        <v>8.59</v>
-      </c>
-      <c r="E162" s="7">
-        <v>8.423</v>
-      </c>
-      <c r="F162" s="7">
-        <v>8.186</v>
-      </c>
-      <c r="G162" s="7">
-        <v>8.179</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7">
-      <c r="A163" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="B163" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="C163" s="7" t="s">
+      <c r="D175" s="8">
+        <v>13.41</v>
+      </c>
+      <c r="E175" s="8">
+        <v>12.372</v>
+      </c>
+      <c r="F175" s="8">
+        <v>9.126</v>
+      </c>
+      <c r="G175" s="8">
+        <v>8.041</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D176" s="8">
+        <v>4.09</v>
+      </c>
+      <c r="E176" s="8">
+        <v>4.069</v>
+      </c>
+      <c r="F176" s="8">
+        <v>4.025</v>
+      </c>
+      <c r="G176" s="8">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="C177" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D163" s="7">
-        <v>30.24</v>
-      </c>
-      <c r="E163" s="7">
-        <v>29.597</v>
-      </c>
-      <c r="F163" s="7">
-        <v>23.164</v>
-      </c>
-      <c r="G163" s="7">
-        <v>22.303</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7">
-      <c r="A164" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="B164" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="C164" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="D164" s="7">
-        <v>25.79</v>
-      </c>
-      <c r="E164" s="7">
-        <v>23.941</v>
-      </c>
-      <c r="F164" s="7">
-        <v>20.295</v>
-      </c>
-      <c r="G164" s="7">
-        <v>19.989</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7">
-      <c r="A165" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="B165" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="C165" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="D165" s="7">
-        <v>8.72</v>
-      </c>
-      <c r="E165" s="7">
-        <v>8.399</v>
-      </c>
-      <c r="F165" s="7">
-        <v>8.067</v>
-      </c>
-      <c r="G165" s="7">
-        <v>7.746</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7">
-      <c r="A166" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="B166" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="C166" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D166" s="7">
-        <v>7.18</v>
-      </c>
-      <c r="E166" s="7">
-        <v>6.875</v>
-      </c>
-      <c r="F166" s="7">
-        <v>6.27</v>
-      </c>
-      <c r="G166" s="7">
-        <v>6.246</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7">
-      <c r="A167" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="B167" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="D167" s="7">
-        <v>22.78</v>
-      </c>
-      <c r="E167" s="7">
-        <v>20.026</v>
-      </c>
-      <c r="F167" s="7">
-        <v>17.823</v>
-      </c>
-      <c r="G167" s="7">
-        <v>17.343</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
-      <c r="A168" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="B168" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="C168" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="D168" s="7">
-        <v>4.26</v>
-      </c>
-      <c r="E168" s="7">
-        <v>4.177</v>
-      </c>
-      <c r="F168" s="7">
-        <v>4.168</v>
-      </c>
-      <c r="G168" s="7">
-        <v>4.095</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7">
-      <c r="A169" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="B169" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="D169" s="7">
-        <v>3.94</v>
-      </c>
-      <c r="E169" s="7">
-        <v>3.789</v>
-      </c>
-      <c r="F169" s="7">
-        <v>3.475</v>
-      </c>
-      <c r="G169" s="7">
-        <v>3.429</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7">
-      <c r="A170" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="B170" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="C170" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="D170" s="7">
-        <v>4.42</v>
-      </c>
-      <c r="E170" s="7">
-        <v>4.335</v>
-      </c>
-      <c r="F170" s="7">
-        <v>3.674</v>
-      </c>
-      <c r="G170" s="7">
-        <v>3.586</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7">
-      <c r="A171" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="B171" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="C171" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="D171" s="7">
-        <v>26.43</v>
-      </c>
-      <c r="E171" s="7">
-        <v>24.691</v>
-      </c>
-      <c r="F171" s="7">
-        <v>24.135</v>
-      </c>
-      <c r="G171" s="7">
-        <v>22.751</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7">
-      <c r="A172" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="B172" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="C172" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="D172" s="7">
-        <v>14.49</v>
-      </c>
-      <c r="E172" s="7">
-        <v>12.746</v>
-      </c>
-      <c r="F172" s="7">
-        <v>9.974</v>
-      </c>
-      <c r="G172" s="7">
-        <v>9.927</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7">
-      <c r="A173" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="B173" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="C173" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D173" s="7">
-        <v>3.38</v>
-      </c>
-      <c r="E173" s="7">
-        <v>3.157</v>
-      </c>
-      <c r="F173" s="7">
-        <v>2.787</v>
-      </c>
-      <c r="G173" s="7">
-        <v>2.674</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7">
-      <c r="A174" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="B174" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="C174" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="D174" s="7">
-        <v>3.89</v>
-      </c>
-      <c r="E174" s="7">
-        <v>3.71</v>
-      </c>
-      <c r="F174" s="7">
-        <v>3.706</v>
-      </c>
-      <c r="G174" s="7">
-        <v>3.666</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
-      <c r="A175" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="B175" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="C175" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="D175" s="7">
-        <v>13.41</v>
-      </c>
-      <c r="E175" s="7">
-        <v>12.372</v>
-      </c>
-      <c r="F175" s="7">
-        <v>9.126</v>
-      </c>
-      <c r="G175" s="7">
-        <v>8.041</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7">
-      <c r="A176" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="B176" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="C176" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D176" s="7">
-        <v>4.09</v>
-      </c>
-      <c r="E176" s="7">
-        <v>4.069</v>
-      </c>
-      <c r="F176" s="7">
-        <v>4.025</v>
-      </c>
-      <c r="G176" s="7">
-        <v>3.97</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7">
-      <c r="A177" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="B177" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="C177" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D177" s="7">
+      <c r="D177" s="8">
         <v>7.68</v>
       </c>
-      <c r="E177" s="7">
+      <c r="E177" s="8">
         <v>7</v>
       </c>
-      <c r="F177" s="7">
+      <c r="F177" s="8">
         <v>5.403</v>
       </c>
-      <c r="G177" s="7">
+      <c r="G177" s="8">
         <v>5.257</v>
       </c>
     </row>
     <row r="178" spans="1:7">
-      <c r="A178" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="B178" s="7" t="s">
+      <c r="A178" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="C178" s="7" t="s">
+      <c r="B178" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="C178" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="D178" s="7">
+      <c r="D178" s="8">
         <v>8.5</v>
       </c>
-      <c r="E178" s="7">
+      <c r="E178" s="8">
         <v>7.989</v>
       </c>
-      <c r="F178" s="7">
+      <c r="F178" s="8">
         <v>6.403</v>
       </c>
-      <c r="G178" s="7">
+      <c r="G178" s="8">
         <v>6.35</v>
       </c>
     </row>
     <row r="179" spans="1:7">
-      <c r="A179" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="B179" s="7" t="s">
+      <c r="A179" s="8" t="s">
         <v>486</v>
       </c>
-      <c r="C179" s="7" t="s">
+      <c r="B179" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="D179" s="7">
+      <c r="C179" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="D179" s="8">
         <v>12.77</v>
       </c>
-      <c r="E179" s="7">
+      <c r="E179" s="8">
         <v>11.498</v>
       </c>
-      <c r="F179" s="7">
+      <c r="F179" s="8">
         <v>10.241</v>
       </c>
-      <c r="G179" s="7">
+      <c r="G179" s="8">
         <v>9.943</v>
       </c>
     </row>

--- a/我的创作/财务/证券投资/股票/SEAP交易系统/交易分析/技术面2022-10-21.xlsx
+++ b/我的创作/财务/证券投资/股票/SEAP交易系统/交易分析/技术面2022-10-21.xlsx
@@ -2937,11 +2937,11 @@
   <dimension ref="A1:AO179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="V4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="AA124" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AE19" sqref="AE19"/>
+      <selection pane="bottomRight" activeCell="AD140" sqref="AD140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8"/>
